--- a/database/industries/darou/dalber/product/monthly_seprated.xlsx
+++ b/database/industries/darou/dalber/product/monthly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\dalber\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EEDAFA-7F00-4A6B-8981-6BD1BBD852A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5A8137-9351-46E8-B99A-6AFC5FF3E755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4044" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2105" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="96">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1519,95 +1519,95 @@
       <c r="X11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y11" s="11" t="s">
-        <v>58</v>
+      <c r="Y11" s="11">
+        <v>2724136</v>
       </c>
       <c r="Z11" s="11">
-        <v>2724136</v>
+        <v>3637225</v>
       </c>
       <c r="AA11" s="11">
-        <v>3637225</v>
+        <v>1576227</v>
       </c>
       <c r="AB11" s="11">
-        <v>1576227</v>
+        <v>2504023</v>
       </c>
       <c r="AC11" s="11">
-        <v>2504023</v>
+        <v>2186186</v>
       </c>
       <c r="AD11" s="11">
-        <v>2186186</v>
+        <v>2374428</v>
       </c>
       <c r="AE11" s="11">
-        <v>2374428</v>
+        <v>2572055</v>
       </c>
       <c r="AF11" s="11">
-        <v>2572055</v>
+        <v>1551501</v>
       </c>
       <c r="AG11" s="11">
-        <v>1551501</v>
+        <v>1001884</v>
       </c>
       <c r="AH11" s="11">
-        <v>1001884</v>
+        <v>965918</v>
       </c>
       <c r="AI11" s="11">
-        <v>965918</v>
+        <v>1961286</v>
       </c>
       <c r="AJ11" s="11">
-        <v>1961286</v>
+        <v>2056064</v>
       </c>
       <c r="AK11" s="11">
-        <v>2056064</v>
+        <v>1613898</v>
       </c>
       <c r="AL11" s="11">
-        <v>1613898</v>
+        <v>890148</v>
       </c>
       <c r="AM11" s="11">
-        <v>890148</v>
+        <v>1674332</v>
       </c>
       <c r="AN11" s="11">
-        <v>1674332</v>
+        <v>943633</v>
       </c>
       <c r="AO11" s="11">
-        <v>943633</v>
+        <v>1143680</v>
       </c>
       <c r="AP11" s="11">
-        <v>1143680</v>
+        <v>119962</v>
       </c>
       <c r="AQ11" s="11">
-        <v>119962</v>
+        <v>1686323</v>
       </c>
       <c r="AR11" s="11">
-        <v>1686323</v>
+        <v>1338892</v>
       </c>
       <c r="AS11" s="11">
-        <v>1338892</v>
+        <v>1481458</v>
       </c>
       <c r="AT11" s="11">
-        <v>1481458</v>
+        <v>1187343</v>
       </c>
       <c r="AU11" s="11">
-        <v>1187343</v>
+        <v>2144224</v>
       </c>
       <c r="AV11" s="11">
-        <v>2144224</v>
+        <v>3477751</v>
       </c>
       <c r="AW11" s="11">
-        <v>3477751</v>
+        <v>2899351</v>
       </c>
       <c r="AX11" s="11">
-        <v>2899351</v>
+        <v>1831568</v>
       </c>
       <c r="AY11" s="11">
-        <v>1831568</v>
+        <v>3024731</v>
       </c>
       <c r="AZ11" s="11">
-        <v>3024731</v>
+        <v>3211847</v>
       </c>
       <c r="BA11" s="11">
-        <v>3211847</v>
+        <v>3178619</v>
       </c>
       <c r="BB11" s="11">
-        <v>3178619</v>
+        <v>3599971</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1678,95 +1678,95 @@
       <c r="X12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y12" s="13" t="s">
-        <v>58</v>
+      <c r="Y12" s="13">
+        <v>2705323</v>
       </c>
       <c r="Z12" s="13">
-        <v>2705323</v>
+        <v>2318675</v>
       </c>
       <c r="AA12" s="13">
-        <v>2318675</v>
+        <v>2061685</v>
       </c>
       <c r="AB12" s="13">
-        <v>2061685</v>
+        <v>2664834</v>
       </c>
       <c r="AC12" s="13">
-        <v>2664834</v>
+        <v>2678537</v>
       </c>
       <c r="AD12" s="13">
-        <v>2678537</v>
+        <v>2518350</v>
       </c>
       <c r="AE12" s="13">
-        <v>2518350</v>
+        <v>2676027</v>
       </c>
       <c r="AF12" s="13">
-        <v>2676027</v>
+        <v>2461107</v>
       </c>
       <c r="AG12" s="13">
-        <v>2461107</v>
+        <v>1258718</v>
       </c>
       <c r="AH12" s="13">
-        <v>1258718</v>
+        <v>876955</v>
       </c>
       <c r="AI12" s="13">
-        <v>876955</v>
+        <v>1585868</v>
       </c>
       <c r="AJ12" s="13">
-        <v>1585868</v>
+        <v>2116939</v>
       </c>
       <c r="AK12" s="13">
-        <v>2116939</v>
+        <v>2212439</v>
       </c>
       <c r="AL12" s="13">
-        <v>2212439</v>
+        <v>1275706</v>
       </c>
       <c r="AM12" s="13">
-        <v>1275706</v>
+        <v>1764142</v>
       </c>
       <c r="AN12" s="13">
-        <v>1764142</v>
+        <v>1700470</v>
       </c>
       <c r="AO12" s="13">
-        <v>1700470</v>
+        <v>1489602</v>
       </c>
       <c r="AP12" s="13">
-        <v>1489602</v>
+        <v>1740487</v>
       </c>
       <c r="AQ12" s="13">
-        <v>1740487</v>
+        <v>1512768</v>
       </c>
       <c r="AR12" s="13">
-        <v>1512768</v>
+        <v>1356131</v>
       </c>
       <c r="AS12" s="13">
-        <v>1356131</v>
+        <v>1298478</v>
       </c>
       <c r="AT12" s="13">
-        <v>1298478</v>
+        <v>793152</v>
       </c>
       <c r="AU12" s="13">
-        <v>793152</v>
+        <v>1427394</v>
       </c>
       <c r="AV12" s="13">
-        <v>1427394</v>
+        <v>1705308</v>
       </c>
       <c r="AW12" s="13">
-        <v>1705308</v>
+        <v>1542003</v>
       </c>
       <c r="AX12" s="13">
-        <v>1542003</v>
+        <v>1323944</v>
       </c>
       <c r="AY12" s="13">
-        <v>1323944</v>
+        <v>2501790</v>
       </c>
       <c r="AZ12" s="13">
-        <v>2501790</v>
+        <v>2336111</v>
       </c>
       <c r="BA12" s="13">
-        <v>2336111</v>
+        <v>2245369</v>
       </c>
       <c r="BB12" s="13">
-        <v>2245369</v>
+        <v>2074124</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1837,95 +1837,95 @@
       <c r="X13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y13" s="11" t="s">
-        <v>58</v>
+      <c r="Y13" s="11">
+        <v>53044</v>
       </c>
       <c r="Z13" s="11">
-        <v>53044</v>
+        <v>68593</v>
       </c>
       <c r="AA13" s="11">
-        <v>68593</v>
+        <v>35169</v>
       </c>
       <c r="AB13" s="11">
-        <v>35169</v>
+        <v>49953</v>
       </c>
       <c r="AC13" s="11">
-        <v>49953</v>
+        <v>57876</v>
       </c>
       <c r="AD13" s="11">
-        <v>57876</v>
+        <v>85960</v>
       </c>
       <c r="AE13" s="11">
-        <v>85960</v>
+        <v>94113</v>
       </c>
       <c r="AF13" s="11">
-        <v>94113</v>
+        <v>81200</v>
       </c>
       <c r="AG13" s="11">
-        <v>81200</v>
+        <v>49207</v>
       </c>
       <c r="AH13" s="11">
-        <v>49207</v>
+        <v>57021</v>
       </c>
       <c r="AI13" s="11">
-        <v>57021</v>
+        <v>65861</v>
       </c>
       <c r="AJ13" s="11">
-        <v>65861</v>
+        <v>73914</v>
       </c>
       <c r="AK13" s="11">
-        <v>73914</v>
+        <v>72369</v>
       </c>
       <c r="AL13" s="11">
-        <v>72369</v>
+        <v>61491</v>
       </c>
       <c r="AM13" s="11">
-        <v>61491</v>
+        <v>82913</v>
       </c>
       <c r="AN13" s="11">
-        <v>82913</v>
+        <v>90823</v>
       </c>
       <c r="AO13" s="11">
-        <v>90823</v>
+        <v>62981</v>
       </c>
       <c r="AP13" s="11">
-        <v>62981</v>
+        <v>81924</v>
       </c>
       <c r="AQ13" s="11">
-        <v>81924</v>
+        <v>81821</v>
       </c>
       <c r="AR13" s="11">
-        <v>81821</v>
+        <v>73879</v>
       </c>
       <c r="AS13" s="11">
-        <v>73879</v>
+        <v>13833</v>
       </c>
       <c r="AT13" s="11">
-        <v>13833</v>
+        <v>18572</v>
       </c>
       <c r="AU13" s="11">
-        <v>18572</v>
+        <v>77721</v>
       </c>
       <c r="AV13" s="11">
-        <v>77721</v>
+        <v>84370</v>
       </c>
       <c r="AW13" s="11">
-        <v>84370</v>
+        <v>89555</v>
       </c>
       <c r="AX13" s="11">
-        <v>89555</v>
+        <v>73249</v>
       </c>
       <c r="AY13" s="11">
-        <v>73249</v>
+        <v>95513</v>
       </c>
       <c r="AZ13" s="11">
-        <v>95513</v>
+        <v>90553</v>
       </c>
       <c r="BA13" s="11">
-        <v>90553</v>
+        <v>98611</v>
       </c>
       <c r="BB13" s="11">
-        <v>98611</v>
+        <v>88745</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1995,94 +1995,94 @@
         <v>0</v>
       </c>
       <c r="Y14" s="15">
-        <v>0</v>
+        <v>5482503</v>
       </c>
       <c r="Z14" s="15">
-        <v>5482503</v>
+        <v>6024493</v>
       </c>
       <c r="AA14" s="15">
-        <v>6024493</v>
+        <v>3673081</v>
       </c>
       <c r="AB14" s="15">
-        <v>3673081</v>
+        <v>5218810</v>
       </c>
       <c r="AC14" s="15">
-        <v>5218810</v>
+        <v>4922599</v>
       </c>
       <c r="AD14" s="15">
-        <v>4922599</v>
+        <v>4978738</v>
       </c>
       <c r="AE14" s="15">
-        <v>4978738</v>
+        <v>5342195</v>
       </c>
       <c r="AF14" s="15">
-        <v>5342195</v>
+        <v>4093808</v>
       </c>
       <c r="AG14" s="15">
-        <v>4093808</v>
+        <v>2309809</v>
       </c>
       <c r="AH14" s="15">
-        <v>2309809</v>
+        <v>1899894</v>
       </c>
       <c r="AI14" s="15">
-        <v>1899894</v>
+        <v>3613015</v>
       </c>
       <c r="AJ14" s="15">
-        <v>3613015</v>
+        <v>4246917</v>
       </c>
       <c r="AK14" s="15">
-        <v>4246917</v>
+        <v>3898706</v>
       </c>
       <c r="AL14" s="15">
-        <v>3898706</v>
+        <v>2227345</v>
       </c>
       <c r="AM14" s="15">
-        <v>2227345</v>
+        <v>3521387</v>
       </c>
       <c r="AN14" s="15">
-        <v>3521387</v>
+        <v>2734926</v>
       </c>
       <c r="AO14" s="15">
-        <v>2734926</v>
+        <v>2696263</v>
       </c>
       <c r="AP14" s="15">
-        <v>2696263</v>
+        <v>1942373</v>
       </c>
       <c r="AQ14" s="15">
-        <v>1942373</v>
+        <v>3280912</v>
       </c>
       <c r="AR14" s="15">
-        <v>3280912</v>
+        <v>2768902</v>
       </c>
       <c r="AS14" s="15">
-        <v>2768902</v>
+        <v>2793769</v>
       </c>
       <c r="AT14" s="15">
-        <v>2793769</v>
+        <v>1999067</v>
       </c>
       <c r="AU14" s="15">
-        <v>1999067</v>
+        <v>3649339</v>
       </c>
       <c r="AV14" s="15">
-        <v>3649339</v>
+        <v>5267429</v>
       </c>
       <c r="AW14" s="15">
-        <v>5267429</v>
+        <v>4530909</v>
       </c>
       <c r="AX14" s="15">
-        <v>4530909</v>
+        <v>3228761</v>
       </c>
       <c r="AY14" s="15">
-        <v>3228761</v>
+        <v>5622034</v>
       </c>
       <c r="AZ14" s="15">
-        <v>5622034</v>
+        <v>5638511</v>
       </c>
       <c r="BA14" s="15">
-        <v>5638511</v>
+        <v>5522599</v>
       </c>
       <c r="BB14" s="15">
-        <v>5522599</v>
+        <v>5762840</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2210,14 +2210,14 @@
       <c r="X16" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y16" s="11" t="s">
-        <v>58</v>
+      <c r="Y16" s="11">
+        <v>146</v>
       </c>
       <c r="Z16" s="11">
-        <v>146</v>
+        <v>69369</v>
       </c>
       <c r="AA16" s="11">
-        <v>69369</v>
+        <v>0</v>
       </c>
       <c r="AB16" s="11">
         <v>0</v>
@@ -2240,8 +2240,8 @@
       <c r="AH16" s="11">
         <v>0</v>
       </c>
-      <c r="AI16" s="11">
-        <v>0</v>
+      <c r="AI16" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ16" s="11" t="s">
         <v>58</v>
@@ -2249,29 +2249,29 @@
       <c r="AK16" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL16" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM16" s="11">
+      <c r="AL16" s="11">
         <v>61164</v>
       </c>
+      <c r="AM16" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AN16" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AO16" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP16" s="11" t="s">
-        <v>58</v>
+      <c r="AP16" s="11">
+        <v>150040</v>
       </c>
       <c r="AQ16" s="11">
-        <v>150040</v>
-      </c>
-      <c r="AR16" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS16" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AR16" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS16" s="11">
+        <v>0</v>
       </c>
       <c r="AT16" s="11">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="AX16" s="11">
-        <v>0</v>
+        <v>148853</v>
       </c>
       <c r="AY16" s="11">
-        <v>148853</v>
+        <v>0</v>
       </c>
       <c r="AZ16" s="11">
         <v>0</v>
@@ -2369,17 +2369,17 @@
       <c r="X17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y17" s="13" t="s">
-        <v>58</v>
+      <c r="Y17" s="13">
+        <v>404</v>
       </c>
       <c r="Z17" s="13">
-        <v>404</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="13">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="AB17" s="13">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="AC17" s="13">
         <v>0</v>
@@ -2391,16 +2391,16 @@
         <v>0</v>
       </c>
       <c r="AF17" s="13">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="AG17" s="13">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="AH17" s="13">
         <v>0</v>
       </c>
-      <c r="AI17" s="13">
-        <v>0</v>
+      <c r="AI17" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ17" s="13" t="s">
         <v>58</v>
@@ -2423,29 +2423,29 @@
       <c r="AP17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR17" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS17" s="13" t="s">
-        <v>58</v>
+      <c r="AQ17" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS17" s="13">
+        <v>0</v>
       </c>
       <c r="AT17" s="13">
         <v>0</v>
       </c>
       <c r="AU17" s="13">
-        <v>0</v>
+        <v>1266</v>
       </c>
       <c r="AV17" s="13">
-        <v>1266</v>
+        <v>0</v>
       </c>
       <c r="AW17" s="13">
-        <v>0</v>
+        <v>1382</v>
       </c>
       <c r="AX17" s="13">
-        <v>1382</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="13">
         <v>0</v>
@@ -2528,20 +2528,20 @@
       <c r="X18" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y18" s="11" t="s">
-        <v>58</v>
+      <c r="Y18" s="11">
+        <v>3624</v>
       </c>
       <c r="Z18" s="11">
-        <v>3624</v>
+        <v>3245</v>
       </c>
       <c r="AA18" s="11">
-        <v>3245</v>
+        <v>8343</v>
       </c>
       <c r="AB18" s="11">
-        <v>8343</v>
+        <v>17100</v>
       </c>
       <c r="AC18" s="11">
-        <v>17100</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="11">
         <v>0</v>
@@ -2556,19 +2556,19 @@
         <v>0</v>
       </c>
       <c r="AH18" s="11">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AI18" s="11">
-        <v>12</v>
+        <v>4777</v>
       </c>
       <c r="AJ18" s="11">
-        <v>4777</v>
+        <v>666</v>
       </c>
       <c r="AK18" s="11">
-        <v>666</v>
-      </c>
-      <c r="AL18" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AL18" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AM18" s="11" t="s">
         <v>58</v>
@@ -2582,32 +2582,32 @@
       <c r="AP18" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ18" s="11" t="s">
-        <v>58</v>
+      <c r="AQ18" s="11">
+        <v>0</v>
       </c>
       <c r="AR18" s="11">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="AS18" s="11">
-        <v>1300</v>
+        <v>51158</v>
       </c>
       <c r="AT18" s="11">
-        <v>51158</v>
+        <v>0</v>
       </c>
       <c r="AU18" s="11">
-        <v>0</v>
+        <v>805</v>
       </c>
       <c r="AV18" s="11">
-        <v>805</v>
+        <v>0</v>
       </c>
       <c r="AW18" s="11">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="AX18" s="11">
-        <v>39</v>
+        <v>13870</v>
       </c>
       <c r="AY18" s="11">
-        <v>13870</v>
+        <v>0</v>
       </c>
       <c r="AZ18" s="11">
         <v>0</v>
@@ -2686,19 +2686,19 @@
         <v>0</v>
       </c>
       <c r="Y19" s="15">
-        <v>0</v>
+        <v>4174</v>
       </c>
       <c r="Z19" s="15">
-        <v>4174</v>
+        <v>72614</v>
       </c>
       <c r="AA19" s="15">
-        <v>72614</v>
+        <v>38343</v>
       </c>
       <c r="AB19" s="15">
-        <v>38343</v>
+        <v>17100</v>
       </c>
       <c r="AC19" s="15">
-        <v>17100</v>
+        <v>0</v>
       </c>
       <c r="AD19" s="15">
         <v>0</v>
@@ -2707,28 +2707,28 @@
         <v>0</v>
       </c>
       <c r="AF19" s="15">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="AG19" s="15">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="AH19" s="15">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AI19" s="15">
-        <v>12</v>
+        <v>4777</v>
       </c>
       <c r="AJ19" s="15">
-        <v>4777</v>
+        <v>666</v>
       </c>
       <c r="AK19" s="15">
-        <v>666</v>
+        <v>0</v>
       </c>
       <c r="AL19" s="15">
-        <v>0</v>
+        <v>61164</v>
       </c>
       <c r="AM19" s="15">
-        <v>61164</v>
+        <v>0</v>
       </c>
       <c r="AN19" s="15">
         <v>0</v>
@@ -2737,34 +2737,34 @@
         <v>0</v>
       </c>
       <c r="AP19" s="15">
-        <v>0</v>
+        <v>150040</v>
       </c>
       <c r="AQ19" s="15">
-        <v>150040</v>
+        <v>0</v>
       </c>
       <c r="AR19" s="15">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="AS19" s="15">
-        <v>1300</v>
+        <v>51158</v>
       </c>
       <c r="AT19" s="15">
-        <v>51158</v>
+        <v>0</v>
       </c>
       <c r="AU19" s="15">
-        <v>0</v>
+        <v>2071</v>
       </c>
       <c r="AV19" s="15">
-        <v>2071</v>
+        <v>0</v>
       </c>
       <c r="AW19" s="15">
-        <v>0</v>
+        <v>1421</v>
       </c>
       <c r="AX19" s="15">
-        <v>1421</v>
+        <v>162723</v>
       </c>
       <c r="AY19" s="15">
-        <v>162723</v>
+        <v>0</v>
       </c>
       <c r="AZ19" s="15">
         <v>0</v>
@@ -2901,36 +2901,36 @@
       <c r="X21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y21" s="11" t="s">
-        <v>58</v>
+      <c r="Y21" s="11">
+        <v>913045</v>
       </c>
       <c r="Z21" s="11">
-        <v>913045</v>
+        <v>917396</v>
       </c>
       <c r="AA21" s="11">
-        <v>917396</v>
+        <v>968659</v>
       </c>
       <c r="AB21" s="11">
-        <v>968659</v>
+        <v>1485844</v>
       </c>
       <c r="AC21" s="11">
-        <v>1485844</v>
+        <v>1416086</v>
       </c>
       <c r="AD21" s="11">
-        <v>1416086</v>
+        <v>1427246</v>
       </c>
       <c r="AE21" s="11">
-        <v>1427246</v>
+        <v>872498</v>
       </c>
       <c r="AF21" s="11">
-        <v>872498</v>
+        <v>1347572</v>
       </c>
       <c r="AG21" s="11">
-        <v>1347572</v>
-      </c>
-      <c r="AH21" s="11">
         <v>961917</v>
       </c>
+      <c r="AH21" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AI21" s="11" t="s">
         <v>58</v>
       </c>
@@ -2961,35 +2961,35 @@
       <c r="AR21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS21" s="11" t="s">
-        <v>58</v>
+      <c r="AS21" s="11">
+        <v>936323</v>
       </c>
       <c r="AT21" s="11">
-        <v>936323</v>
+        <v>595818</v>
       </c>
       <c r="AU21" s="11">
-        <v>595818</v>
+        <v>450773</v>
       </c>
       <c r="AV21" s="11">
-        <v>450773</v>
+        <v>17000</v>
       </c>
       <c r="AW21" s="11">
-        <v>17000</v>
+        <v>526109</v>
       </c>
       <c r="AX21" s="11">
-        <v>526109</v>
+        <v>469854</v>
       </c>
       <c r="AY21" s="11">
-        <v>469854</v>
+        <v>425672</v>
       </c>
       <c r="AZ21" s="11">
-        <v>425672</v>
+        <v>308107</v>
       </c>
       <c r="BA21" s="11">
-        <v>308107</v>
+        <v>1066456</v>
       </c>
       <c r="BB21" s="11">
-        <v>1066456</v>
+        <v>788505</v>
       </c>
     </row>
     <row r="22" spans="2:54" x14ac:dyDescent="0.3">
@@ -3060,36 +3060,36 @@
       <c r="X22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y22" s="13" t="s">
-        <v>58</v>
+      <c r="Y22" s="13">
+        <v>3722</v>
       </c>
       <c r="Z22" s="13">
-        <v>3722</v>
+        <v>102194</v>
       </c>
       <c r="AA22" s="13">
-        <v>102194</v>
+        <v>4885</v>
       </c>
       <c r="AB22" s="13">
-        <v>4885</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="13">
-        <v>0</v>
+        <v>5978</v>
       </c>
       <c r="AD22" s="13">
-        <v>5978</v>
+        <v>1870</v>
       </c>
       <c r="AE22" s="13">
-        <v>1870</v>
+        <v>40170</v>
       </c>
       <c r="AF22" s="13">
-        <v>40170</v>
+        <v>0</v>
       </c>
       <c r="AG22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="13">
         <v>43259</v>
       </c>
+      <c r="AH22" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AI22" s="13" t="s">
         <v>58</v>
       </c>
@@ -3120,35 +3120,35 @@
       <c r="AR22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT22" s="13">
+      <c r="AS22" s="13">
         <v>136604</v>
       </c>
-      <c r="AU22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AW22" s="13" t="s">
-        <v>58</v>
+      <c r="AT22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW22" s="13">
+        <v>450</v>
       </c>
       <c r="AX22" s="13">
-        <v>450</v>
-      </c>
-      <c r="AY22" s="13">
         <v>4484</v>
       </c>
+      <c r="AY22" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AZ22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BA22" s="13" t="s">
-        <v>58</v>
+      <c r="BA22" s="13">
+        <v>0</v>
       </c>
       <c r="BB22" s="13">
-        <v>0</v>
+        <v>35116</v>
       </c>
     </row>
     <row r="23" spans="2:54" x14ac:dyDescent="0.3">
@@ -3219,8 +3219,8 @@
       <c r="X23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y23" s="11" t="s">
-        <v>58</v>
+      <c r="Y23" s="11">
+        <v>0</v>
       </c>
       <c r="Z23" s="11">
         <v>0</v>
@@ -3229,26 +3229,26 @@
         <v>0</v>
       </c>
       <c r="AB23" s="11">
-        <v>0</v>
+        <v>1382</v>
       </c>
       <c r="AC23" s="11">
-        <v>1382</v>
+        <v>497</v>
       </c>
       <c r="AD23" s="11">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="AE23" s="11">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="AF23" s="11">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AG23" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="11">
         <v>2425</v>
       </c>
+      <c r="AH23" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AI23" s="11" t="s">
         <v>58</v>
       </c>
@@ -3279,35 +3279,35 @@
       <c r="AR23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS23" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT23" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU23" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV23" s="11">
+      <c r="AS23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU23" s="11">
         <v>768</v>
       </c>
+      <c r="AV23" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AW23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX23" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY23" s="11">
-        <v>0</v>
+      <c r="AX23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY23" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AZ23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BA23" s="11" t="s">
-        <v>58</v>
+      <c r="BA23" s="11">
+        <v>140</v>
       </c>
       <c r="BB23" s="11">
-        <v>140</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="24" spans="2:54" x14ac:dyDescent="0.3">
@@ -3405,41 +3405,41 @@
       <c r="AG24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH24" s="13" t="s">
-        <v>58</v>
+      <c r="AH24" s="13">
+        <v>0</v>
       </c>
       <c r="AI24" s="13">
-        <v>0</v>
+        <v>19960</v>
       </c>
       <c r="AJ24" s="13">
-        <v>19960</v>
+        <v>246158</v>
       </c>
       <c r="AK24" s="13">
-        <v>246158</v>
+        <v>757567</v>
       </c>
       <c r="AL24" s="13">
-        <v>757567</v>
+        <v>527953</v>
       </c>
       <c r="AM24" s="13">
-        <v>527953</v>
+        <v>694397</v>
       </c>
       <c r="AN24" s="13">
-        <v>694397</v>
+        <v>941248</v>
       </c>
       <c r="AO24" s="13">
-        <v>941248</v>
+        <v>325115</v>
       </c>
       <c r="AP24" s="13">
-        <v>325115</v>
+        <v>1215189</v>
       </c>
       <c r="AQ24" s="13">
-        <v>1215189</v>
+        <v>381496</v>
       </c>
       <c r="AR24" s="13">
-        <v>381496</v>
-      </c>
-      <c r="AS24" s="13">
         <v>404467</v>
+      </c>
+      <c r="AS24" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT24" s="13" t="s">
         <v>58</v>
@@ -3564,41 +3564,41 @@
       <c r="AG25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH25" s="11" t="s">
-        <v>58</v>
+      <c r="AH25" s="11">
+        <v>0</v>
       </c>
       <c r="AI25" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ25" s="11">
         <v>417</v>
       </c>
-      <c r="AK25" s="11" t="s">
-        <v>58</v>
+      <c r="AJ25" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK25" s="11">
+        <v>3497</v>
       </c>
       <c r="AL25" s="11">
-        <v>3497</v>
+        <v>1</v>
       </c>
       <c r="AM25" s="11">
-        <v>1</v>
-      </c>
-      <c r="AN25" s="11">
         <v>275</v>
       </c>
-      <c r="AO25" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP25" s="11">
+      <c r="AN25" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO25" s="11">
         <v>134</v>
       </c>
-      <c r="AQ25" s="11" t="s">
-        <v>58</v>
+      <c r="AP25" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ25" s="11">
+        <v>75</v>
       </c>
       <c r="AR25" s="11">
-        <v>75</v>
-      </c>
-      <c r="AS25" s="11">
         <v>309</v>
+      </c>
+      <c r="AS25" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT25" s="11" t="s">
         <v>58</v>
@@ -3723,41 +3723,41 @@
       <c r="AG26" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH26" s="13" t="s">
-        <v>58</v>
+      <c r="AH26" s="13">
+        <v>83707</v>
       </c>
       <c r="AI26" s="13">
-        <v>83707</v>
+        <v>35883</v>
       </c>
       <c r="AJ26" s="13">
-        <v>35883</v>
+        <v>254878</v>
       </c>
       <c r="AK26" s="13">
-        <v>254878</v>
+        <v>374468</v>
       </c>
       <c r="AL26" s="13">
-        <v>374468</v>
+        <v>118426</v>
       </c>
       <c r="AM26" s="13">
-        <v>118426</v>
+        <v>209881</v>
       </c>
       <c r="AN26" s="13">
-        <v>209881</v>
+        <v>137878</v>
       </c>
       <c r="AO26" s="13">
-        <v>137878</v>
+        <v>296722</v>
       </c>
       <c r="AP26" s="13">
-        <v>296722</v>
+        <v>31766</v>
       </c>
       <c r="AQ26" s="13">
-        <v>31766</v>
+        <v>98914</v>
       </c>
       <c r="AR26" s="13">
-        <v>98914</v>
-      </c>
-      <c r="AS26" s="13">
         <v>100931</v>
+      </c>
+      <c r="AS26" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT26" s="13" t="s">
         <v>58</v>
@@ -3853,8 +3853,8 @@
       <c r="X27" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y27" s="17" t="s">
-        <v>58</v>
+      <c r="Y27" s="17">
+        <v>0</v>
       </c>
       <c r="Z27" s="17">
         <v>0</v>
@@ -4011,94 +4011,94 @@
         <v>0</v>
       </c>
       <c r="Y28" s="15">
-        <v>0</v>
+        <v>6403444</v>
       </c>
       <c r="Z28" s="15">
-        <v>6403444</v>
+        <v>7116697</v>
       </c>
       <c r="AA28" s="15">
-        <v>7116697</v>
+        <v>4684968</v>
       </c>
       <c r="AB28" s="15">
-        <v>4684968</v>
+        <v>6723136</v>
       </c>
       <c r="AC28" s="15">
-        <v>6723136</v>
+        <v>6345160</v>
       </c>
       <c r="AD28" s="15">
-        <v>6345160</v>
+        <v>6408347</v>
       </c>
       <c r="AE28" s="15">
-        <v>6408347</v>
+        <v>6255363</v>
       </c>
       <c r="AF28" s="15">
-        <v>6255363</v>
+        <v>5456380</v>
       </c>
       <c r="AG28" s="15">
-        <v>5456380</v>
+        <v>3317410</v>
       </c>
       <c r="AH28" s="15">
-        <v>3317410</v>
+        <v>1983613</v>
       </c>
       <c r="AI28" s="15">
-        <v>1983613</v>
+        <v>3674052</v>
       </c>
       <c r="AJ28" s="15">
-        <v>3674052</v>
+        <v>4748619</v>
       </c>
       <c r="AK28" s="15">
-        <v>4748619</v>
+        <v>5034238</v>
       </c>
       <c r="AL28" s="15">
-        <v>5034238</v>
+        <v>2934889</v>
       </c>
       <c r="AM28" s="15">
-        <v>2934889</v>
+        <v>4425940</v>
       </c>
       <c r="AN28" s="15">
-        <v>4425940</v>
+        <v>3814052</v>
       </c>
       <c r="AO28" s="15">
-        <v>3814052</v>
+        <v>3318234</v>
       </c>
       <c r="AP28" s="15">
-        <v>3318234</v>
+        <v>3339368</v>
       </c>
       <c r="AQ28" s="15">
-        <v>3339368</v>
+        <v>3761397</v>
       </c>
       <c r="AR28" s="15">
-        <v>3761397</v>
+        <v>3275909</v>
       </c>
       <c r="AS28" s="15">
-        <v>3275909</v>
+        <v>3917854</v>
       </c>
       <c r="AT28" s="15">
-        <v>3917854</v>
+        <v>2594885</v>
       </c>
       <c r="AU28" s="15">
-        <v>2594885</v>
+        <v>4102951</v>
       </c>
       <c r="AV28" s="15">
-        <v>4102951</v>
+        <v>5284429</v>
       </c>
       <c r="AW28" s="15">
-        <v>5284429</v>
+        <v>5058889</v>
       </c>
       <c r="AX28" s="15">
-        <v>5058889</v>
+        <v>3865822</v>
       </c>
       <c r="AY28" s="15">
-        <v>3865822</v>
+        <v>6047706</v>
       </c>
       <c r="AZ28" s="15">
-        <v>6047706</v>
+        <v>5946618</v>
       </c>
       <c r="BA28" s="15">
-        <v>5946618</v>
+        <v>6589195</v>
       </c>
       <c r="BB28" s="15">
-        <v>6589195</v>
+        <v>6587912</v>
       </c>
     </row>
     <row r="29" spans="2:54" x14ac:dyDescent="0.3">
@@ -4603,95 +4603,95 @@
       <c r="X35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y35" s="11" t="s">
-        <v>58</v>
+      <c r="Y35" s="11">
+        <v>3464843</v>
       </c>
       <c r="Z35" s="11">
-        <v>3464843</v>
+        <v>3329553</v>
       </c>
       <c r="AA35" s="11">
-        <v>3329553</v>
+        <v>1974732</v>
       </c>
       <c r="AB35" s="11">
-        <v>1974732</v>
+        <v>2425308</v>
       </c>
       <c r="AC35" s="11">
-        <v>2425308</v>
+        <v>2413830</v>
       </c>
       <c r="AD35" s="11">
-        <v>2413830</v>
+        <v>2489502</v>
       </c>
       <c r="AE35" s="11">
-        <v>2489502</v>
+        <v>1511842</v>
       </c>
       <c r="AF35" s="11">
-        <v>1511842</v>
+        <v>668932</v>
       </c>
       <c r="AG35" s="11">
-        <v>668932</v>
+        <v>1467998</v>
       </c>
       <c r="AH35" s="11">
-        <v>1467998</v>
+        <v>411147</v>
       </c>
       <c r="AI35" s="11">
-        <v>411147</v>
+        <v>1764615</v>
       </c>
       <c r="AJ35" s="11">
-        <v>1764615</v>
+        <v>1705379</v>
       </c>
       <c r="AK35" s="11">
-        <v>1705379</v>
+        <v>963467</v>
       </c>
       <c r="AL35" s="11">
-        <v>963467</v>
+        <v>1324207</v>
       </c>
       <c r="AM35" s="11">
-        <v>1324207</v>
+        <v>1890585</v>
       </c>
       <c r="AN35" s="11">
-        <v>1890585</v>
+        <v>1665016</v>
       </c>
       <c r="AO35" s="11">
-        <v>1665016</v>
+        <v>2046632</v>
       </c>
       <c r="AP35" s="11">
-        <v>2046632</v>
+        <v>1270891</v>
       </c>
       <c r="AQ35" s="11">
-        <v>1270891</v>
+        <v>719309</v>
       </c>
       <c r="AR35" s="11">
-        <v>719309</v>
+        <v>1725938</v>
       </c>
       <c r="AS35" s="11">
-        <v>1725938</v>
+        <v>1851804</v>
       </c>
       <c r="AT35" s="11">
-        <v>1851804</v>
+        <v>1405616</v>
       </c>
       <c r="AU35" s="11">
-        <v>1405616</v>
+        <v>2386810</v>
       </c>
       <c r="AV35" s="11">
-        <v>2386810</v>
+        <v>3523864</v>
       </c>
       <c r="AW35" s="11">
-        <v>3523864</v>
+        <v>3274656</v>
       </c>
       <c r="AX35" s="11">
-        <v>3274656</v>
+        <v>2100511</v>
       </c>
       <c r="AY35" s="11">
-        <v>2100511</v>
+        <v>3013748</v>
       </c>
       <c r="AZ35" s="11">
-        <v>3013748</v>
+        <v>3209545</v>
       </c>
       <c r="BA35" s="11">
-        <v>3209545</v>
+        <v>3259521</v>
       </c>
       <c r="BB35" s="11">
-        <v>3259521</v>
+        <v>3225944</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.3">
@@ -4762,95 +4762,95 @@
       <c r="X36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y36" s="13" t="s">
-        <v>58</v>
+      <c r="Y36" s="13">
+        <v>2590139</v>
       </c>
       <c r="Z36" s="13">
-        <v>2590139</v>
+        <v>2115818</v>
       </c>
       <c r="AA36" s="13">
-        <v>2115818</v>
+        <v>2090976</v>
       </c>
       <c r="AB36" s="13">
-        <v>2090976</v>
+        <v>2574908</v>
       </c>
       <c r="AC36" s="13">
-        <v>2574908</v>
+        <v>1439240</v>
       </c>
       <c r="AD36" s="13">
-        <v>1439240</v>
+        <v>1949484</v>
       </c>
       <c r="AE36" s="13">
-        <v>1949484</v>
+        <v>1841148</v>
       </c>
       <c r="AF36" s="13">
-        <v>1841148</v>
+        <v>1241558</v>
       </c>
       <c r="AG36" s="13">
-        <v>1241558</v>
+        <v>1547764</v>
       </c>
       <c r="AH36" s="13">
-        <v>1547764</v>
+        <v>837734</v>
       </c>
       <c r="AI36" s="13">
-        <v>837734</v>
+        <v>2203278</v>
       </c>
       <c r="AJ36" s="13">
-        <v>2203278</v>
+        <v>1977521</v>
       </c>
       <c r="AK36" s="13">
-        <v>1977521</v>
+        <v>1834115</v>
       </c>
       <c r="AL36" s="13">
-        <v>1834115</v>
+        <v>1716712</v>
       </c>
       <c r="AM36" s="13">
-        <v>1716712</v>
+        <v>1328703</v>
       </c>
       <c r="AN36" s="13">
-        <v>1328703</v>
+        <v>1218139</v>
       </c>
       <c r="AO36" s="13">
-        <v>1218139</v>
+        <v>1279701</v>
       </c>
       <c r="AP36" s="13">
-        <v>1279701</v>
+        <v>1048473</v>
       </c>
       <c r="AQ36" s="13">
-        <v>1048473</v>
+        <v>1333045</v>
       </c>
       <c r="AR36" s="13">
-        <v>1333045</v>
+        <v>1236200</v>
       </c>
       <c r="AS36" s="13">
-        <v>1236200</v>
+        <v>1662039</v>
       </c>
       <c r="AT36" s="13">
-        <v>1662039</v>
+        <v>813636</v>
       </c>
       <c r="AU36" s="13">
-        <v>813636</v>
+        <v>2540044</v>
       </c>
       <c r="AV36" s="13">
-        <v>2540044</v>
+        <v>2393463</v>
       </c>
       <c r="AW36" s="13">
-        <v>2393463</v>
+        <v>2546286</v>
       </c>
       <c r="AX36" s="13">
-        <v>2546286</v>
+        <v>2713719</v>
       </c>
       <c r="AY36" s="13">
-        <v>2713719</v>
+        <v>2585290</v>
       </c>
       <c r="AZ36" s="13">
-        <v>2585290</v>
+        <v>2386859</v>
       </c>
       <c r="BA36" s="13">
-        <v>2386859</v>
+        <v>2337139</v>
       </c>
       <c r="BB36" s="13">
-        <v>2337139</v>
+        <v>933166</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
@@ -4921,95 +4921,95 @@
       <c r="X37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y37" s="11" t="s">
-        <v>58</v>
+      <c r="Y37" s="11">
+        <v>169507</v>
       </c>
       <c r="Z37" s="11">
-        <v>169507</v>
+        <v>68372</v>
       </c>
       <c r="AA37" s="11">
-        <v>68372</v>
+        <v>39083</v>
       </c>
       <c r="AB37" s="11">
-        <v>39083</v>
+        <v>46330</v>
       </c>
       <c r="AC37" s="11">
-        <v>46330</v>
+        <v>42469</v>
       </c>
       <c r="AD37" s="11">
-        <v>42469</v>
+        <v>76210</v>
       </c>
       <c r="AE37" s="11">
-        <v>76210</v>
+        <v>74878</v>
       </c>
       <c r="AF37" s="11">
-        <v>74878</v>
+        <v>107739</v>
       </c>
       <c r="AG37" s="11">
-        <v>107739</v>
+        <v>30625</v>
       </c>
       <c r="AH37" s="11">
-        <v>30625</v>
+        <v>76192</v>
       </c>
       <c r="AI37" s="11">
-        <v>76192</v>
+        <v>74747</v>
       </c>
       <c r="AJ37" s="11">
-        <v>74747</v>
+        <v>86705</v>
       </c>
       <c r="AK37" s="11">
-        <v>86705</v>
+        <v>66376</v>
       </c>
       <c r="AL37" s="11">
-        <v>66376</v>
+        <v>67107</v>
       </c>
       <c r="AM37" s="11">
-        <v>67107</v>
+        <v>49156</v>
       </c>
       <c r="AN37" s="11">
-        <v>49156</v>
+        <v>87910</v>
       </c>
       <c r="AO37" s="11">
-        <v>87910</v>
+        <v>59439</v>
       </c>
       <c r="AP37" s="11">
-        <v>59439</v>
+        <v>67269</v>
       </c>
       <c r="AQ37" s="11">
-        <v>67269</v>
+        <v>50624</v>
       </c>
       <c r="AR37" s="11">
-        <v>50624</v>
+        <v>90286</v>
       </c>
       <c r="AS37" s="11">
-        <v>90286</v>
+        <v>44701</v>
       </c>
       <c r="AT37" s="11">
-        <v>44701</v>
+        <v>20835</v>
       </c>
       <c r="AU37" s="11">
-        <v>20835</v>
+        <v>82962</v>
       </c>
       <c r="AV37" s="11">
-        <v>82962</v>
+        <v>86166</v>
       </c>
       <c r="AW37" s="11">
-        <v>86166</v>
+        <v>110141</v>
       </c>
       <c r="AX37" s="11">
-        <v>110141</v>
+        <v>98006</v>
       </c>
       <c r="AY37" s="11">
-        <v>98006</v>
+        <v>95636</v>
       </c>
       <c r="AZ37" s="11">
-        <v>95636</v>
+        <v>83209</v>
       </c>
       <c r="BA37" s="11">
-        <v>83209</v>
+        <v>84421</v>
       </c>
       <c r="BB37" s="11">
-        <v>84421</v>
+        <v>82292</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.3">
@@ -5079,94 +5079,94 @@
         <v>0</v>
       </c>
       <c r="Y38" s="15">
-        <v>0</v>
+        <v>6224489</v>
       </c>
       <c r="Z38" s="15">
-        <v>6224489</v>
+        <v>5513743</v>
       </c>
       <c r="AA38" s="15">
-        <v>5513743</v>
+        <v>4104791</v>
       </c>
       <c r="AB38" s="15">
-        <v>4104791</v>
+        <v>5046546</v>
       </c>
       <c r="AC38" s="15">
-        <v>5046546</v>
+        <v>3895539</v>
       </c>
       <c r="AD38" s="15">
-        <v>3895539</v>
+        <v>4515196</v>
       </c>
       <c r="AE38" s="15">
-        <v>4515196</v>
+        <v>3427868</v>
       </c>
       <c r="AF38" s="15">
-        <v>3427868</v>
+        <v>2018229</v>
       </c>
       <c r="AG38" s="15">
-        <v>2018229</v>
+        <v>3046387</v>
       </c>
       <c r="AH38" s="15">
-        <v>3046387</v>
+        <v>1325073</v>
       </c>
       <c r="AI38" s="15">
-        <v>1325073</v>
+        <v>4042640</v>
       </c>
       <c r="AJ38" s="15">
-        <v>4042640</v>
+        <v>3769605</v>
       </c>
       <c r="AK38" s="15">
-        <v>3769605</v>
+        <v>2863958</v>
       </c>
       <c r="AL38" s="15">
-        <v>2863958</v>
+        <v>3108026</v>
       </c>
       <c r="AM38" s="15">
-        <v>3108026</v>
+        <v>3268444</v>
       </c>
       <c r="AN38" s="15">
-        <v>3268444</v>
+        <v>2971065</v>
       </c>
       <c r="AO38" s="15">
-        <v>2971065</v>
+        <v>3385772</v>
       </c>
       <c r="AP38" s="15">
-        <v>3385772</v>
+        <v>2386633</v>
       </c>
       <c r="AQ38" s="15">
-        <v>2386633</v>
+        <v>2102978</v>
       </c>
       <c r="AR38" s="15">
-        <v>2102978</v>
+        <v>3052424</v>
       </c>
       <c r="AS38" s="15">
-        <v>3052424</v>
+        <v>3558544</v>
       </c>
       <c r="AT38" s="15">
-        <v>3558544</v>
+        <v>2240087</v>
       </c>
       <c r="AU38" s="15">
-        <v>2240087</v>
+        <v>5009816</v>
       </c>
       <c r="AV38" s="15">
-        <v>5009816</v>
+        <v>6003493</v>
       </c>
       <c r="AW38" s="15">
-        <v>6003493</v>
+        <v>5931083</v>
       </c>
       <c r="AX38" s="15">
-        <v>5931083</v>
+        <v>4912236</v>
       </c>
       <c r="AY38" s="15">
-        <v>4912236</v>
+        <v>5694674</v>
       </c>
       <c r="AZ38" s="15">
-        <v>5694674</v>
+        <v>5679613</v>
       </c>
       <c r="BA38" s="15">
-        <v>5679613</v>
+        <v>5681081</v>
       </c>
       <c r="BB38" s="15">
-        <v>5681081</v>
+        <v>4241402</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.3">
@@ -5294,14 +5294,14 @@
       <c r="X40" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y40" s="11" t="s">
-        <v>58</v>
+      <c r="Y40" s="11">
+        <v>146</v>
       </c>
       <c r="Z40" s="11">
-        <v>146</v>
+        <v>69369</v>
       </c>
       <c r="AA40" s="11">
-        <v>69369</v>
+        <v>0</v>
       </c>
       <c r="AB40" s="11">
         <v>0</v>
@@ -5324,8 +5324,8 @@
       <c r="AH40" s="11">
         <v>0</v>
       </c>
-      <c r="AI40" s="11">
-        <v>0</v>
+      <c r="AI40" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ40" s="11" t="s">
         <v>58</v>
@@ -5333,29 +5333,29 @@
       <c r="AK40" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL40" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM40" s="11">
+      <c r="AL40" s="11">
         <v>61164</v>
       </c>
+      <c r="AM40" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AN40" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AO40" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP40" s="11" t="s">
-        <v>58</v>
+      <c r="AP40" s="11">
+        <v>150040</v>
       </c>
       <c r="AQ40" s="11">
-        <v>150040</v>
-      </c>
-      <c r="AR40" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS40" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AR40" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS40" s="11">
+        <v>0</v>
       </c>
       <c r="AT40" s="11">
         <v>0</v>
@@ -5370,10 +5370,10 @@
         <v>0</v>
       </c>
       <c r="AX40" s="11">
-        <v>0</v>
+        <v>148853</v>
       </c>
       <c r="AY40" s="11">
-        <v>148853</v>
+        <v>0</v>
       </c>
       <c r="AZ40" s="11">
         <v>0</v>
@@ -5453,17 +5453,17 @@
       <c r="X41" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y41" s="13" t="s">
-        <v>58</v>
+      <c r="Y41" s="13">
+        <v>404</v>
       </c>
       <c r="Z41" s="13">
-        <v>404</v>
+        <v>0</v>
       </c>
       <c r="AA41" s="13">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="AB41" s="13">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="AC41" s="13">
         <v>0</v>
@@ -5475,16 +5475,16 @@
         <v>0</v>
       </c>
       <c r="AF41" s="13">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="AG41" s="13">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="AH41" s="13">
         <v>0</v>
       </c>
-      <c r="AI41" s="13">
-        <v>0</v>
+      <c r="AI41" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ41" s="13" t="s">
         <v>58</v>
@@ -5513,26 +5513,26 @@
       <c r="AR41" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS41" s="13" t="s">
-        <v>58</v>
+      <c r="AS41" s="13">
+        <v>0</v>
       </c>
       <c r="AT41" s="13">
         <v>0</v>
       </c>
       <c r="AU41" s="13">
-        <v>0</v>
+        <v>1266</v>
       </c>
       <c r="AV41" s="13">
-        <v>1266</v>
+        <v>0</v>
       </c>
       <c r="AW41" s="13">
-        <v>0</v>
+        <v>1382</v>
       </c>
       <c r="AX41" s="13">
-        <v>1382</v>
+        <v>-288</v>
       </c>
       <c r="AY41" s="13">
-        <v>-288</v>
+        <v>0</v>
       </c>
       <c r="AZ41" s="13">
         <v>0</v>
@@ -5612,20 +5612,20 @@
       <c r="X42" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y42" s="11" t="s">
-        <v>58</v>
+      <c r="Y42" s="11">
+        <v>3624</v>
       </c>
       <c r="Z42" s="11">
-        <v>3624</v>
+        <v>3244</v>
       </c>
       <c r="AA42" s="11">
-        <v>3244</v>
+        <v>8343</v>
       </c>
       <c r="AB42" s="11">
-        <v>8343</v>
+        <v>17100</v>
       </c>
       <c r="AC42" s="11">
-        <v>17100</v>
+        <v>0</v>
       </c>
       <c r="AD42" s="11">
         <v>0</v>
@@ -5643,17 +5643,17 @@
         <v>0</v>
       </c>
       <c r="AI42" s="11">
-        <v>0</v>
+        <v>4789</v>
       </c>
       <c r="AJ42" s="11">
-        <v>4789</v>
+        <v>666</v>
       </c>
       <c r="AK42" s="11">
-        <v>666</v>
-      </c>
-      <c r="AL42" s="11">
         <v>13</v>
       </c>
+      <c r="AL42" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AM42" s="11" t="s">
         <v>58</v>
       </c>
@@ -5669,29 +5669,29 @@
       <c r="AQ42" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR42" s="11" t="s">
-        <v>58</v>
+      <c r="AR42" s="11">
+        <v>1300</v>
       </c>
       <c r="AS42" s="11">
-        <v>1300</v>
+        <v>51145</v>
       </c>
       <c r="AT42" s="11">
-        <v>51145</v>
+        <v>0</v>
       </c>
       <c r="AU42" s="11">
-        <v>0</v>
+        <v>805</v>
       </c>
       <c r="AV42" s="11">
-        <v>805</v>
+        <v>0</v>
       </c>
       <c r="AW42" s="11">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="AX42" s="11">
-        <v>39</v>
+        <v>13862</v>
       </c>
       <c r="AY42" s="11">
-        <v>13862</v>
+        <v>0</v>
       </c>
       <c r="AZ42" s="11">
         <v>0</v>
@@ -5770,19 +5770,19 @@
         <v>0</v>
       </c>
       <c r="Y43" s="15">
-        <v>0</v>
+        <v>4174</v>
       </c>
       <c r="Z43" s="15">
-        <v>4174</v>
+        <v>72613</v>
       </c>
       <c r="AA43" s="15">
-        <v>72613</v>
+        <v>38343</v>
       </c>
       <c r="AB43" s="15">
-        <v>38343</v>
+        <v>17100</v>
       </c>
       <c r="AC43" s="15">
-        <v>17100</v>
+        <v>0</v>
       </c>
       <c r="AD43" s="15">
         <v>0</v>
@@ -5791,28 +5791,28 @@
         <v>0</v>
       </c>
       <c r="AF43" s="15">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="AG43" s="15">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="AH43" s="15">
         <v>0</v>
       </c>
       <c r="AI43" s="15">
-        <v>0</v>
+        <v>4789</v>
       </c>
       <c r="AJ43" s="15">
-        <v>4789</v>
+        <v>666</v>
       </c>
       <c r="AK43" s="15">
-        <v>666</v>
+        <v>13</v>
       </c>
       <c r="AL43" s="15">
-        <v>13</v>
+        <v>61164</v>
       </c>
       <c r="AM43" s="15">
-        <v>61164</v>
+        <v>0</v>
       </c>
       <c r="AN43" s="15">
         <v>0</v>
@@ -5821,34 +5821,34 @@
         <v>0</v>
       </c>
       <c r="AP43" s="15">
-        <v>0</v>
+        <v>150040</v>
       </c>
       <c r="AQ43" s="15">
-        <v>150040</v>
+        <v>0</v>
       </c>
       <c r="AR43" s="15">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="AS43" s="15">
-        <v>1300</v>
+        <v>51145</v>
       </c>
       <c r="AT43" s="15">
-        <v>51145</v>
+        <v>0</v>
       </c>
       <c r="AU43" s="15">
-        <v>0</v>
+        <v>2071</v>
       </c>
       <c r="AV43" s="15">
-        <v>2071</v>
+        <v>0</v>
       </c>
       <c r="AW43" s="15">
-        <v>0</v>
+        <v>1421</v>
       </c>
       <c r="AX43" s="15">
-        <v>1421</v>
+        <v>162427</v>
       </c>
       <c r="AY43" s="15">
-        <v>162427</v>
+        <v>0</v>
       </c>
       <c r="AZ43" s="15">
         <v>0</v>
@@ -5985,36 +5985,36 @@
       <c r="X45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y45" s="11" t="s">
-        <v>58</v>
+      <c r="Y45" s="11">
+        <v>1170797</v>
       </c>
       <c r="Z45" s="11">
-        <v>1170797</v>
+        <v>829580</v>
       </c>
       <c r="AA45" s="11">
-        <v>829580</v>
+        <v>1191344</v>
       </c>
       <c r="AB45" s="11">
-        <v>1191344</v>
+        <v>764593</v>
       </c>
       <c r="AC45" s="11">
-        <v>764593</v>
+        <v>1833835</v>
       </c>
       <c r="AD45" s="11">
-        <v>1833835</v>
+        <v>1533409</v>
       </c>
       <c r="AE45" s="11">
-        <v>1533409</v>
+        <v>909844</v>
       </c>
       <c r="AF45" s="11">
-        <v>909844</v>
+        <v>1223482</v>
       </c>
       <c r="AG45" s="11">
-        <v>1223482</v>
-      </c>
-      <c r="AH45" s="11">
         <v>1225177</v>
       </c>
+      <c r="AH45" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AI45" s="11" t="s">
         <v>58</v>
       </c>
@@ -6045,35 +6045,35 @@
       <c r="AR45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT45" s="11">
+      <c r="AS45" s="11">
         <v>1097257</v>
       </c>
-      <c r="AU45" s="11" t="s">
-        <v>58</v>
+      <c r="AT45" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU45" s="11">
+        <v>988956</v>
       </c>
       <c r="AV45" s="11">
-        <v>988956</v>
+        <v>9698</v>
       </c>
       <c r="AW45" s="11">
-        <v>9698</v>
+        <v>250901</v>
       </c>
       <c r="AX45" s="11">
-        <v>250901</v>
+        <v>629197</v>
       </c>
       <c r="AY45" s="11">
-        <v>629197</v>
+        <v>485435</v>
       </c>
       <c r="AZ45" s="11">
-        <v>485435</v>
+        <v>304741</v>
       </c>
       <c r="BA45" s="11">
-        <v>304741</v>
+        <v>811815</v>
       </c>
       <c r="BB45" s="11">
-        <v>811815</v>
+        <v>989350</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.3">
@@ -6144,36 +6144,36 @@
       <c r="X46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y46" s="13" t="s">
-        <v>58</v>
+      <c r="Y46" s="13">
+        <v>0</v>
       </c>
       <c r="Z46" s="13">
-        <v>0</v>
+        <v>14748</v>
       </c>
       <c r="AA46" s="13">
-        <v>14748</v>
+        <v>98790</v>
       </c>
       <c r="AB46" s="13">
-        <v>98790</v>
+        <v>952</v>
       </c>
       <c r="AC46" s="13">
-        <v>952</v>
+        <v>0</v>
       </c>
       <c r="AD46" s="13">
-        <v>0</v>
+        <v>5977</v>
       </c>
       <c r="AE46" s="13">
-        <v>5977</v>
+        <v>40170</v>
       </c>
       <c r="AF46" s="13">
-        <v>40170</v>
+        <v>0</v>
       </c>
       <c r="AG46" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH46" s="13">
         <v>4219</v>
       </c>
+      <c r="AH46" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AI46" s="13" t="s">
         <v>58</v>
       </c>
@@ -6204,26 +6204,26 @@
       <c r="AR46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT46" s="13">
+      <c r="AS46" s="13">
         <v>331449</v>
       </c>
-      <c r="AU46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV46" s="13">
-        <v>0</v>
+      <c r="AT46" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU46" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV46" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AW46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY46" s="13">
-        <v>0</v>
+      <c r="AX46" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY46" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AZ46" s="13" t="s">
         <v>58</v>
@@ -6303,8 +6303,8 @@
       <c r="X47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y47" s="11" t="s">
-        <v>58</v>
+      <c r="Y47" s="11">
+        <v>0</v>
       </c>
       <c r="Z47" s="11">
         <v>0</v>
@@ -6316,23 +6316,23 @@
         <v>0</v>
       </c>
       <c r="AC47" s="11">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="AD47" s="11">
-        <v>999</v>
+        <v>879</v>
       </c>
       <c r="AE47" s="11">
-        <v>879</v>
+        <v>994</v>
       </c>
       <c r="AF47" s="11">
-        <v>994</v>
+        <v>0</v>
       </c>
       <c r="AG47" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH47" s="11">
         <v>1341</v>
       </c>
+      <c r="AH47" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AI47" s="11" t="s">
         <v>58</v>
       </c>
@@ -6363,35 +6363,35 @@
       <c r="AR47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS47" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT47" s="11">
+      <c r="AS47" s="11">
         <v>74</v>
       </c>
-      <c r="AU47" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV47" s="11">
+      <c r="AT47" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU47" s="11">
         <v>1726</v>
       </c>
+      <c r="AV47" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AW47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX47" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY47" s="11">
-        <v>0</v>
+      <c r="AX47" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY47" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AZ47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BA47" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB47" s="11">
+      <c r="BA47" s="11">
         <v>535</v>
+      </c>
+      <c r="BB47" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.3">
@@ -6489,41 +6489,41 @@
       <c r="AG48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI48" s="13">
+      <c r="AH48" s="13">
         <v>80865</v>
       </c>
-      <c r="AJ48" s="13" t="s">
-        <v>58</v>
+      <c r="AI48" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ48" s="13">
+        <v>81815</v>
       </c>
       <c r="AK48" s="13">
-        <v>81815</v>
+        <v>840145</v>
       </c>
       <c r="AL48" s="13">
-        <v>840145</v>
+        <v>467920</v>
       </c>
       <c r="AM48" s="13">
-        <v>467920</v>
+        <v>815260</v>
       </c>
       <c r="AN48" s="13">
-        <v>815260</v>
+        <v>616105</v>
       </c>
       <c r="AO48" s="13">
-        <v>616105</v>
+        <v>365998</v>
       </c>
       <c r="AP48" s="13">
-        <v>365998</v>
+        <v>1158478</v>
       </c>
       <c r="AQ48" s="13">
-        <v>1158478</v>
+        <v>442057</v>
       </c>
       <c r="AR48" s="13">
-        <v>442057</v>
-      </c>
-      <c r="AS48" s="13">
         <v>564733</v>
+      </c>
+      <c r="AS48" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT48" s="13" t="s">
         <v>58</v>
@@ -6648,41 +6648,41 @@
       <c r="AG49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH49" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI49" s="11">
+      <c r="AH49" s="11">
         <v>2425</v>
       </c>
+      <c r="AI49" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK49" s="11" t="s">
-        <v>58</v>
+      <c r="AK49" s="11">
+        <v>0</v>
       </c>
       <c r="AL49" s="11">
         <v>0</v>
       </c>
       <c r="AM49" s="11">
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="AN49" s="11">
-        <v>276</v>
+        <v>0</v>
       </c>
       <c r="AO49" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP49" s="11">
         <v>126</v>
       </c>
+      <c r="AP49" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR49" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS49" s="11">
+      <c r="AR49" s="11">
         <v>309</v>
+      </c>
+      <c r="AS49" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT49" s="11" t="s">
         <v>58</v>
@@ -6807,41 +6807,41 @@
       <c r="AG50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH50" s="13" t="s">
-        <v>58</v>
+      <c r="AH50" s="13">
+        <v>0</v>
       </c>
       <c r="AI50" s="13">
-        <v>0</v>
+        <v>119590</v>
       </c>
       <c r="AJ50" s="13">
-        <v>119590</v>
+        <v>83150</v>
       </c>
       <c r="AK50" s="13">
-        <v>83150</v>
+        <v>195739</v>
       </c>
       <c r="AL50" s="13">
-        <v>195739</v>
+        <v>257928</v>
       </c>
       <c r="AM50" s="13">
-        <v>257928</v>
+        <v>224969</v>
       </c>
       <c r="AN50" s="13">
-        <v>224969</v>
+        <v>75102</v>
       </c>
       <c r="AO50" s="13">
-        <v>75102</v>
+        <v>209772</v>
       </c>
       <c r="AP50" s="13">
-        <v>209772</v>
-      </c>
-      <c r="AQ50" s="13">
         <v>189579</v>
       </c>
-      <c r="AR50" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS50" s="13">
+      <c r="AQ50" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR50" s="13">
         <v>5000</v>
+      </c>
+      <c r="AS50" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT50" s="13" t="s">
         <v>58</v>
@@ -6937,95 +6937,95 @@
       <c r="X51" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y51" s="17" t="s">
-        <v>58</v>
+      <c r="Y51" s="17">
+        <v>1170797</v>
       </c>
       <c r="Z51" s="17">
-        <v>1170797</v>
+        <v>844328</v>
       </c>
       <c r="AA51" s="17">
-        <v>844328</v>
+        <v>1290134</v>
       </c>
       <c r="AB51" s="17">
-        <v>1290134</v>
+        <v>765545</v>
       </c>
       <c r="AC51" s="17">
-        <v>765545</v>
+        <v>1834834</v>
       </c>
       <c r="AD51" s="17">
-        <v>1834834</v>
+        <v>1540265</v>
       </c>
       <c r="AE51" s="17">
-        <v>1540265</v>
+        <v>951008</v>
       </c>
       <c r="AF51" s="17">
-        <v>951008</v>
+        <v>1223482</v>
       </c>
       <c r="AG51" s="17">
-        <v>1223482</v>
+        <v>1230737</v>
       </c>
       <c r="AH51" s="17">
-        <v>1230737</v>
+        <v>83290</v>
       </c>
       <c r="AI51" s="17">
-        <v>83290</v>
+        <v>119590</v>
       </c>
       <c r="AJ51" s="17">
-        <v>119590</v>
+        <v>164965</v>
       </c>
       <c r="AK51" s="17">
-        <v>164965</v>
+        <v>1035884</v>
       </c>
       <c r="AL51" s="17">
-        <v>1035884</v>
+        <v>725848</v>
       </c>
       <c r="AM51" s="17">
-        <v>725848</v>
+        <v>1040505</v>
       </c>
       <c r="AN51" s="17">
-        <v>1040505</v>
+        <v>691207</v>
       </c>
       <c r="AO51" s="17">
-        <v>691207</v>
+        <v>575896</v>
       </c>
       <c r="AP51" s="17">
-        <v>575896</v>
+        <v>1348057</v>
       </c>
       <c r="AQ51" s="17">
-        <v>1348057</v>
+        <v>442057</v>
       </c>
       <c r="AR51" s="17">
-        <v>442057</v>
+        <v>570042</v>
       </c>
       <c r="AS51" s="17">
-        <v>570042</v>
+        <v>1428780</v>
       </c>
       <c r="AT51" s="17">
-        <v>1428780</v>
+        <v>0</v>
       </c>
       <c r="AU51" s="17">
-        <v>0</v>
+        <v>990682</v>
       </c>
       <c r="AV51" s="17">
-        <v>990682</v>
+        <v>9698</v>
       </c>
       <c r="AW51" s="17">
-        <v>9698</v>
+        <v>250901</v>
       </c>
       <c r="AX51" s="17">
-        <v>250901</v>
+        <v>629197</v>
       </c>
       <c r="AY51" s="17">
-        <v>629197</v>
+        <v>485435</v>
       </c>
       <c r="AZ51" s="17">
-        <v>485435</v>
+        <v>304741</v>
       </c>
       <c r="BA51" s="17">
-        <v>304741</v>
+        <v>812350</v>
       </c>
       <c r="BB51" s="17">
-        <v>812350</v>
+        <v>989350</v>
       </c>
     </row>
     <row r="52" spans="2:54" x14ac:dyDescent="0.3">
@@ -7153,95 +7153,95 @@
       <c r="X53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y53" s="11" t="s">
-        <v>58</v>
+      <c r="Y53" s="11">
+        <v>202488</v>
       </c>
       <c r="Z53" s="11">
-        <v>202488</v>
+        <v>-4875</v>
       </c>
       <c r="AA53" s="11">
-        <v>-4875</v>
+        <v>-569324</v>
       </c>
       <c r="AB53" s="11">
-        <v>-569324</v>
+        <v>-6337</v>
       </c>
       <c r="AC53" s="11">
-        <v>-6337</v>
+        <v>0</v>
       </c>
       <c r="AD53" s="11">
-        <v>0</v>
+        <v>-580549</v>
       </c>
       <c r="AE53" s="11">
-        <v>-580549</v>
+        <v>-55</v>
       </c>
       <c r="AF53" s="11">
-        <v>-55</v>
+        <v>-18626</v>
       </c>
       <c r="AG53" s="11">
-        <v>-18626</v>
+        <v>-71965</v>
       </c>
       <c r="AH53" s="11">
-        <v>-71965</v>
+        <v>0</v>
       </c>
       <c r="AI53" s="11">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="AJ53" s="11">
-        <v>-7</v>
+        <v>-25</v>
       </c>
       <c r="AK53" s="11">
-        <v>-25</v>
-      </c>
-      <c r="AL53" s="11">
         <v>-37</v>
       </c>
-      <c r="AM53" s="11" t="s">
-        <v>58</v>
+      <c r="AL53" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM53" s="11">
+        <v>-7374</v>
       </c>
       <c r="AN53" s="11">
-        <v>-7374</v>
+        <v>-24</v>
       </c>
       <c r="AO53" s="11">
-        <v>-24</v>
+        <v>0</v>
       </c>
       <c r="AP53" s="11">
-        <v>0</v>
+        <v>-53322</v>
       </c>
       <c r="AQ53" s="11">
-        <v>-53322</v>
+        <v>-5820</v>
       </c>
       <c r="AR53" s="11">
-        <v>-5820</v>
+        <v>0</v>
       </c>
       <c r="AS53" s="11">
-        <v>0</v>
+        <v>-13584</v>
       </c>
       <c r="AT53" s="11">
-        <v>-13584</v>
+        <v>-71100</v>
       </c>
       <c r="AU53" s="11">
-        <v>-71100</v>
+        <v>-204</v>
       </c>
       <c r="AV53" s="11">
-        <v>-204</v>
+        <v>-1014</v>
       </c>
       <c r="AW53" s="11">
-        <v>-1014</v>
+        <v>-753</v>
       </c>
       <c r="AX53" s="11">
-        <v>-753</v>
+        <v>-143899</v>
       </c>
       <c r="AY53" s="11">
-        <v>-143899</v>
+        <v>-1398</v>
       </c>
       <c r="AZ53" s="11">
-        <v>-1398</v>
+        <v>-104331</v>
       </c>
       <c r="BA53" s="11">
-        <v>-104331</v>
+        <v>-727</v>
       </c>
       <c r="BB53" s="11">
-        <v>-727</v>
+        <v>-371</v>
       </c>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.3">
@@ -7312,95 +7312,95 @@
       <c r="X54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y54" s="13" t="s">
-        <v>58</v>
+      <c r="Y54" s="13">
+        <v>-340</v>
       </c>
       <c r="Z54" s="13">
-        <v>-340</v>
+        <v>-41196</v>
       </c>
       <c r="AA54" s="13">
-        <v>-41196</v>
+        <v>-6143</v>
       </c>
       <c r="AB54" s="13">
-        <v>-6143</v>
+        <v>-9412</v>
       </c>
       <c r="AC54" s="13">
-        <v>-9412</v>
+        <v>-8588</v>
       </c>
       <c r="AD54" s="13">
-        <v>-8588</v>
+        <v>-367270</v>
       </c>
       <c r="AE54" s="13">
-        <v>-367270</v>
+        <v>-465</v>
       </c>
       <c r="AF54" s="13">
-        <v>-465</v>
+        <v>0</v>
       </c>
       <c r="AG54" s="13">
-        <v>0</v>
+        <v>-25563</v>
       </c>
       <c r="AH54" s="13">
-        <v>-25563</v>
+        <v>-860</v>
       </c>
       <c r="AI54" s="13">
-        <v>-860</v>
+        <v>-16872</v>
       </c>
       <c r="AJ54" s="13">
-        <v>-16872</v>
+        <v>-6798</v>
       </c>
       <c r="AK54" s="13">
-        <v>-6798</v>
-      </c>
-      <c r="AL54" s="13">
         <v>-10833</v>
       </c>
-      <c r="AM54" s="13" t="s">
-        <v>58</v>
+      <c r="AL54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM54" s="13">
+        <v>-16</v>
       </c>
       <c r="AN54" s="13">
-        <v>-16</v>
+        <v>-5045</v>
       </c>
       <c r="AO54" s="13">
-        <v>-5045</v>
-      </c>
-      <c r="AP54" s="13">
         <v>-3600</v>
       </c>
-      <c r="AQ54" s="13" t="s">
-        <v>58</v>
+      <c r="AP54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ54" s="13">
+        <v>-14800</v>
       </c>
       <c r="AR54" s="13">
-        <v>-14800</v>
-      </c>
-      <c r="AS54" s="13">
         <v>-58802</v>
       </c>
-      <c r="AT54" s="13" t="s">
-        <v>58</v>
+      <c r="AS54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT54" s="13">
+        <v>-3997</v>
       </c>
       <c r="AU54" s="13">
-        <v>-3997</v>
+        <v>-10</v>
       </c>
       <c r="AV54" s="13">
-        <v>-10</v>
+        <v>-3189</v>
       </c>
       <c r="AW54" s="13">
-        <v>-3189</v>
+        <v>-1659</v>
       </c>
       <c r="AX54" s="13">
-        <v>-1659</v>
+        <v>-905</v>
       </c>
       <c r="AY54" s="13">
-        <v>-905</v>
+        <v>-11306</v>
       </c>
       <c r="AZ54" s="13">
-        <v>-11306</v>
-      </c>
-      <c r="BA54" s="13">
         <v>-17040</v>
       </c>
-      <c r="BB54" s="13" t="s">
-        <v>58</v>
+      <c r="BA54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB54" s="13">
+        <v>-13520</v>
       </c>
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.3">
@@ -7471,95 +7471,95 @@
       <c r="X55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y55" s="11" t="s">
-        <v>58</v>
+      <c r="Y55" s="11">
+        <v>-134053</v>
       </c>
       <c r="Z55" s="11">
-        <v>-134053</v>
+        <v>-192</v>
       </c>
       <c r="AA55" s="11">
-        <v>-192</v>
+        <v>-1671</v>
       </c>
       <c r="AB55" s="11">
-        <v>-1671</v>
+        <v>0</v>
       </c>
       <c r="AC55" s="11">
         <v>0</v>
       </c>
       <c r="AD55" s="11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE55" s="11">
+        <v>-216</v>
+      </c>
+      <c r="AF55" s="11">
+        <v>-464</v>
+      </c>
+      <c r="AG55" s="11">
+        <v>-1500</v>
+      </c>
+      <c r="AH55" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI55" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ55" s="11">
+        <v>-4532</v>
+      </c>
+      <c r="AK55" s="11">
+        <v>-2007</v>
+      </c>
+      <c r="AL55" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM55" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN55" s="11">
+        <v>-5</v>
+      </c>
+      <c r="AO55" s="11">
+        <v>-2394</v>
+      </c>
+      <c r="AP55" s="11">
+        <v>-505</v>
+      </c>
+      <c r="AQ55" s="11">
+        <v>-110</v>
+      </c>
+      <c r="AR55" s="11">
+        <v>-1012</v>
+      </c>
+      <c r="AS55" s="11">
+        <v>-791</v>
+      </c>
+      <c r="AT55" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU55" s="11">
+        <v>-300</v>
+      </c>
+      <c r="AV55" s="11">
         <v>-1</v>
       </c>
-      <c r="AF55" s="11">
-        <v>-216</v>
-      </c>
-      <c r="AG55" s="11">
-        <v>-464</v>
-      </c>
-      <c r="AH55" s="11">
-        <v>-1500</v>
-      </c>
-      <c r="AI55" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK55" s="11">
-        <v>-4532</v>
-      </c>
-      <c r="AL55" s="11">
-        <v>-2007</v>
-      </c>
-      <c r="AM55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO55" s="11">
-        <v>-5</v>
-      </c>
-      <c r="AP55" s="11">
-        <v>-2394</v>
-      </c>
-      <c r="AQ55" s="11">
-        <v>-505</v>
-      </c>
-      <c r="AR55" s="11">
-        <v>-110</v>
-      </c>
-      <c r="AS55" s="11">
-        <v>-1012</v>
-      </c>
-      <c r="AT55" s="11">
-        <v>-791</v>
-      </c>
-      <c r="AU55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV55" s="11">
-        <v>-300</v>
-      </c>
       <c r="AW55" s="11">
-        <v>-1</v>
+        <v>-959</v>
       </c>
       <c r="AX55" s="11">
-        <v>-959</v>
+        <v>-11385</v>
       </c>
       <c r="AY55" s="11">
-        <v>-11385</v>
+        <v>-1004</v>
       </c>
       <c r="AZ55" s="11">
-        <v>-1004</v>
+        <v>-8</v>
       </c>
       <c r="BA55" s="11">
-        <v>-8</v>
+        <v>-923</v>
       </c>
       <c r="BB55" s="11">
-        <v>-923</v>
+        <v>-781</v>
       </c>
     </row>
     <row r="56" spans="2:54" x14ac:dyDescent="0.3">
@@ -7628,95 +7628,95 @@
       <c r="X56" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y56" s="15" t="s">
-        <v>58</v>
+      <c r="Y56" s="15">
+        <v>68095</v>
       </c>
       <c r="Z56" s="15">
-        <v>68095</v>
+        <v>-46263</v>
       </c>
       <c r="AA56" s="15">
-        <v>-46263</v>
+        <v>-577138</v>
       </c>
       <c r="AB56" s="15">
-        <v>-577138</v>
+        <v>-15749</v>
       </c>
       <c r="AC56" s="15">
-        <v>-15749</v>
+        <v>-8588</v>
       </c>
       <c r="AD56" s="15">
-        <v>-8588</v>
+        <v>-947820</v>
       </c>
       <c r="AE56" s="15">
-        <v>-947820</v>
+        <v>-736</v>
       </c>
       <c r="AF56" s="15">
-        <v>-736</v>
+        <v>-19090</v>
       </c>
       <c r="AG56" s="15">
-        <v>-19090</v>
+        <v>-99028</v>
       </c>
       <c r="AH56" s="15">
-        <v>-99028</v>
-      </c>
-      <c r="AI56" s="15">
         <v>-860</v>
       </c>
-      <c r="AJ56" s="15" t="s">
-        <v>58</v>
+      <c r="AI56" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ56" s="15">
+        <v>-11355</v>
       </c>
       <c r="AK56" s="15">
-        <v>-11355</v>
+        <v>-12877</v>
       </c>
       <c r="AL56" s="15">
-        <v>-12877</v>
+        <v>0</v>
       </c>
       <c r="AM56" s="15">
-        <v>0</v>
+        <v>-7390</v>
       </c>
       <c r="AN56" s="15">
-        <v>-7390</v>
+        <v>-5074</v>
       </c>
       <c r="AO56" s="15">
-        <v>-5074</v>
+        <v>-5994</v>
       </c>
       <c r="AP56" s="15">
-        <v>-5994</v>
+        <v>-53827</v>
       </c>
       <c r="AQ56" s="15">
-        <v>-53827</v>
+        <v>-20730</v>
       </c>
       <c r="AR56" s="15">
-        <v>-20730</v>
+        <v>-59814</v>
       </c>
       <c r="AS56" s="15">
-        <v>-59814</v>
+        <v>-14375</v>
       </c>
       <c r="AT56" s="15">
-        <v>-14375</v>
+        <v>-75097</v>
       </c>
       <c r="AU56" s="15">
-        <v>-75097</v>
+        <v>-514</v>
       </c>
       <c r="AV56" s="15">
-        <v>-514</v>
+        <v>-4204</v>
       </c>
       <c r="AW56" s="15">
-        <v>-4204</v>
+        <v>-3371</v>
       </c>
       <c r="AX56" s="15">
-        <v>-3371</v>
+        <v>-156189</v>
       </c>
       <c r="AY56" s="15">
-        <v>-156189</v>
+        <v>-13708</v>
       </c>
       <c r="AZ56" s="15">
-        <v>-13708</v>
+        <v>-121379</v>
       </c>
       <c r="BA56" s="15">
-        <v>-121379</v>
+        <v>-1650</v>
       </c>
       <c r="BB56" s="15">
-        <v>-1650</v>
+        <v>-14672</v>
       </c>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.3">
@@ -7786,94 +7786,94 @@
         <v>0</v>
       </c>
       <c r="Y57" s="17">
-        <v>0</v>
+        <v>7467555</v>
       </c>
       <c r="Z57" s="17">
-        <v>7467555</v>
+        <v>6384421</v>
       </c>
       <c r="AA57" s="17">
-        <v>6384421</v>
+        <v>4856130</v>
       </c>
       <c r="AB57" s="17">
-        <v>4856130</v>
+        <v>5813442</v>
       </c>
       <c r="AC57" s="17">
-        <v>5813442</v>
+        <v>5721785</v>
       </c>
       <c r="AD57" s="17">
-        <v>5721785</v>
+        <v>5107641</v>
       </c>
       <c r="AE57" s="17">
-        <v>5107641</v>
+        <v>4378140</v>
       </c>
       <c r="AF57" s="17">
-        <v>4378140</v>
+        <v>3237621</v>
       </c>
       <c r="AG57" s="17">
-        <v>3237621</v>
+        <v>4178096</v>
       </c>
       <c r="AH57" s="17">
-        <v>4178096</v>
+        <v>1407503</v>
       </c>
       <c r="AI57" s="17">
-        <v>1407503</v>
+        <v>4150140</v>
       </c>
       <c r="AJ57" s="17">
-        <v>4150140</v>
+        <v>3923881</v>
       </c>
       <c r="AK57" s="17">
-        <v>3923881</v>
+        <v>3886978</v>
       </c>
       <c r="AL57" s="17">
-        <v>3886978</v>
+        <v>3895038</v>
       </c>
       <c r="AM57" s="17">
-        <v>3895038</v>
+        <v>4301559</v>
       </c>
       <c r="AN57" s="17">
-        <v>4301559</v>
+        <v>3657198</v>
       </c>
       <c r="AO57" s="17">
-        <v>3657198</v>
+        <v>3955674</v>
       </c>
       <c r="AP57" s="17">
-        <v>3955674</v>
+        <v>3830903</v>
       </c>
       <c r="AQ57" s="17">
-        <v>3830903</v>
+        <v>2524305</v>
       </c>
       <c r="AR57" s="17">
-        <v>2524305</v>
+        <v>3563952</v>
       </c>
       <c r="AS57" s="17">
-        <v>3563952</v>
+        <v>5024094</v>
       </c>
       <c r="AT57" s="17">
-        <v>5024094</v>
+        <v>2164990</v>
       </c>
       <c r="AU57" s="17">
-        <v>2164990</v>
+        <v>6002055</v>
       </c>
       <c r="AV57" s="17">
-        <v>6002055</v>
+        <v>6008987</v>
       </c>
       <c r="AW57" s="17">
-        <v>6008987</v>
+        <v>6180034</v>
       </c>
       <c r="AX57" s="17">
-        <v>6180034</v>
+        <v>5547671</v>
       </c>
       <c r="AY57" s="17">
-        <v>5547671</v>
+        <v>6166401</v>
       </c>
       <c r="AZ57" s="17">
-        <v>6166401</v>
+        <v>5862975</v>
       </c>
       <c r="BA57" s="17">
-        <v>5862975</v>
+        <v>6491781</v>
       </c>
       <c r="BB57" s="17">
-        <v>6491781</v>
+        <v>5216080</v>
       </c>
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.3">
@@ -8378,95 +8378,95 @@
       <c r="X64" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y64" s="11" t="s">
-        <v>58</v>
+      <c r="Y64" s="11">
+        <v>175698</v>
       </c>
       <c r="Z64" s="11">
-        <v>175698</v>
+        <v>179275</v>
       </c>
       <c r="AA64" s="11">
-        <v>179275</v>
+        <v>226294</v>
       </c>
       <c r="AB64" s="11">
-        <v>226294</v>
+        <v>209581</v>
       </c>
       <c r="AC64" s="11">
-        <v>209581</v>
+        <v>246499</v>
       </c>
       <c r="AD64" s="11">
-        <v>246499</v>
+        <v>271579</v>
       </c>
       <c r="AE64" s="11">
-        <v>271579</v>
+        <v>183425</v>
       </c>
       <c r="AF64" s="11">
-        <v>183425</v>
+        <v>87723</v>
       </c>
       <c r="AG64" s="11">
-        <v>87723</v>
+        <v>161929</v>
       </c>
       <c r="AH64" s="11">
-        <v>161929</v>
+        <v>54931</v>
       </c>
       <c r="AI64" s="11">
-        <v>54931</v>
+        <v>202331</v>
       </c>
       <c r="AJ64" s="11">
-        <v>202331</v>
+        <v>180908</v>
       </c>
       <c r="AK64" s="11">
-        <v>180908</v>
+        <v>112508</v>
       </c>
       <c r="AL64" s="11">
-        <v>112508</v>
+        <v>122016</v>
       </c>
       <c r="AM64" s="11">
-        <v>122016</v>
+        <v>206638</v>
       </c>
       <c r="AN64" s="11">
-        <v>206638</v>
+        <v>169881</v>
       </c>
       <c r="AO64" s="11">
-        <v>169881</v>
+        <v>183088</v>
       </c>
       <c r="AP64" s="11">
-        <v>183088</v>
+        <v>122448</v>
       </c>
       <c r="AQ64" s="11">
-        <v>122448</v>
+        <v>76853</v>
       </c>
       <c r="AR64" s="11">
-        <v>76853</v>
+        <v>183163</v>
       </c>
       <c r="AS64" s="11">
-        <v>183163</v>
+        <v>128537</v>
       </c>
       <c r="AT64" s="11">
-        <v>128537</v>
+        <v>162306</v>
       </c>
       <c r="AU64" s="11">
-        <v>162306</v>
+        <v>221794</v>
       </c>
       <c r="AV64" s="11">
-        <v>221794</v>
+        <v>346731</v>
       </c>
       <c r="AW64" s="11">
-        <v>346731</v>
+        <v>333646</v>
       </c>
       <c r="AX64" s="11">
-        <v>333646</v>
+        <v>238049</v>
       </c>
       <c r="AY64" s="11">
-        <v>238049</v>
+        <v>339312</v>
       </c>
       <c r="AZ64" s="11">
-        <v>339312</v>
+        <v>389193</v>
       </c>
       <c r="BA64" s="11">
-        <v>389193</v>
+        <v>436327</v>
       </c>
       <c r="BB64" s="11">
-        <v>436327</v>
+        <v>459801</v>
       </c>
     </row>
     <row r="65" spans="2:54" x14ac:dyDescent="0.3">
@@ -8537,95 +8537,95 @@
       <c r="X65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y65" s="13" t="s">
-        <v>58</v>
+      <c r="Y65" s="13">
+        <v>378658</v>
       </c>
       <c r="Z65" s="13">
-        <v>378658</v>
+        <v>308141</v>
       </c>
       <c r="AA65" s="13">
-        <v>308141</v>
+        <v>511104</v>
       </c>
       <c r="AB65" s="13">
-        <v>511104</v>
+        <v>397910</v>
       </c>
       <c r="AC65" s="13">
-        <v>397910</v>
+        <v>329395</v>
       </c>
       <c r="AD65" s="13">
-        <v>329395</v>
+        <v>362078</v>
       </c>
       <c r="AE65" s="13">
-        <v>362078</v>
+        <v>331609</v>
       </c>
       <c r="AF65" s="13">
-        <v>331609</v>
+        <v>365926</v>
       </c>
       <c r="AG65" s="13">
-        <v>365926</v>
+        <v>107591</v>
       </c>
       <c r="AH65" s="13">
-        <v>107591</v>
+        <v>215735</v>
       </c>
       <c r="AI65" s="13">
-        <v>215735</v>
+        <v>458357</v>
       </c>
       <c r="AJ65" s="13">
-        <v>458357</v>
+        <v>400907</v>
       </c>
       <c r="AK65" s="13">
-        <v>400907</v>
+        <v>446114</v>
       </c>
       <c r="AL65" s="13">
-        <v>446114</v>
+        <v>373842</v>
       </c>
       <c r="AM65" s="13">
-        <v>373842</v>
+        <v>326435</v>
       </c>
       <c r="AN65" s="13">
-        <v>326435</v>
+        <v>498999</v>
       </c>
       <c r="AO65" s="13">
-        <v>498999</v>
+        <v>296691</v>
       </c>
       <c r="AP65" s="13">
-        <v>296691</v>
+        <v>312673</v>
       </c>
       <c r="AQ65" s="13">
-        <v>312673</v>
+        <v>336949</v>
       </c>
       <c r="AR65" s="13">
-        <v>336949</v>
+        <v>402096</v>
       </c>
       <c r="AS65" s="13">
-        <v>402096</v>
+        <v>303042</v>
       </c>
       <c r="AT65" s="13">
-        <v>303042</v>
+        <v>236235</v>
       </c>
       <c r="AU65" s="13">
-        <v>236235</v>
+        <v>566725</v>
       </c>
       <c r="AV65" s="13">
-        <v>566725</v>
+        <v>543343</v>
       </c>
       <c r="AW65" s="13">
-        <v>543343</v>
+        <v>631974</v>
       </c>
       <c r="AX65" s="13">
-        <v>631974</v>
+        <v>737071</v>
       </c>
       <c r="AY65" s="13">
-        <v>737071</v>
+        <v>669809</v>
       </c>
       <c r="AZ65" s="13">
-        <v>669809</v>
+        <v>720235</v>
       </c>
       <c r="BA65" s="13">
-        <v>720235</v>
+        <v>845921</v>
       </c>
       <c r="BB65" s="13">
-        <v>845921</v>
+        <v>933166</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.3">
@@ -8696,95 +8696,95 @@
       <c r="X66" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y66" s="11" t="s">
-        <v>58</v>
+      <c r="Y66" s="11">
+        <v>100639</v>
       </c>
       <c r="Z66" s="11">
-        <v>100639</v>
+        <v>215719</v>
       </c>
       <c r="AA66" s="11">
-        <v>215719</v>
+        <v>154540</v>
       </c>
       <c r="AB66" s="11">
-        <v>154540</v>
+        <v>111735</v>
       </c>
       <c r="AC66" s="11">
-        <v>111735</v>
+        <v>86533</v>
       </c>
       <c r="AD66" s="11">
-        <v>86533</v>
+        <v>200009</v>
       </c>
       <c r="AE66" s="11">
-        <v>200009</v>
+        <v>315384</v>
       </c>
       <c r="AF66" s="11">
-        <v>315384</v>
+        <v>538195</v>
       </c>
       <c r="AG66" s="11">
-        <v>538195</v>
+        <v>462703</v>
       </c>
       <c r="AH66" s="11">
-        <v>462703</v>
+        <v>324401</v>
       </c>
       <c r="AI66" s="11">
-        <v>324401</v>
+        <v>434472</v>
       </c>
       <c r="AJ66" s="11">
-        <v>434472</v>
+        <v>559704</v>
       </c>
       <c r="AK66" s="11">
-        <v>559704</v>
+        <v>547471</v>
       </c>
       <c r="AL66" s="11">
-        <v>547471</v>
+        <v>375414</v>
       </c>
       <c r="AM66" s="11">
-        <v>375414</v>
+        <v>815136</v>
       </c>
       <c r="AN66" s="11">
-        <v>815136</v>
+        <v>566952</v>
       </c>
       <c r="AO66" s="11">
-        <v>566952</v>
+        <v>663856</v>
       </c>
       <c r="AP66" s="11">
-        <v>663856</v>
+        <v>771714</v>
       </c>
       <c r="AQ66" s="11">
-        <v>771714</v>
+        <v>904109</v>
       </c>
       <c r="AR66" s="11">
-        <v>904109</v>
+        <v>1352562</v>
       </c>
       <c r="AS66" s="11">
-        <v>1352562</v>
+        <v>381515</v>
       </c>
       <c r="AT66" s="11">
-        <v>381515</v>
+        <v>708617</v>
       </c>
       <c r="AU66" s="11">
-        <v>708617</v>
+        <v>810988</v>
       </c>
       <c r="AV66" s="11">
-        <v>810988</v>
+        <v>999338</v>
       </c>
       <c r="AW66" s="11">
-        <v>999338</v>
+        <v>1028000</v>
       </c>
       <c r="AX66" s="11">
-        <v>1028000</v>
+        <v>714478</v>
       </c>
       <c r="AY66" s="11">
-        <v>714478</v>
+        <v>1129687</v>
       </c>
       <c r="AZ66" s="11">
-        <v>1129687</v>
+        <v>707418</v>
       </c>
       <c r="BA66" s="11">
-        <v>707418</v>
+        <v>1001682</v>
       </c>
       <c r="BB66" s="11">
-        <v>1001682</v>
+        <v>999340</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.3">
@@ -8854,94 +8854,94 @@
         <v>0</v>
       </c>
       <c r="Y67" s="15">
-        <v>0</v>
+        <v>654995</v>
       </c>
       <c r="Z67" s="15">
-        <v>654995</v>
+        <v>703135</v>
       </c>
       <c r="AA67" s="15">
-        <v>703135</v>
+        <v>891938</v>
       </c>
       <c r="AB67" s="15">
-        <v>891938</v>
+        <v>719226</v>
       </c>
       <c r="AC67" s="15">
-        <v>719226</v>
+        <v>662427</v>
       </c>
       <c r="AD67" s="15">
-        <v>662427</v>
+        <v>833666</v>
       </c>
       <c r="AE67" s="15">
-        <v>833666</v>
+        <v>830418</v>
       </c>
       <c r="AF67" s="15">
-        <v>830418</v>
+        <v>991844</v>
       </c>
       <c r="AG67" s="15">
-        <v>991844</v>
+        <v>732223</v>
       </c>
       <c r="AH67" s="15">
-        <v>732223</v>
+        <v>595067</v>
       </c>
       <c r="AI67" s="15">
-        <v>595067</v>
+        <v>1095160</v>
       </c>
       <c r="AJ67" s="15">
-        <v>1095160</v>
+        <v>1141519</v>
       </c>
       <c r="AK67" s="15">
-        <v>1141519</v>
+        <v>1106093</v>
       </c>
       <c r="AL67" s="15">
-        <v>1106093</v>
+        <v>871272</v>
       </c>
       <c r="AM67" s="15">
-        <v>871272</v>
+        <v>1348209</v>
       </c>
       <c r="AN67" s="15">
-        <v>1348209</v>
+        <v>1235832</v>
       </c>
       <c r="AO67" s="15">
-        <v>1235832</v>
+        <v>1143635</v>
       </c>
       <c r="AP67" s="15">
-        <v>1143635</v>
+        <v>1206835</v>
       </c>
       <c r="AQ67" s="15">
-        <v>1206835</v>
+        <v>1317911</v>
       </c>
       <c r="AR67" s="15">
-        <v>1317911</v>
+        <v>1937821</v>
       </c>
       <c r="AS67" s="15">
-        <v>1937821</v>
+        <v>813094</v>
       </c>
       <c r="AT67" s="15">
-        <v>813094</v>
+        <v>1107158</v>
       </c>
       <c r="AU67" s="15">
-        <v>1107158</v>
+        <v>1599507</v>
       </c>
       <c r="AV67" s="15">
-        <v>1599507</v>
+        <v>1889412</v>
       </c>
       <c r="AW67" s="15">
-        <v>1889412</v>
+        <v>1993620</v>
       </c>
       <c r="AX67" s="15">
-        <v>1993620</v>
+        <v>1689598</v>
       </c>
       <c r="AY67" s="15">
-        <v>1689598</v>
+        <v>2138808</v>
       </c>
       <c r="AZ67" s="15">
-        <v>2138808</v>
+        <v>1816846</v>
       </c>
       <c r="BA67" s="15">
-        <v>1816846</v>
+        <v>2283930</v>
       </c>
       <c r="BB67" s="15">
-        <v>2283930</v>
+        <v>2392307</v>
       </c>
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.3">
@@ -9069,14 +9069,14 @@
       <c r="X69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y69" s="11" t="s">
-        <v>58</v>
+      <c r="Y69" s="11">
+        <v>8</v>
       </c>
       <c r="Z69" s="11">
-        <v>8</v>
+        <v>2302</v>
       </c>
       <c r="AA69" s="11">
-        <v>2302</v>
+        <v>0</v>
       </c>
       <c r="AB69" s="11">
         <v>0</v>
@@ -9109,10 +9109,10 @@
         <v>0</v>
       </c>
       <c r="AL69" s="11">
-        <v>0</v>
+        <v>3693</v>
       </c>
       <c r="AM69" s="11">
-        <v>3693</v>
+        <v>0</v>
       </c>
       <c r="AN69" s="11">
         <v>0</v>
@@ -9121,10 +9121,10 @@
         <v>0</v>
       </c>
       <c r="AP69" s="11">
-        <v>0</v>
+        <v>6268</v>
       </c>
       <c r="AQ69" s="11">
-        <v>6268</v>
+        <v>0</v>
       </c>
       <c r="AR69" s="11">
         <v>0</v>
@@ -9145,10 +9145,10 @@
         <v>0</v>
       </c>
       <c r="AX69" s="11">
-        <v>0</v>
+        <v>10342</v>
       </c>
       <c r="AY69" s="11">
-        <v>10342</v>
+        <v>0</v>
       </c>
       <c r="AZ69" s="11">
         <v>0</v>
@@ -9228,17 +9228,17 @@
       <c r="X70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y70" s="13" t="s">
-        <v>58</v>
+      <c r="Y70" s="13">
+        <v>71</v>
       </c>
       <c r="Z70" s="13">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="AA70" s="13">
-        <v>0</v>
+        <v>4176</v>
       </c>
       <c r="AB70" s="13">
-        <v>4176</v>
+        <v>0</v>
       </c>
       <c r="AC70" s="13">
         <v>0</v>
@@ -9250,10 +9250,10 @@
         <v>0</v>
       </c>
       <c r="AF70" s="13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG70" s="13">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH70" s="13">
         <v>0</v>
@@ -9295,19 +9295,19 @@
         <v>0</v>
       </c>
       <c r="AU70" s="13">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="AV70" s="13">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="AW70" s="13">
-        <v>0</v>
+        <v>374</v>
       </c>
       <c r="AX70" s="13">
-        <v>374</v>
+        <v>-39</v>
       </c>
       <c r="AY70" s="13">
-        <v>-39</v>
+        <v>0</v>
       </c>
       <c r="AZ70" s="13">
         <v>0</v>
@@ -9387,20 +9387,20 @@
       <c r="X71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y71" s="11" t="s">
-        <v>58</v>
+      <c r="Y71" s="11">
+        <v>91925</v>
       </c>
       <c r="Z71" s="11">
-        <v>91925</v>
+        <v>4920</v>
       </c>
       <c r="AA71" s="11">
-        <v>4920</v>
+        <v>14360</v>
       </c>
       <c r="AB71" s="11">
-        <v>14360</v>
+        <v>18905</v>
       </c>
       <c r="AC71" s="11">
-        <v>18905</v>
+        <v>0</v>
       </c>
       <c r="AD71" s="11">
         <v>0</v>
@@ -9418,16 +9418,16 @@
         <v>0</v>
       </c>
       <c r="AI71" s="11">
-        <v>0</v>
+        <v>6802</v>
       </c>
       <c r="AJ71" s="11">
-        <v>6802</v>
+        <v>24639</v>
       </c>
       <c r="AK71" s="11">
-        <v>24639</v>
+        <v>198</v>
       </c>
       <c r="AL71" s="11">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="AM71" s="11">
         <v>0</v>
@@ -9445,28 +9445,28 @@
         <v>0</v>
       </c>
       <c r="AR71" s="11">
-        <v>0</v>
+        <v>27516</v>
       </c>
       <c r="AS71" s="11">
-        <v>27516</v>
+        <v>213324</v>
       </c>
       <c r="AT71" s="11">
-        <v>213324</v>
+        <v>0</v>
       </c>
       <c r="AU71" s="11">
-        <v>0</v>
+        <v>59070</v>
       </c>
       <c r="AV71" s="11">
-        <v>59070</v>
+        <v>0</v>
       </c>
       <c r="AW71" s="11">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="AX71" s="11">
-        <v>84</v>
+        <v>38717</v>
       </c>
       <c r="AY71" s="11">
-        <v>38717</v>
+        <v>0</v>
       </c>
       <c r="AZ71" s="11">
         <v>0</v>
@@ -9545,19 +9545,19 @@
         <v>0</v>
       </c>
       <c r="Y72" s="15">
-        <v>0</v>
+        <v>92004</v>
       </c>
       <c r="Z72" s="15">
-        <v>92004</v>
+        <v>7222</v>
       </c>
       <c r="AA72" s="15">
-        <v>7222</v>
+        <v>18536</v>
       </c>
       <c r="AB72" s="15">
-        <v>18536</v>
+        <v>18905</v>
       </c>
       <c r="AC72" s="15">
-        <v>18905</v>
+        <v>0</v>
       </c>
       <c r="AD72" s="15">
         <v>0</v>
@@ -9566,28 +9566,28 @@
         <v>0</v>
       </c>
       <c r="AF72" s="15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG72" s="15">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH72" s="15">
         <v>0</v>
       </c>
       <c r="AI72" s="15">
-        <v>0</v>
+        <v>6802</v>
       </c>
       <c r="AJ72" s="15">
-        <v>6802</v>
+        <v>24639</v>
       </c>
       <c r="AK72" s="15">
-        <v>24639</v>
+        <v>198</v>
       </c>
       <c r="AL72" s="15">
-        <v>198</v>
+        <v>3693</v>
       </c>
       <c r="AM72" s="15">
-        <v>3693</v>
+        <v>0</v>
       </c>
       <c r="AN72" s="15">
         <v>0</v>
@@ -9596,34 +9596,34 @@
         <v>0</v>
       </c>
       <c r="AP72" s="15">
-        <v>0</v>
+        <v>6268</v>
       </c>
       <c r="AQ72" s="15">
-        <v>6268</v>
+        <v>0</v>
       </c>
       <c r="AR72" s="15">
-        <v>0</v>
+        <v>27516</v>
       </c>
       <c r="AS72" s="15">
-        <v>27516</v>
+        <v>213324</v>
       </c>
       <c r="AT72" s="15">
-        <v>213324</v>
+        <v>0</v>
       </c>
       <c r="AU72" s="15">
-        <v>0</v>
+        <v>59440</v>
       </c>
       <c r="AV72" s="15">
-        <v>59440</v>
+        <v>0</v>
       </c>
       <c r="AW72" s="15">
-        <v>0</v>
+        <v>458</v>
       </c>
       <c r="AX72" s="15">
-        <v>458</v>
+        <v>49020</v>
       </c>
       <c r="AY72" s="15">
-        <v>49020</v>
+        <v>0</v>
       </c>
       <c r="AZ72" s="15">
         <v>0</v>
@@ -9760,36 +9760,36 @@
       <c r="X74" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y74" s="11" t="s">
-        <v>58</v>
+      <c r="Y74" s="11">
+        <v>31217</v>
       </c>
       <c r="Z74" s="11">
-        <v>31217</v>
+        <v>30137</v>
       </c>
       <c r="AA74" s="11">
-        <v>30137</v>
+        <v>42063</v>
       </c>
       <c r="AB74" s="11">
-        <v>42063</v>
+        <v>27755</v>
       </c>
       <c r="AC74" s="11">
-        <v>27755</v>
+        <v>66664</v>
       </c>
       <c r="AD74" s="11">
-        <v>66664</v>
+        <v>55663</v>
       </c>
       <c r="AE74" s="11">
-        <v>55663</v>
+        <v>33100</v>
       </c>
       <c r="AF74" s="11">
-        <v>33100</v>
+        <v>44555</v>
       </c>
       <c r="AG74" s="11">
-        <v>44555</v>
-      </c>
-      <c r="AH74" s="11">
         <v>44474</v>
       </c>
+      <c r="AH74" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AI74" s="11" t="s">
         <v>58</v>
       </c>
@@ -9820,35 +9820,35 @@
       <c r="AR74" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS74" s="11" t="s">
-        <v>58</v>
+      <c r="AS74" s="11">
+        <v>70055</v>
       </c>
       <c r="AT74" s="11">
-        <v>70055</v>
+        <v>0</v>
       </c>
       <c r="AU74" s="11">
-        <v>0</v>
+        <v>73532</v>
       </c>
       <c r="AV74" s="11">
-        <v>73532</v>
+        <v>776</v>
       </c>
       <c r="AW74" s="11">
-        <v>776</v>
+        <v>18932</v>
       </c>
       <c r="AX74" s="11">
-        <v>18932</v>
+        <v>49360</v>
       </c>
       <c r="AY74" s="11">
-        <v>49360</v>
+        <v>40006</v>
       </c>
       <c r="AZ74" s="11">
-        <v>40006</v>
+        <v>24379</v>
       </c>
       <c r="BA74" s="11">
-        <v>24379</v>
+        <v>65013</v>
       </c>
       <c r="BB74" s="11">
-        <v>65013</v>
+        <v>84545</v>
       </c>
     </row>
     <row r="75" spans="2:54" x14ac:dyDescent="0.3">
@@ -9919,36 +9919,36 @@
       <c r="X75" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y75" s="13" t="s">
-        <v>58</v>
+      <c r="Y75" s="13">
+        <v>0</v>
       </c>
       <c r="Z75" s="13">
-        <v>0</v>
+        <v>977</v>
       </c>
       <c r="AA75" s="13">
-        <v>977</v>
+        <v>4271</v>
       </c>
       <c r="AB75" s="13">
-        <v>4271</v>
+        <v>41</v>
       </c>
       <c r="AC75" s="13">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="AD75" s="13">
-        <v>0</v>
+        <v>598</v>
       </c>
       <c r="AE75" s="13">
-        <v>598</v>
+        <v>3816</v>
       </c>
       <c r="AF75" s="13">
-        <v>3816</v>
+        <v>0</v>
       </c>
       <c r="AG75" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH75" s="13">
         <v>4219</v>
       </c>
+      <c r="AH75" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AI75" s="13" t="s">
         <v>58</v>
       </c>
@@ -9979,11 +9979,11 @@
       <c r="AR75" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS75" s="13" t="s">
-        <v>58</v>
+      <c r="AS75" s="13">
+        <v>36346</v>
       </c>
       <c r="AT75" s="13">
-        <v>36346</v>
+        <v>0</v>
       </c>
       <c r="AU75" s="13">
         <v>0</v>
@@ -10078,8 +10078,8 @@
       <c r="X76" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y76" s="11" t="s">
-        <v>58</v>
+      <c r="Y76" s="11">
+        <v>0</v>
       </c>
       <c r="Z76" s="11">
         <v>0</v>
@@ -10091,23 +10091,23 @@
         <v>0</v>
       </c>
       <c r="AC76" s="11">
-        <v>0</v>
+        <v>2997</v>
       </c>
       <c r="AD76" s="11">
-        <v>2997</v>
+        <v>2857</v>
       </c>
       <c r="AE76" s="11">
-        <v>2857</v>
+        <v>2981</v>
       </c>
       <c r="AF76" s="11">
-        <v>2981</v>
+        <v>0</v>
       </c>
       <c r="AG76" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH76" s="11">
         <v>629</v>
       </c>
+      <c r="AH76" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AI76" s="11" t="s">
         <v>58</v>
       </c>
@@ -10138,17 +10138,17 @@
       <c r="AR76" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS76" s="11" t="s">
-        <v>58</v>
+      <c r="AS76" s="11">
+        <v>222</v>
       </c>
       <c r="AT76" s="11">
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="AU76" s="11">
-        <v>0</v>
+        <v>17252</v>
       </c>
       <c r="AV76" s="11">
-        <v>17252</v>
+        <v>0</v>
       </c>
       <c r="AW76" s="11">
         <v>0</v>
@@ -10163,10 +10163,10 @@
         <v>0</v>
       </c>
       <c r="BA76" s="11">
-        <v>0</v>
+        <v>1704</v>
       </c>
       <c r="BB76" s="11">
-        <v>1704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="2:54" x14ac:dyDescent="0.3">
@@ -10264,41 +10264,41 @@
       <c r="AG77" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH77" s="13" t="s">
-        <v>58</v>
+      <c r="AH77" s="13">
+        <v>2345</v>
       </c>
       <c r="AI77" s="13">
-        <v>2345</v>
+        <v>0</v>
       </c>
       <c r="AJ77" s="13">
-        <v>0</v>
+        <v>5727</v>
       </c>
       <c r="AK77" s="13">
-        <v>5727</v>
+        <v>58810</v>
       </c>
       <c r="AL77" s="13">
-        <v>58810</v>
+        <v>32754</v>
       </c>
       <c r="AM77" s="13">
-        <v>32754</v>
+        <v>53834</v>
       </c>
       <c r="AN77" s="13">
-        <v>53834</v>
+        <v>43127</v>
       </c>
       <c r="AO77" s="13">
-        <v>43127</v>
+        <v>24820</v>
       </c>
       <c r="AP77" s="13">
-        <v>24820</v>
+        <v>80408</v>
       </c>
       <c r="AQ77" s="13">
-        <v>80408</v>
+        <v>28553</v>
       </c>
       <c r="AR77" s="13">
-        <v>28553</v>
-      </c>
-      <c r="AS77" s="13">
         <v>37920</v>
+      </c>
+      <c r="AS77" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT77" s="13" t="s">
         <v>58</v>
@@ -10423,11 +10423,11 @@
       <c r="AG78" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH78" s="11" t="s">
-        <v>58</v>
+      <c r="AH78" s="11">
+        <v>9745</v>
       </c>
       <c r="AI78" s="11">
-        <v>9745</v>
+        <v>0</v>
       </c>
       <c r="AJ78" s="11">
         <v>0</v>
@@ -10439,25 +10439,25 @@
         <v>0</v>
       </c>
       <c r="AM78" s="11">
-        <v>0</v>
+        <v>2764</v>
       </c>
       <c r="AN78" s="11">
-        <v>2764</v>
+        <v>0</v>
       </c>
       <c r="AO78" s="11">
-        <v>0</v>
+        <v>532</v>
       </c>
       <c r="AP78" s="11">
-        <v>532</v>
+        <v>0</v>
       </c>
       <c r="AQ78" s="11">
         <v>0</v>
       </c>
       <c r="AR78" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS78" s="11">
         <v>5556</v>
+      </c>
+      <c r="AS78" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT78" s="11" t="s">
         <v>58</v>
@@ -10582,41 +10582,41 @@
       <c r="AG79" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH79" s="13" t="s">
-        <v>58</v>
+      <c r="AH79" s="13">
+        <v>0</v>
       </c>
       <c r="AI79" s="13">
-        <v>0</v>
+        <v>5171</v>
       </c>
       <c r="AJ79" s="13">
-        <v>5171</v>
+        <v>1682</v>
       </c>
       <c r="AK79" s="13">
-        <v>1682</v>
+        <v>8463</v>
       </c>
       <c r="AL79" s="13">
-        <v>8463</v>
+        <v>29259</v>
       </c>
       <c r="AM79" s="13">
-        <v>29259</v>
+        <v>24297</v>
       </c>
       <c r="AN79" s="13">
-        <v>24297</v>
+        <v>8111</v>
       </c>
       <c r="AO79" s="13">
-        <v>8111</v>
+        <v>24943</v>
       </c>
       <c r="AP79" s="13">
-        <v>24943</v>
+        <v>12818</v>
       </c>
       <c r="AQ79" s="13">
-        <v>12818</v>
+        <v>0</v>
       </c>
       <c r="AR79" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS79" s="13">
         <v>540</v>
+      </c>
+      <c r="AS79" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT79" s="13" t="s">
         <v>58</v>
@@ -10714,95 +10714,95 @@
       <c r="X80" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y80" s="17" t="s">
-        <v>58</v>
+      <c r="Y80" s="17">
+        <v>31217</v>
       </c>
       <c r="Z80" s="17">
-        <v>31217</v>
+        <v>31114</v>
       </c>
       <c r="AA80" s="17">
-        <v>31114</v>
+        <v>46334</v>
       </c>
       <c r="AB80" s="17">
-        <v>46334</v>
+        <v>27796</v>
       </c>
       <c r="AC80" s="17">
-        <v>27796</v>
+        <v>69661</v>
       </c>
       <c r="AD80" s="17">
-        <v>69661</v>
+        <v>59118</v>
       </c>
       <c r="AE80" s="17">
-        <v>59118</v>
+        <v>39897</v>
       </c>
       <c r="AF80" s="17">
-        <v>39897</v>
+        <v>44555</v>
       </c>
       <c r="AG80" s="17">
-        <v>44555</v>
+        <v>49322</v>
       </c>
       <c r="AH80" s="17">
-        <v>49322</v>
+        <v>12090</v>
       </c>
       <c r="AI80" s="17">
-        <v>12090</v>
+        <v>5171</v>
       </c>
       <c r="AJ80" s="17">
-        <v>5171</v>
+        <v>7409</v>
       </c>
       <c r="AK80" s="17">
-        <v>7409</v>
+        <v>67273</v>
       </c>
       <c r="AL80" s="17">
-        <v>67273</v>
+        <v>62013</v>
       </c>
       <c r="AM80" s="17">
-        <v>62013</v>
+        <v>80895</v>
       </c>
       <c r="AN80" s="17">
-        <v>80895</v>
+        <v>51238</v>
       </c>
       <c r="AO80" s="17">
-        <v>51238</v>
+        <v>50295</v>
       </c>
       <c r="AP80" s="17">
-        <v>50295</v>
+        <v>93226</v>
       </c>
       <c r="AQ80" s="17">
-        <v>93226</v>
+        <v>28553</v>
       </c>
       <c r="AR80" s="17">
-        <v>28553</v>
+        <v>44016</v>
       </c>
       <c r="AS80" s="17">
-        <v>44016</v>
+        <v>106623</v>
       </c>
       <c r="AT80" s="17">
-        <v>106623</v>
+        <v>0</v>
       </c>
       <c r="AU80" s="17">
-        <v>0</v>
+        <v>90784</v>
       </c>
       <c r="AV80" s="17">
-        <v>90784</v>
+        <v>776</v>
       </c>
       <c r="AW80" s="17">
-        <v>776</v>
+        <v>18932</v>
       </c>
       <c r="AX80" s="17">
-        <v>18932</v>
+        <v>49360</v>
       </c>
       <c r="AY80" s="17">
-        <v>49360</v>
+        <v>40006</v>
       </c>
       <c r="AZ80" s="17">
-        <v>40006</v>
+        <v>24379</v>
       </c>
       <c r="BA80" s="17">
-        <v>24379</v>
+        <v>66717</v>
       </c>
       <c r="BB80" s="17">
-        <v>66717</v>
+        <v>84545</v>
       </c>
     </row>
     <row r="81" spans="2:54" x14ac:dyDescent="0.3">
@@ -10930,95 +10930,95 @@
       <c r="X82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y82" s="11" t="s">
-        <v>58</v>
+      <c r="Y82" s="11">
+        <v>9031</v>
       </c>
       <c r="Z82" s="11">
-        <v>9031</v>
+        <v>-262</v>
       </c>
       <c r="AA82" s="11">
-        <v>-262</v>
+        <v>-50221</v>
       </c>
       <c r="AB82" s="11">
-        <v>-50221</v>
+        <v>-413</v>
       </c>
       <c r="AC82" s="11">
-        <v>-413</v>
+        <v>0</v>
       </c>
       <c r="AD82" s="11">
-        <v>0</v>
+        <v>-39274</v>
       </c>
       <c r="AE82" s="11">
-        <v>-39274</v>
+        <v>-4</v>
       </c>
       <c r="AF82" s="11">
-        <v>-4</v>
+        <v>-2103</v>
       </c>
       <c r="AG82" s="11">
-        <v>-2103</v>
+        <v>-7315</v>
       </c>
       <c r="AH82" s="11">
-        <v>-7315</v>
+        <v>0</v>
       </c>
       <c r="AI82" s="11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ82" s="11">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="AK82" s="11">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="AL82" s="11">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM82" s="11">
-        <v>0</v>
+        <v>-2105</v>
       </c>
       <c r="AN82" s="11">
-        <v>-2105</v>
+        <v>-3</v>
       </c>
       <c r="AO82" s="11">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AP82" s="11">
-        <v>0</v>
+        <v>-3721</v>
       </c>
       <c r="AQ82" s="11">
-        <v>-3721</v>
+        <v>-395</v>
       </c>
       <c r="AR82" s="11">
-        <v>-395</v>
+        <v>0</v>
       </c>
       <c r="AS82" s="11">
-        <v>0</v>
+        <v>-950</v>
       </c>
       <c r="AT82" s="11">
-        <v>-950</v>
+        <v>-5034</v>
       </c>
       <c r="AU82" s="11">
-        <v>-5034</v>
+        <v>-21</v>
       </c>
       <c r="AV82" s="11">
-        <v>-21</v>
+        <v>-92</v>
       </c>
       <c r="AW82" s="11">
-        <v>-92</v>
+        <v>-54</v>
       </c>
       <c r="AX82" s="11">
-        <v>-54</v>
+        <v>-14537</v>
       </c>
       <c r="AY82" s="11">
-        <v>-14537</v>
+        <v>-71</v>
       </c>
       <c r="AZ82" s="11">
-        <v>-71</v>
+        <v>-9893</v>
       </c>
       <c r="BA82" s="11">
-        <v>-9893</v>
+        <v>-58</v>
       </c>
       <c r="BB82" s="11">
-        <v>-58</v>
+        <v>-42</v>
       </c>
     </row>
     <row r="83" spans="2:54" x14ac:dyDescent="0.3">
@@ -11089,95 +11089,95 @@
       <c r="X83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y83" s="13" t="s">
-        <v>58</v>
+      <c r="Y83" s="13">
+        <v>-57</v>
       </c>
       <c r="Z83" s="13">
-        <v>-57</v>
+        <v>-4120</v>
       </c>
       <c r="AA83" s="13">
-        <v>-4120</v>
+        <v>-2165</v>
       </c>
       <c r="AB83" s="13">
-        <v>-2165</v>
+        <v>-12254</v>
       </c>
       <c r="AC83" s="13">
-        <v>-12254</v>
+        <v>-15975</v>
       </c>
       <c r="AD83" s="13">
-        <v>-15975</v>
+        <v>-49633</v>
       </c>
       <c r="AE83" s="13">
-        <v>-49633</v>
+        <v>-385</v>
       </c>
       <c r="AF83" s="13">
-        <v>-385</v>
+        <v>0</v>
       </c>
       <c r="AG83" s="13">
-        <v>0</v>
+        <v>-34765</v>
       </c>
       <c r="AH83" s="13">
-        <v>-34765</v>
+        <v>-5160</v>
       </c>
       <c r="AI83" s="13">
-        <v>-5160</v>
+        <v>-2126</v>
       </c>
       <c r="AJ83" s="13">
-        <v>-2126</v>
+        <v>-13444</v>
       </c>
       <c r="AK83" s="13">
-        <v>-13444</v>
+        <v>-17265</v>
       </c>
       <c r="AL83" s="13">
-        <v>-17265</v>
+        <v>0</v>
       </c>
       <c r="AM83" s="13">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="AN83" s="13">
-        <v>-5</v>
+        <v>-1405</v>
       </c>
       <c r="AO83" s="13">
-        <v>-1405</v>
+        <v>-878</v>
       </c>
       <c r="AP83" s="13">
-        <v>-878</v>
+        <v>0</v>
       </c>
       <c r="AQ83" s="13">
-        <v>0</v>
+        <v>-14200</v>
       </c>
       <c r="AR83" s="13">
-        <v>-14200</v>
+        <v>-31462</v>
       </c>
       <c r="AS83" s="13">
-        <v>-31462</v>
+        <v>0</v>
       </c>
       <c r="AT83" s="13">
-        <v>0</v>
+        <v>-7338</v>
       </c>
       <c r="AU83" s="13">
-        <v>-7338</v>
+        <v>-2</v>
       </c>
       <c r="AV83" s="13">
-        <v>-2</v>
+        <v>-6721</v>
       </c>
       <c r="AW83" s="13">
-        <v>-6721</v>
+        <v>-1414</v>
       </c>
       <c r="AX83" s="13">
-        <v>-1414</v>
+        <v>-373</v>
       </c>
       <c r="AY83" s="13">
-        <v>-373</v>
+        <v>-4731</v>
       </c>
       <c r="AZ83" s="13">
-        <v>-4731</v>
+        <v>-10369</v>
       </c>
       <c r="BA83" s="13">
-        <v>-10369</v>
+        <v>0</v>
       </c>
       <c r="BB83" s="13">
-        <v>0</v>
+        <v>-2471</v>
       </c>
     </row>
     <row r="84" spans="2:54" x14ac:dyDescent="0.3">
@@ -11248,95 +11248,95 @@
       <c r="X84" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y84" s="11" t="s">
-        <v>58</v>
+      <c r="Y84" s="11">
+        <v>-617</v>
       </c>
       <c r="Z84" s="11">
-        <v>-617</v>
+        <v>-286</v>
       </c>
       <c r="AA84" s="11">
-        <v>-286</v>
+        <v>-6696</v>
       </c>
       <c r="AB84" s="11">
-        <v>-6696</v>
+        <v>0</v>
       </c>
       <c r="AC84" s="11">
         <v>0</v>
       </c>
       <c r="AD84" s="11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE84" s="11">
-        <v>-1</v>
+        <v>-2607</v>
       </c>
       <c r="AF84" s="11">
-        <v>-2607</v>
+        <v>-45</v>
       </c>
       <c r="AG84" s="11">
-        <v>-45</v>
+        <v>-2415</v>
       </c>
       <c r="AH84" s="11">
-        <v>-2415</v>
+        <v>0</v>
       </c>
       <c r="AI84" s="11">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="AJ84" s="11">
-        <v>-8</v>
+        <v>-13287</v>
       </c>
       <c r="AK84" s="11">
-        <v>-13287</v>
+        <v>-5434</v>
       </c>
       <c r="AL84" s="11">
-        <v>-5434</v>
+        <v>0</v>
       </c>
       <c r="AM84" s="11">
         <v>0</v>
       </c>
       <c r="AN84" s="11">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="AO84" s="11">
-        <v>-15</v>
+        <v>-3847</v>
       </c>
       <c r="AP84" s="11">
-        <v>-3847</v>
+        <v>-778</v>
       </c>
       <c r="AQ84" s="11">
-        <v>-778</v>
+        <v>-7165</v>
       </c>
       <c r="AR84" s="11">
-        <v>-7165</v>
+        <v>-22108</v>
       </c>
       <c r="AS84" s="11">
-        <v>-22108</v>
+        <v>-17347</v>
       </c>
       <c r="AT84" s="11">
-        <v>-17347</v>
+        <v>0</v>
       </c>
       <c r="AU84" s="11">
-        <v>0</v>
+        <v>-19830</v>
       </c>
       <c r="AV84" s="11">
-        <v>-19830</v>
+        <v>-4</v>
       </c>
       <c r="AW84" s="11">
-        <v>-4</v>
+        <v>-29379</v>
       </c>
       <c r="AX84" s="11">
-        <v>-29379</v>
+        <v>-24161</v>
       </c>
       <c r="AY84" s="11">
-        <v>-24161</v>
+        <v>-66072</v>
       </c>
       <c r="AZ84" s="11">
-        <v>-66072</v>
+        <v>-80</v>
       </c>
       <c r="BA84" s="11">
-        <v>-80</v>
+        <v>-20123</v>
       </c>
       <c r="BB84" s="11">
-        <v>-20123</v>
+        <v>-18745</v>
       </c>
     </row>
     <row r="85" spans="2:54" x14ac:dyDescent="0.3">
@@ -11407,95 +11407,95 @@
       <c r="X85" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y85" s="15" t="s">
-        <v>58</v>
+      <c r="Y85" s="15">
+        <v>8357</v>
       </c>
       <c r="Z85" s="15">
-        <v>8357</v>
+        <v>-4668</v>
       </c>
       <c r="AA85" s="15">
-        <v>-4668</v>
+        <v>-59082</v>
       </c>
       <c r="AB85" s="15">
-        <v>-59082</v>
+        <v>-12667</v>
       </c>
       <c r="AC85" s="15">
-        <v>-12667</v>
+        <v>-15975</v>
       </c>
       <c r="AD85" s="15">
-        <v>-15975</v>
+        <v>-88908</v>
       </c>
       <c r="AE85" s="15">
-        <v>-88908</v>
+        <v>-2996</v>
       </c>
       <c r="AF85" s="15">
-        <v>-2996</v>
+        <v>-2148</v>
       </c>
       <c r="AG85" s="15">
-        <v>-2148</v>
+        <v>-44495</v>
       </c>
       <c r="AH85" s="15">
-        <v>-44495</v>
+        <v>-5160</v>
       </c>
       <c r="AI85" s="15">
-        <v>-5160</v>
+        <v>-2135</v>
       </c>
       <c r="AJ85" s="15">
-        <v>-2135</v>
+        <v>-26736</v>
       </c>
       <c r="AK85" s="15">
-        <v>-26736</v>
+        <v>-22701</v>
       </c>
       <c r="AL85" s="15">
-        <v>-22701</v>
+        <v>0</v>
       </c>
       <c r="AM85" s="15">
-        <v>0</v>
+        <v>-2110</v>
       </c>
       <c r="AN85" s="15">
-        <v>-2110</v>
+        <v>-1423</v>
       </c>
       <c r="AO85" s="15">
-        <v>-1423</v>
+        <v>-4725</v>
       </c>
       <c r="AP85" s="15">
-        <v>-4725</v>
+        <v>-4499</v>
       </c>
       <c r="AQ85" s="15">
-        <v>-4499</v>
+        <v>-21760</v>
       </c>
       <c r="AR85" s="15">
-        <v>-21760</v>
+        <v>-53570</v>
       </c>
       <c r="AS85" s="15">
-        <v>-53570</v>
+        <v>-18297</v>
       </c>
       <c r="AT85" s="15">
-        <v>-18297</v>
+        <v>-12372</v>
       </c>
       <c r="AU85" s="15">
-        <v>-12372</v>
+        <v>-19853</v>
       </c>
       <c r="AV85" s="15">
-        <v>-19853</v>
+        <v>-6817</v>
       </c>
       <c r="AW85" s="15">
-        <v>-6817</v>
+        <v>-30847</v>
       </c>
       <c r="AX85" s="15">
-        <v>-30847</v>
+        <v>-39071</v>
       </c>
       <c r="AY85" s="15">
-        <v>-39071</v>
+        <v>-70874</v>
       </c>
       <c r="AZ85" s="15">
-        <v>-70874</v>
+        <v>-20342</v>
       </c>
       <c r="BA85" s="15">
-        <v>-20342</v>
+        <v>-20181</v>
       </c>
       <c r="BB85" s="15">
-        <v>-20181</v>
+        <v>-21258</v>
       </c>
     </row>
     <row r="86" spans="2:54" x14ac:dyDescent="0.3">
@@ -11623,35 +11623,35 @@
       <c r="X87" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y87" s="11" t="s">
-        <v>58</v>
+      <c r="Y87" s="11">
+        <v>-928</v>
       </c>
       <c r="Z87" s="11">
-        <v>-928</v>
+        <v>-1351</v>
       </c>
       <c r="AA87" s="11">
-        <v>-1351</v>
+        <v>-522</v>
       </c>
       <c r="AB87" s="11">
-        <v>-522</v>
+        <v>-396</v>
       </c>
       <c r="AC87" s="11">
-        <v>-396</v>
+        <v>-399</v>
       </c>
       <c r="AD87" s="11">
-        <v>-399</v>
+        <v>-907</v>
       </c>
       <c r="AE87" s="11">
-        <v>-907</v>
+        <v>-295</v>
       </c>
       <c r="AF87" s="11">
-        <v>-295</v>
+        <v>-819</v>
       </c>
       <c r="AG87" s="11">
-        <v>-819</v>
+        <v>-21305</v>
       </c>
       <c r="AH87" s="11">
-        <v>-21305</v>
+        <v>0</v>
       </c>
       <c r="AI87" s="11">
         <v>0</v>
@@ -11781,94 +11781,94 @@
         <v>0</v>
       </c>
       <c r="Y88" s="15">
-        <v>0</v>
+        <v>785645</v>
       </c>
       <c r="Z88" s="15">
-        <v>785645</v>
+        <v>735452</v>
       </c>
       <c r="AA88" s="15">
-        <v>735452</v>
+        <v>897204</v>
       </c>
       <c r="AB88" s="15">
-        <v>897204</v>
+        <v>752864</v>
       </c>
       <c r="AC88" s="15">
-        <v>752864</v>
+        <v>715714</v>
       </c>
       <c r="AD88" s="15">
-        <v>715714</v>
+        <v>802969</v>
       </c>
       <c r="AE88" s="15">
-        <v>802969</v>
+        <v>867024</v>
       </c>
       <c r="AF88" s="15">
-        <v>867024</v>
+        <v>1034432</v>
       </c>
       <c r="AG88" s="15">
-        <v>1034432</v>
+        <v>715745</v>
       </c>
       <c r="AH88" s="15">
-        <v>715745</v>
+        <v>601997</v>
       </c>
       <c r="AI88" s="15">
-        <v>601997</v>
+        <v>1104998</v>
       </c>
       <c r="AJ88" s="15">
-        <v>1104998</v>
+        <v>1146831</v>
       </c>
       <c r="AK88" s="15">
-        <v>1146831</v>
+        <v>1150863</v>
       </c>
       <c r="AL88" s="15">
-        <v>1150863</v>
+        <v>936978</v>
       </c>
       <c r="AM88" s="15">
-        <v>936978</v>
+        <v>1426994</v>
       </c>
       <c r="AN88" s="15">
-        <v>1426994</v>
+        <v>1285647</v>
       </c>
       <c r="AO88" s="15">
-        <v>1285647</v>
+        <v>1189205</v>
       </c>
       <c r="AP88" s="15">
-        <v>1189205</v>
+        <v>1301830</v>
       </c>
       <c r="AQ88" s="15">
-        <v>1301830</v>
+        <v>1324704</v>
       </c>
       <c r="AR88" s="15">
-        <v>1324704</v>
+        <v>1955783</v>
       </c>
       <c r="AS88" s="15">
-        <v>1955783</v>
+        <v>1114744</v>
       </c>
       <c r="AT88" s="15">
-        <v>1114744</v>
+        <v>1094786</v>
       </c>
       <c r="AU88" s="15">
-        <v>1094786</v>
+        <v>1729878</v>
       </c>
       <c r="AV88" s="15">
-        <v>1729878</v>
+        <v>1883371</v>
       </c>
       <c r="AW88" s="15">
-        <v>1883371</v>
+        <v>1982163</v>
       </c>
       <c r="AX88" s="15">
-        <v>1982163</v>
+        <v>1748907</v>
       </c>
       <c r="AY88" s="15">
-        <v>1748907</v>
+        <v>2107940</v>
       </c>
       <c r="AZ88" s="15">
-        <v>2107940</v>
+        <v>1820883</v>
       </c>
       <c r="BA88" s="15">
-        <v>1820883</v>
+        <v>2330466</v>
       </c>
       <c r="BB88" s="15">
-        <v>2330466</v>
+        <v>2455594</v>
       </c>
     </row>
     <row r="89" spans="2:54" x14ac:dyDescent="0.3">
@@ -12373,95 +12373,95 @@
       <c r="X95" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y95" s="11" t="s">
-        <v>58</v>
+      <c r="Y95" s="11">
+        <v>50709</v>
       </c>
       <c r="Z95" s="11">
-        <v>50709</v>
+        <v>53844</v>
       </c>
       <c r="AA95" s="11">
-        <v>53844</v>
+        <v>114595</v>
       </c>
       <c r="AB95" s="11">
-        <v>114595</v>
+        <v>86414</v>
       </c>
       <c r="AC95" s="11">
-        <v>86414</v>
+        <v>102119</v>
       </c>
       <c r="AD95" s="11">
-        <v>102119</v>
+        <v>109090</v>
       </c>
       <c r="AE95" s="11">
-        <v>109090</v>
+        <v>121326</v>
       </c>
       <c r="AF95" s="11">
-        <v>121326</v>
+        <v>131139</v>
       </c>
       <c r="AG95" s="11">
-        <v>131139</v>
+        <v>110306</v>
       </c>
       <c r="AH95" s="11">
-        <v>110306</v>
+        <v>133604</v>
       </c>
       <c r="AI95" s="11">
-        <v>133604</v>
+        <v>114660</v>
       </c>
       <c r="AJ95" s="11">
-        <v>114660</v>
+        <v>106081</v>
       </c>
       <c r="AK95" s="11">
-        <v>106081</v>
+        <v>116774</v>
       </c>
       <c r="AL95" s="11">
-        <v>116774</v>
+        <v>92143</v>
       </c>
       <c r="AM95" s="11">
-        <v>92143</v>
+        <v>109298</v>
       </c>
       <c r="AN95" s="11">
-        <v>109298</v>
+        <v>102030</v>
       </c>
       <c r="AO95" s="11">
-        <v>102030</v>
+        <v>89458</v>
       </c>
       <c r="AP95" s="11">
-        <v>89458</v>
+        <v>96348</v>
       </c>
       <c r="AQ95" s="11">
-        <v>96348</v>
+        <v>106843</v>
       </c>
       <c r="AR95" s="11">
-        <v>106843</v>
+        <v>106124</v>
       </c>
       <c r="AS95" s="11">
-        <v>106124</v>
+        <v>69412</v>
       </c>
       <c r="AT95" s="11">
-        <v>69412</v>
+        <v>115470</v>
       </c>
       <c r="AU95" s="11">
-        <v>115470</v>
+        <v>92918</v>
       </c>
       <c r="AV95" s="11">
-        <v>92918</v>
+        <v>98395</v>
       </c>
       <c r="AW95" s="11">
-        <v>98395</v>
+        <v>101887</v>
       </c>
       <c r="AX95" s="11">
-        <v>101887</v>
+        <v>113329</v>
       </c>
       <c r="AY95" s="11">
-        <v>113329</v>
+        <v>112588</v>
       </c>
       <c r="AZ95" s="11">
-        <v>112588</v>
+        <v>121261</v>
       </c>
       <c r="BA95" s="11">
-        <v>121261</v>
+        <v>133862</v>
       </c>
       <c r="BB95" s="11">
-        <v>133862</v>
+        <v>142532</v>
       </c>
     </row>
     <row r="96" spans="2:54" x14ac:dyDescent="0.3">
@@ -12532,95 +12532,95 @@
       <c r="X96" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y96" s="13" t="s">
-        <v>58</v>
+      <c r="Y96" s="13">
+        <v>146192</v>
       </c>
       <c r="Z96" s="13">
-        <v>146192</v>
+        <v>145637</v>
       </c>
       <c r="AA96" s="13">
-        <v>145637</v>
+        <v>244433</v>
       </c>
       <c r="AB96" s="13">
-        <v>244433</v>
+        <v>154534</v>
       </c>
       <c r="AC96" s="13">
-        <v>154534</v>
+        <v>228867</v>
       </c>
       <c r="AD96" s="13">
-        <v>228867</v>
+        <v>185730</v>
       </c>
       <c r="AE96" s="13">
-        <v>185730</v>
+        <v>180110</v>
       </c>
       <c r="AF96" s="13">
-        <v>180110</v>
+        <v>294731</v>
       </c>
       <c r="AG96" s="13">
-        <v>294731</v>
+        <v>69514</v>
       </c>
       <c r="AH96" s="13">
-        <v>69514</v>
+        <v>257522</v>
       </c>
       <c r="AI96" s="13">
-        <v>257522</v>
+        <v>208034</v>
       </c>
       <c r="AJ96" s="13">
-        <v>208034</v>
+        <v>202732</v>
       </c>
       <c r="AK96" s="13">
-        <v>202732</v>
+        <v>243231</v>
       </c>
       <c r="AL96" s="13">
-        <v>243231</v>
+        <v>217766</v>
       </c>
       <c r="AM96" s="13">
-        <v>217766</v>
+        <v>245679</v>
       </c>
       <c r="AN96" s="13">
-        <v>245679</v>
+        <v>409640</v>
       </c>
       <c r="AO96" s="13">
-        <v>409640</v>
+        <v>231844</v>
       </c>
       <c r="AP96" s="13">
-        <v>231844</v>
+        <v>298218</v>
       </c>
       <c r="AQ96" s="13">
-        <v>298218</v>
+        <v>252766</v>
       </c>
       <c r="AR96" s="13">
-        <v>252766</v>
+        <v>325268</v>
       </c>
       <c r="AS96" s="13">
-        <v>325268</v>
+        <v>182331</v>
       </c>
       <c r="AT96" s="13">
-        <v>182331</v>
+        <v>290345</v>
       </c>
       <c r="AU96" s="13">
-        <v>290345</v>
+        <v>223106</v>
       </c>
       <c r="AV96" s="13">
-        <v>223106</v>
+        <v>227011</v>
       </c>
       <c r="AW96" s="13">
-        <v>227011</v>
+        <v>248194</v>
       </c>
       <c r="AX96" s="13">
-        <v>248194</v>
+        <v>271609</v>
       </c>
       <c r="AY96" s="13">
-        <v>271609</v>
+        <v>259085</v>
       </c>
       <c r="AZ96" s="13">
-        <v>259085</v>
+        <v>301750</v>
       </c>
       <c r="BA96" s="13">
-        <v>301750</v>
+        <v>361947</v>
       </c>
       <c r="BB96" s="13">
-        <v>361947</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="97" spans="2:54" x14ac:dyDescent="0.3">
@@ -12691,95 +12691,95 @@
       <c r="X97" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y97" s="11" t="s">
-        <v>58</v>
+      <c r="Y97" s="11">
+        <v>593716</v>
       </c>
       <c r="Z97" s="11">
-        <v>593716</v>
+        <v>3155078</v>
       </c>
       <c r="AA97" s="11">
-        <v>3155078</v>
+        <v>3954149</v>
       </c>
       <c r="AB97" s="11">
-        <v>3954149</v>
+        <v>2411720</v>
       </c>
       <c r="AC97" s="11">
-        <v>2411720</v>
+        <v>2037557</v>
       </c>
       <c r="AD97" s="11">
-        <v>2037557</v>
+        <v>2624446</v>
       </c>
       <c r="AE97" s="11">
-        <v>2624446</v>
+        <v>4211971</v>
       </c>
       <c r="AF97" s="11">
-        <v>4211971</v>
+        <v>4995359</v>
       </c>
       <c r="AG97" s="11">
-        <v>4995359</v>
+        <v>15108669</v>
       </c>
       <c r="AH97" s="11">
-        <v>15108669</v>
+        <v>4257678</v>
       </c>
       <c r="AI97" s="11">
-        <v>4257678</v>
+        <v>5812568</v>
       </c>
       <c r="AJ97" s="11">
-        <v>5812568</v>
+        <v>6455268</v>
       </c>
       <c r="AK97" s="11">
-        <v>6455268</v>
+        <v>8248026</v>
       </c>
       <c r="AL97" s="11">
-        <v>8248026</v>
+        <v>5594260</v>
       </c>
       <c r="AM97" s="11">
-        <v>5594260</v>
+        <v>16582635</v>
       </c>
       <c r="AN97" s="11">
-        <v>16582635</v>
+        <v>6449232</v>
       </c>
       <c r="AO97" s="11">
-        <v>6449232</v>
+        <v>11168694</v>
       </c>
       <c r="AP97" s="11">
-        <v>11168694</v>
+        <v>11472060</v>
       </c>
       <c r="AQ97" s="11">
-        <v>11472060</v>
+        <v>17859296</v>
       </c>
       <c r="AR97" s="11">
-        <v>17859296</v>
+        <v>14980861</v>
       </c>
       <c r="AS97" s="11">
-        <v>14980861</v>
+        <v>8534820</v>
       </c>
       <c r="AT97" s="11">
-        <v>8534820</v>
+        <v>34010895</v>
       </c>
       <c r="AU97" s="11">
-        <v>34010895</v>
+        <v>9766059</v>
       </c>
       <c r="AV97" s="11">
-        <v>9766059</v>
+        <v>11597823</v>
       </c>
       <c r="AW97" s="11">
-        <v>11597823</v>
+        <v>9333491</v>
       </c>
       <c r="AX97" s="11">
-        <v>9333491</v>
+        <v>7290146</v>
       </c>
       <c r="AY97" s="11">
-        <v>7290146</v>
+        <v>11812361</v>
       </c>
       <c r="AZ97" s="11">
-        <v>11812361</v>
+        <v>8501701</v>
       </c>
       <c r="BA97" s="11">
-        <v>8501701</v>
+        <v>11865318</v>
       </c>
       <c r="BB97" s="11">
-        <v>11865318</v>
+        <v>12143829</v>
       </c>
     </row>
     <row r="98" spans="2:54" x14ac:dyDescent="0.3">
@@ -12907,15 +12907,15 @@
       <c r="X99" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y99" s="11" t="s">
-        <v>58</v>
+      <c r="Y99" s="11">
+        <v>54795</v>
       </c>
       <c r="Z99" s="11">
-        <v>54795</v>
-      </c>
-      <c r="AA99" s="11">
         <v>33185</v>
       </c>
+      <c r="AA99" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AB99" s="11" t="s">
         <v>58</v>
       </c>
@@ -12946,24 +12946,24 @@
       <c r="AK99" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL99" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM99" s="11">
+      <c r="AL99" s="11">
         <v>60379</v>
       </c>
+      <c r="AM99" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AN99" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AO99" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP99" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ99" s="11">
+      <c r="AP99" s="11">
         <v>41776</v>
       </c>
+      <c r="AQ99" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AR99" s="11" t="s">
         <v>58</v>
       </c>
@@ -12982,11 +12982,11 @@
       <c r="AW99" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX99" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY99" s="11">
+      <c r="AX99" s="11">
         <v>69478</v>
+      </c>
+      <c r="AY99" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AZ99" s="11" t="s">
         <v>58</v>
@@ -13066,18 +13066,18 @@
       <c r="X100" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y100" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z100" s="13">
+      <c r="Y100" s="13">
         <v>175743</v>
       </c>
-      <c r="AA100" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB100" s="13">
+      <c r="Z100" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA100" s="13">
         <v>139200</v>
       </c>
+      <c r="AB100" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AC100" s="13" t="s">
         <v>58</v>
       </c>
@@ -13087,12 +13087,12 @@
       <c r="AE100" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF100" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG100" s="13">
+      <c r="AF100" s="13">
         <v>66667</v>
       </c>
+      <c r="AG100" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AH100" s="13" t="s">
         <v>58</v>
       </c>
@@ -13132,20 +13132,20 @@
       <c r="AT100" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU100" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV100" s="13">
+      <c r="AU100" s="13">
         <v>292259</v>
       </c>
-      <c r="AW100" s="13" t="s">
-        <v>58</v>
+      <c r="AV100" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW100" s="13">
+        <v>270622</v>
       </c>
       <c r="AX100" s="13">
-        <v>270622</v>
-      </c>
-      <c r="AY100" s="13">
         <v>17762</v>
+      </c>
+      <c r="AY100" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AZ100" s="13" t="s">
         <v>58</v>
@@ -13225,21 +13225,21 @@
       <c r="X101" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y101" s="11" t="s">
-        <v>58</v>
+      <c r="Y101" s="11">
+        <v>25365618</v>
       </c>
       <c r="Z101" s="11">
-        <v>25365618</v>
+        <v>1516646</v>
       </c>
       <c r="AA101" s="11">
-        <v>1516646</v>
+        <v>1721203</v>
       </c>
       <c r="AB101" s="11">
-        <v>1721203</v>
-      </c>
-      <c r="AC101" s="11">
         <v>1105556</v>
       </c>
+      <c r="AC101" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AD101" s="11" t="s">
         <v>58</v>
       </c>
@@ -13255,18 +13255,18 @@
       <c r="AH101" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI101" s="11" t="s">
-        <v>58</v>
+      <c r="AI101" s="11">
+        <v>1420338</v>
       </c>
       <c r="AJ101" s="11">
-        <v>1420338</v>
+        <v>36995496</v>
       </c>
       <c r="AK101" s="11">
-        <v>36995496</v>
-      </c>
-      <c r="AL101" s="11">
         <v>15230769</v>
       </c>
+      <c r="AL101" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AM101" s="11" t="s">
         <v>58</v>
       </c>
@@ -13282,29 +13282,29 @@
       <c r="AQ101" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR101" s="11" t="s">
-        <v>58</v>
+      <c r="AR101" s="11">
+        <v>21166154</v>
       </c>
       <c r="AS101" s="11">
-        <v>21166154</v>
-      </c>
-      <c r="AT101" s="11">
         <v>4170965</v>
       </c>
-      <c r="AU101" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV101" s="11">
+      <c r="AT101" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU101" s="11">
         <v>73378882</v>
       </c>
-      <c r="AW101" s="11" t="s">
-        <v>58</v>
+      <c r="AV101" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW101" s="11">
+        <v>2153846</v>
       </c>
       <c r="AX101" s="11">
-        <v>2153846</v>
-      </c>
-      <c r="AY101" s="11">
         <v>2795097</v>
+      </c>
+      <c r="AY101" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AZ101" s="11" t="s">
         <v>58</v>
@@ -13441,35 +13441,35 @@
       <c r="X103" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y103" s="11" t="s">
-        <v>58</v>
+      <c r="Y103" s="11">
+        <v>26663</v>
       </c>
       <c r="Z103" s="11">
-        <v>26663</v>
+        <v>36328</v>
       </c>
       <c r="AA103" s="11">
-        <v>36328</v>
+        <v>35307</v>
       </c>
       <c r="AB103" s="11">
-        <v>35307</v>
+        <v>36300</v>
       </c>
       <c r="AC103" s="11">
+        <v>36352</v>
+      </c>
+      <c r="AD103" s="11">
         <v>36300</v>
       </c>
-      <c r="AD103" s="11">
-        <v>36352</v>
-      </c>
       <c r="AE103" s="11">
+        <v>36380</v>
+      </c>
+      <c r="AF103" s="11">
+        <v>36417</v>
+      </c>
+      <c r="AG103" s="11">
         <v>36300</v>
       </c>
-      <c r="AF103" s="11">
-        <v>36380</v>
-      </c>
-      <c r="AG103" s="11">
-        <v>36417</v>
-      </c>
-      <c r="AH103" s="11">
-        <v>36300</v>
+      <c r="AH103" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI103" s="11" t="s">
         <v>58</v>
@@ -13501,35 +13501,35 @@
       <c r="AR103" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS103" s="11" t="s">
-        <v>58</v>
+      <c r="AS103" s="11">
+        <v>63846</v>
       </c>
       <c r="AT103" s="11">
-        <v>63846</v>
+        <v>0</v>
       </c>
       <c r="AU103" s="11">
-        <v>0</v>
+        <v>74353</v>
       </c>
       <c r="AV103" s="11">
-        <v>74353</v>
+        <v>80016</v>
       </c>
       <c r="AW103" s="11">
-        <v>80016</v>
+        <v>75456</v>
       </c>
       <c r="AX103" s="11">
-        <v>75456</v>
+        <v>78449</v>
       </c>
       <c r="AY103" s="11">
-        <v>78449</v>
+        <v>82413</v>
       </c>
       <c r="AZ103" s="11">
-        <v>82413</v>
+        <v>79999</v>
       </c>
       <c r="BA103" s="11">
-        <v>79999</v>
+        <v>80084</v>
       </c>
       <c r="BB103" s="11">
-        <v>80084</v>
+        <v>85455</v>
       </c>
     </row>
     <row r="104" spans="2:54" x14ac:dyDescent="0.3">
@@ -13600,36 +13600,36 @@
       <c r="X104" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y104" s="13" t="s">
-        <v>58</v>
+      <c r="Y104" s="13">
+        <v>0</v>
       </c>
       <c r="Z104" s="13">
-        <v>0</v>
+        <v>66246</v>
       </c>
       <c r="AA104" s="13">
-        <v>66246</v>
+        <v>43233</v>
       </c>
       <c r="AB104" s="13">
-        <v>43233</v>
+        <v>43067</v>
       </c>
       <c r="AC104" s="13">
-        <v>43067</v>
+        <v>0</v>
       </c>
       <c r="AD104" s="13">
-        <v>0</v>
+        <v>100050</v>
       </c>
       <c r="AE104" s="13">
-        <v>100050</v>
+        <v>94996</v>
       </c>
       <c r="AF104" s="13">
-        <v>94996</v>
+        <v>0</v>
       </c>
       <c r="AG104" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH104" s="13">
         <v>1000000</v>
       </c>
+      <c r="AH104" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AI104" s="13" t="s">
         <v>58</v>
       </c>
@@ -13660,11 +13660,11 @@
       <c r="AR104" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS104" s="13" t="s">
-        <v>58</v>
+      <c r="AS104" s="13">
+        <v>109658</v>
       </c>
       <c r="AT104" s="13">
-        <v>109658</v>
+        <v>0</v>
       </c>
       <c r="AU104" s="13">
         <v>0</v>
@@ -13759,8 +13759,8 @@
       <c r="X105" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y105" s="11" t="s">
-        <v>58</v>
+      <c r="Y105" s="11">
+        <v>0</v>
       </c>
       <c r="Z105" s="11">
         <v>0</v>
@@ -13772,64 +13772,64 @@
         <v>0</v>
       </c>
       <c r="AC105" s="11">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="AD105" s="11">
+        <v>3250284</v>
+      </c>
+      <c r="AE105" s="11">
+        <v>2998994</v>
+      </c>
+      <c r="AF105" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG105" s="11">
+        <v>469053</v>
+      </c>
+      <c r="AH105" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI105" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ105" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK105" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL105" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM105" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN105" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO105" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP105" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ105" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR105" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS105" s="11">
         <v>3000000</v>
       </c>
-      <c r="AE105" s="11">
-        <v>3250284</v>
-      </c>
-      <c r="AF105" s="11">
-        <v>2998994</v>
-      </c>
-      <c r="AG105" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH105" s="11">
-        <v>469053</v>
-      </c>
-      <c r="AI105" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ105" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK105" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL105" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM105" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN105" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO105" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP105" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ105" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR105" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS105" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="AT105" s="11">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="AU105" s="11">
-        <v>0</v>
+        <v>9995365</v>
       </c>
       <c r="AV105" s="11">
-        <v>9995365</v>
+        <v>0</v>
       </c>
       <c r="AW105" s="11">
         <v>0</v>
@@ -13844,10 +13844,10 @@
         <v>0</v>
       </c>
       <c r="BA105" s="11">
-        <v>0</v>
+        <v>3185047</v>
       </c>
       <c r="BB105" s="11">
-        <v>3185047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="2:54" x14ac:dyDescent="0.3">
@@ -13945,41 +13945,41 @@
       <c r="AG106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH106" s="13" t="s">
-        <v>58</v>
+      <c r="AH106" s="13">
+        <v>28999</v>
       </c>
       <c r="AI106" s="13">
-        <v>28999</v>
+        <v>0</v>
       </c>
       <c r="AJ106" s="13">
-        <v>0</v>
+        <v>69999</v>
       </c>
       <c r="AK106" s="13">
+        <v>70000</v>
+      </c>
+      <c r="AL106" s="13">
         <v>69999</v>
       </c>
-      <c r="AL106" s="13">
-        <v>70000</v>
-      </c>
       <c r="AM106" s="13">
+        <v>66033</v>
+      </c>
+      <c r="AN106" s="13">
         <v>69999</v>
       </c>
-      <c r="AN106" s="13">
-        <v>66033</v>
-      </c>
       <c r="AO106" s="13">
-        <v>69999</v>
+        <v>67815</v>
       </c>
       <c r="AP106" s="13">
-        <v>67815</v>
+        <v>69408</v>
       </c>
       <c r="AQ106" s="13">
-        <v>69408</v>
+        <v>64591</v>
       </c>
       <c r="AR106" s="13">
-        <v>64591</v>
-      </c>
-      <c r="AS106" s="13">
         <v>67147</v>
+      </c>
+      <c r="AS106" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT106" s="13" t="s">
         <v>58</v>
@@ -14104,11 +14104,11 @@
       <c r="AG107" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH107" s="11" t="s">
-        <v>58</v>
+      <c r="AH107" s="11">
+        <v>4018557</v>
       </c>
       <c r="AI107" s="11">
-        <v>4018557</v>
+        <v>0</v>
       </c>
       <c r="AJ107" s="11">
         <v>0</v>
@@ -14120,25 +14120,25 @@
         <v>0</v>
       </c>
       <c r="AM107" s="11">
-        <v>0</v>
+        <v>10014493</v>
       </c>
       <c r="AN107" s="11">
-        <v>10014493</v>
+        <v>0</v>
       </c>
       <c r="AO107" s="11">
-        <v>0</v>
+        <v>4222222</v>
       </c>
       <c r="AP107" s="11">
-        <v>4222222</v>
+        <v>0</v>
       </c>
       <c r="AQ107" s="11">
         <v>0</v>
       </c>
       <c r="AR107" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS107" s="11">
         <v>17980583</v>
+      </c>
+      <c r="AS107" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT107" s="11" t="s">
         <v>58</v>
@@ -14263,41 +14263,41 @@
       <c r="AG108" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH108" s="13" t="s">
-        <v>58</v>
+      <c r="AH108" s="13">
+        <v>0</v>
       </c>
       <c r="AI108" s="13">
-        <v>0</v>
+        <v>43239</v>
       </c>
       <c r="AJ108" s="13">
-        <v>43239</v>
+        <v>20229</v>
       </c>
       <c r="AK108" s="13">
-        <v>20229</v>
+        <v>43236</v>
       </c>
       <c r="AL108" s="13">
-        <v>43236</v>
+        <v>113439</v>
       </c>
       <c r="AM108" s="13">
-        <v>113439</v>
+        <v>108002</v>
       </c>
       <c r="AN108" s="13">
-        <v>108002</v>
+        <v>108000</v>
       </c>
       <c r="AO108" s="13">
+        <v>118905</v>
+      </c>
+      <c r="AP108" s="13">
+        <v>67613</v>
+      </c>
+      <c r="AQ108" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR108" s="13">
         <v>108000</v>
       </c>
-      <c r="AP108" s="13">
-        <v>118905</v>
-      </c>
-      <c r="AQ108" s="13">
-        <v>67613</v>
-      </c>
-      <c r="AR108" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS108" s="13">
-        <v>108000</v>
+      <c r="AS108" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT108" s="13" t="s">
         <v>58</v>

--- a/database/industries/darou/dalber/product/monthly_seprated.xlsx
+++ b/database/industries/darou/dalber/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\dalber\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dalber\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5A8137-9351-46E8-B99A-6AFC5FF3E755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794218C7-C373-4623-AE70-90878C6452A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="96">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>دالبر-البرزدارو</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -784,12 +784,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -844,7 +844,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -901,7 +901,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -958,7 +958,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1013,7 +1013,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1070,7 +1070,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1127,7 +1127,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1182,7 +1182,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1394,7 +1394,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1451,7 +1451,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1513,104 +1513,104 @@
       <c r="V11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X11" s="11" t="s">
-        <v>58</v>
+      <c r="W11" s="11">
+        <v>2724136</v>
+      </c>
+      <c r="X11" s="11">
+        <v>3637225</v>
       </c>
       <c r="Y11" s="11">
-        <v>2724136</v>
+        <v>1576227</v>
       </c>
       <c r="Z11" s="11">
-        <v>3637225</v>
+        <v>2504023</v>
       </c>
       <c r="AA11" s="11">
-        <v>1576227</v>
+        <v>2186186</v>
       </c>
       <c r="AB11" s="11">
-        <v>2504023</v>
+        <v>2374428</v>
       </c>
       <c r="AC11" s="11">
-        <v>2186186</v>
+        <v>2572055</v>
       </c>
       <c r="AD11" s="11">
-        <v>2374428</v>
+        <v>1551501</v>
       </c>
       <c r="AE11" s="11">
-        <v>2572055</v>
+        <v>1001884</v>
       </c>
       <c r="AF11" s="11">
-        <v>1551501</v>
+        <v>965918</v>
       </c>
       <c r="AG11" s="11">
-        <v>1001884</v>
+        <v>1961286</v>
       </c>
       <c r="AH11" s="11">
-        <v>965918</v>
+        <v>2056064</v>
       </c>
       <c r="AI11" s="11">
-        <v>1961286</v>
+        <v>1613898</v>
       </c>
       <c r="AJ11" s="11">
-        <v>2056064</v>
+        <v>890148</v>
       </c>
       <c r="AK11" s="11">
-        <v>1613898</v>
+        <v>1674332</v>
       </c>
       <c r="AL11" s="11">
-        <v>890148</v>
+        <v>943633</v>
       </c>
       <c r="AM11" s="11">
-        <v>1674332</v>
+        <v>1143680</v>
       </c>
       <c r="AN11" s="11">
-        <v>943633</v>
+        <v>119962</v>
       </c>
       <c r="AO11" s="11">
-        <v>1143680</v>
+        <v>1686323</v>
       </c>
       <c r="AP11" s="11">
-        <v>119962</v>
+        <v>1338892</v>
       </c>
       <c r="AQ11" s="11">
-        <v>1686323</v>
+        <v>1481458</v>
       </c>
       <c r="AR11" s="11">
-        <v>1338892</v>
+        <v>1187343</v>
       </c>
       <c r="AS11" s="11">
-        <v>1481458</v>
+        <v>2144224</v>
       </c>
       <c r="AT11" s="11">
-        <v>1187343</v>
+        <v>3477751</v>
       </c>
       <c r="AU11" s="11">
-        <v>2144224</v>
+        <v>2899351</v>
       </c>
       <c r="AV11" s="11">
-        <v>3477751</v>
+        <v>1831568</v>
       </c>
       <c r="AW11" s="11">
-        <v>2899351</v>
+        <v>3024731</v>
       </c>
       <c r="AX11" s="11">
-        <v>1831568</v>
+        <v>3211847</v>
       </c>
       <c r="AY11" s="11">
-        <v>3024731</v>
+        <v>3178619</v>
       </c>
       <c r="AZ11" s="11">
-        <v>3211847</v>
+        <v>3599971</v>
       </c>
       <c r="BA11" s="11">
-        <v>3178619</v>
+        <v>3450946</v>
       </c>
       <c r="BB11" s="11">
-        <v>3599971</v>
+        <v>3681600</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1672,104 +1672,104 @@
       <c r="V12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X12" s="13" t="s">
-        <v>58</v>
+      <c r="W12" s="13">
+        <v>2705323</v>
+      </c>
+      <c r="X12" s="13">
+        <v>2318675</v>
       </c>
       <c r="Y12" s="13">
-        <v>2705323</v>
+        <v>2061685</v>
       </c>
       <c r="Z12" s="13">
-        <v>2318675</v>
+        <v>2664834</v>
       </c>
       <c r="AA12" s="13">
-        <v>2061685</v>
+        <v>2678537</v>
       </c>
       <c r="AB12" s="13">
-        <v>2664834</v>
+        <v>2518350</v>
       </c>
       <c r="AC12" s="13">
-        <v>2678537</v>
+        <v>2676027</v>
       </c>
       <c r="AD12" s="13">
-        <v>2518350</v>
+        <v>2461107</v>
       </c>
       <c r="AE12" s="13">
-        <v>2676027</v>
+        <v>1258718</v>
       </c>
       <c r="AF12" s="13">
-        <v>2461107</v>
+        <v>876955</v>
       </c>
       <c r="AG12" s="13">
-        <v>1258718</v>
+        <v>1585868</v>
       </c>
       <c r="AH12" s="13">
-        <v>876955</v>
+        <v>2116939</v>
       </c>
       <c r="AI12" s="13">
-        <v>1585868</v>
+        <v>2212439</v>
       </c>
       <c r="AJ12" s="13">
-        <v>2116939</v>
+        <v>1275706</v>
       </c>
       <c r="AK12" s="13">
-        <v>2212439</v>
+        <v>1764142</v>
       </c>
       <c r="AL12" s="13">
-        <v>1275706</v>
+        <v>1700470</v>
       </c>
       <c r="AM12" s="13">
-        <v>1764142</v>
+        <v>1489602</v>
       </c>
       <c r="AN12" s="13">
-        <v>1700470</v>
+        <v>1740487</v>
       </c>
       <c r="AO12" s="13">
-        <v>1489602</v>
+        <v>1512768</v>
       </c>
       <c r="AP12" s="13">
-        <v>1740487</v>
+        <v>1356131</v>
       </c>
       <c r="AQ12" s="13">
-        <v>1512768</v>
+        <v>1298478</v>
       </c>
       <c r="AR12" s="13">
-        <v>1356131</v>
+        <v>793152</v>
       </c>
       <c r="AS12" s="13">
-        <v>1298478</v>
+        <v>1427394</v>
       </c>
       <c r="AT12" s="13">
-        <v>793152</v>
+        <v>1705308</v>
       </c>
       <c r="AU12" s="13">
-        <v>1427394</v>
+        <v>1542003</v>
       </c>
       <c r="AV12" s="13">
-        <v>1705308</v>
+        <v>1323944</v>
       </c>
       <c r="AW12" s="13">
-        <v>1542003</v>
+        <v>2501790</v>
       </c>
       <c r="AX12" s="13">
-        <v>1323944</v>
+        <v>2336111</v>
       </c>
       <c r="AY12" s="13">
-        <v>2501790</v>
+        <v>2245369</v>
       </c>
       <c r="AZ12" s="13">
-        <v>2336111</v>
+        <v>2074124</v>
       </c>
       <c r="BA12" s="13">
-        <v>2245369</v>
+        <v>2118880</v>
       </c>
       <c r="BB12" s="13">
-        <v>2074124</v>
+        <v>2290262</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>61</v>
       </c>
@@ -1831,104 +1831,104 @@
       <c r="V13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X13" s="11" t="s">
-        <v>58</v>
+      <c r="W13" s="11">
+        <v>53044</v>
+      </c>
+      <c r="X13" s="11">
+        <v>68593</v>
       </c>
       <c r="Y13" s="11">
-        <v>53044</v>
+        <v>35169</v>
       </c>
       <c r="Z13" s="11">
-        <v>68593</v>
+        <v>49953</v>
       </c>
       <c r="AA13" s="11">
-        <v>35169</v>
+        <v>57876</v>
       </c>
       <c r="AB13" s="11">
-        <v>49953</v>
+        <v>85960</v>
       </c>
       <c r="AC13" s="11">
-        <v>57876</v>
+        <v>94113</v>
       </c>
       <c r="AD13" s="11">
-        <v>85960</v>
+        <v>81200</v>
       </c>
       <c r="AE13" s="11">
-        <v>94113</v>
+        <v>49207</v>
       </c>
       <c r="AF13" s="11">
-        <v>81200</v>
+        <v>57021</v>
       </c>
       <c r="AG13" s="11">
-        <v>49207</v>
+        <v>65861</v>
       </c>
       <c r="AH13" s="11">
-        <v>57021</v>
+        <v>73914</v>
       </c>
       <c r="AI13" s="11">
-        <v>65861</v>
+        <v>72369</v>
       </c>
       <c r="AJ13" s="11">
-        <v>73914</v>
+        <v>61491</v>
       </c>
       <c r="AK13" s="11">
-        <v>72369</v>
+        <v>82913</v>
       </c>
       <c r="AL13" s="11">
-        <v>61491</v>
+        <v>90823</v>
       </c>
       <c r="AM13" s="11">
-        <v>82913</v>
+        <v>62981</v>
       </c>
       <c r="AN13" s="11">
-        <v>90823</v>
+        <v>81924</v>
       </c>
       <c r="AO13" s="11">
-        <v>62981</v>
+        <v>81821</v>
       </c>
       <c r="AP13" s="11">
-        <v>81924</v>
+        <v>73879</v>
       </c>
       <c r="AQ13" s="11">
-        <v>81821</v>
+        <v>13833</v>
       </c>
       <c r="AR13" s="11">
-        <v>73879</v>
+        <v>18572</v>
       </c>
       <c r="AS13" s="11">
-        <v>13833</v>
+        <v>77721</v>
       </c>
       <c r="AT13" s="11">
-        <v>18572</v>
+        <v>84370</v>
       </c>
       <c r="AU13" s="11">
-        <v>77721</v>
+        <v>89555</v>
       </c>
       <c r="AV13" s="11">
-        <v>84370</v>
+        <v>73249</v>
       </c>
       <c r="AW13" s="11">
-        <v>89555</v>
+        <v>95513</v>
       </c>
       <c r="AX13" s="11">
-        <v>73249</v>
+        <v>90553</v>
       </c>
       <c r="AY13" s="11">
-        <v>95513</v>
+        <v>98611</v>
       </c>
       <c r="AZ13" s="11">
-        <v>90553</v>
+        <v>88745</v>
       </c>
       <c r="BA13" s="11">
-        <v>98611</v>
+        <v>96706</v>
       </c>
       <c r="BB13" s="11">
-        <v>88745</v>
+        <v>85205</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>62</v>
       </c>
@@ -1989,103 +1989,103 @@
         <v>0</v>
       </c>
       <c r="W14" s="15">
-        <v>0</v>
+        <v>5482503</v>
       </c>
       <c r="X14" s="15">
-        <v>0</v>
+        <v>6024493</v>
       </c>
       <c r="Y14" s="15">
-        <v>5482503</v>
+        <v>3673081</v>
       </c>
       <c r="Z14" s="15">
-        <v>6024493</v>
+        <v>5218810</v>
       </c>
       <c r="AA14" s="15">
-        <v>3673081</v>
+        <v>4922599</v>
       </c>
       <c r="AB14" s="15">
-        <v>5218810</v>
+        <v>4978738</v>
       </c>
       <c r="AC14" s="15">
-        <v>4922599</v>
+        <v>5342195</v>
       </c>
       <c r="AD14" s="15">
-        <v>4978738</v>
+        <v>4093808</v>
       </c>
       <c r="AE14" s="15">
-        <v>5342195</v>
+        <v>2309809</v>
       </c>
       <c r="AF14" s="15">
-        <v>4093808</v>
+        <v>1899894</v>
       </c>
       <c r="AG14" s="15">
-        <v>2309809</v>
+        <v>3613015</v>
       </c>
       <c r="AH14" s="15">
-        <v>1899894</v>
+        <v>4246917</v>
       </c>
       <c r="AI14" s="15">
-        <v>3613015</v>
+        <v>3898706</v>
       </c>
       <c r="AJ14" s="15">
-        <v>4246917</v>
+        <v>2227345</v>
       </c>
       <c r="AK14" s="15">
-        <v>3898706</v>
+        <v>3521387</v>
       </c>
       <c r="AL14" s="15">
-        <v>2227345</v>
+        <v>2734926</v>
       </c>
       <c r="AM14" s="15">
-        <v>3521387</v>
+        <v>2696263</v>
       </c>
       <c r="AN14" s="15">
-        <v>2734926</v>
+        <v>1942373</v>
       </c>
       <c r="AO14" s="15">
-        <v>2696263</v>
+        <v>3280912</v>
       </c>
       <c r="AP14" s="15">
-        <v>1942373</v>
+        <v>2768902</v>
       </c>
       <c r="AQ14" s="15">
-        <v>3280912</v>
+        <v>2793769</v>
       </c>
       <c r="AR14" s="15">
-        <v>2768902</v>
+        <v>1999067</v>
       </c>
       <c r="AS14" s="15">
-        <v>2793769</v>
+        <v>3649339</v>
       </c>
       <c r="AT14" s="15">
-        <v>1999067</v>
+        <v>5267429</v>
       </c>
       <c r="AU14" s="15">
-        <v>3649339</v>
+        <v>4530909</v>
       </c>
       <c r="AV14" s="15">
-        <v>5267429</v>
+        <v>3228761</v>
       </c>
       <c r="AW14" s="15">
-        <v>4530909</v>
+        <v>5622034</v>
       </c>
       <c r="AX14" s="15">
-        <v>3228761</v>
+        <v>5638511</v>
       </c>
       <c r="AY14" s="15">
-        <v>5622034</v>
+        <v>5522599</v>
       </c>
       <c r="AZ14" s="15">
-        <v>5638511</v>
+        <v>5762840</v>
       </c>
       <c r="BA14" s="15">
-        <v>5522599</v>
+        <v>5666532</v>
       </c>
       <c r="BB14" s="15">
-        <v>5762840</v>
+        <v>6057067</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>63</v>
       </c>
@@ -2142,7 +2142,7 @@
       <c r="BA15" s="9"/>
       <c r="BB15" s="9"/>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>56</v>
       </c>
@@ -2204,17 +2204,17 @@
       <c r="V16" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W16" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X16" s="11" t="s">
-        <v>58</v>
+      <c r="W16" s="11">
+        <v>146</v>
+      </c>
+      <c r="X16" s="11">
+        <v>69369</v>
       </c>
       <c r="Y16" s="11">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="11">
-        <v>69369</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="11">
         <v>0</v>
@@ -2234,41 +2234,41 @@
       <c r="AF16" s="11">
         <v>0</v>
       </c>
-      <c r="AG16" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="11">
-        <v>0</v>
+      <c r="AG16" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH16" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI16" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ16" s="11" t="s">
-        <v>58</v>
+      <c r="AJ16" s="11">
+        <v>61164</v>
       </c>
       <c r="AK16" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL16" s="11">
-        <v>61164</v>
+      <c r="AL16" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AM16" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN16" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO16" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP16" s="11">
+      <c r="AN16" s="11">
         <v>150040</v>
       </c>
+      <c r="AO16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ16" s="11">
         <v>0</v>
       </c>
-      <c r="AR16" s="11" t="s">
-        <v>58</v>
+      <c r="AR16" s="11">
+        <v>0</v>
       </c>
       <c r="AS16" s="11">
         <v>0</v>
@@ -2280,13 +2280,13 @@
         <v>0</v>
       </c>
       <c r="AV16" s="11">
-        <v>0</v>
+        <v>148853</v>
       </c>
       <c r="AW16" s="11">
         <v>0</v>
       </c>
       <c r="AX16" s="11">
-        <v>148853</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="11">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
         <v>59</v>
       </c>
@@ -2363,20 +2363,20 @@
       <c r="V17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X17" s="13" t="s">
-        <v>58</v>
+      <c r="W17" s="13">
+        <v>404</v>
+      </c>
+      <c r="X17" s="13">
+        <v>0</v>
       </c>
       <c r="Y17" s="13">
-        <v>404</v>
+        <v>30000</v>
       </c>
       <c r="Z17" s="13">
         <v>0</v>
       </c>
       <c r="AA17" s="13">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="13">
         <v>0</v>
@@ -2385,19 +2385,19 @@
         <v>0</v>
       </c>
       <c r="AD17" s="13">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="AE17" s="13">
         <v>0</v>
       </c>
       <c r="AF17" s="13">
-        <v>15000</v>
-      </c>
-      <c r="AG17" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH17" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI17" s="13" t="s">
         <v>58</v>
@@ -2417,8 +2417,8 @@
       <c r="AN17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO17" s="13" t="s">
-        <v>58</v>
+      <c r="AO17" s="13">
+        <v>0</v>
       </c>
       <c r="AP17" s="13" t="s">
         <v>58</v>
@@ -2426,23 +2426,23 @@
       <c r="AQ17" s="13">
         <v>0</v>
       </c>
-      <c r="AR17" s="13" t="s">
-        <v>58</v>
+      <c r="AR17" s="13">
+        <v>0</v>
       </c>
       <c r="AS17" s="13">
-        <v>0</v>
+        <v>1266</v>
       </c>
       <c r="AT17" s="13">
         <v>0</v>
       </c>
       <c r="AU17" s="13">
-        <v>1266</v>
+        <v>1382</v>
       </c>
       <c r="AV17" s="13">
         <v>0</v>
       </c>
       <c r="AW17" s="13">
-        <v>1382</v>
+        <v>0</v>
       </c>
       <c r="AX17" s="13">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>61</v>
       </c>
@@ -2522,23 +2522,23 @@
       <c r="V18" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X18" s="11" t="s">
-        <v>58</v>
+      <c r="W18" s="11">
+        <v>3624</v>
+      </c>
+      <c r="X18" s="11">
+        <v>3245</v>
       </c>
       <c r="Y18" s="11">
-        <v>3624</v>
+        <v>8343</v>
       </c>
       <c r="Z18" s="11">
-        <v>3245</v>
+        <v>17100</v>
       </c>
       <c r="AA18" s="11">
-        <v>8343</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="11">
-        <v>17100</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="11">
         <v>0</v>
@@ -2550,22 +2550,22 @@
         <v>0</v>
       </c>
       <c r="AF18" s="11">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG18" s="11">
-        <v>0</v>
+        <v>4777</v>
       </c>
       <c r="AH18" s="11">
-        <v>12</v>
+        <v>666</v>
       </c>
       <c r="AI18" s="11">
-        <v>4777</v>
-      </c>
-      <c r="AJ18" s="11">
-        <v>666</v>
-      </c>
-      <c r="AK18" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK18" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AL18" s="11" t="s">
         <v>58</v>
@@ -2576,35 +2576,35 @@
       <c r="AN18" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP18" s="11" t="s">
-        <v>58</v>
+      <c r="AO18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="11">
+        <v>1300</v>
       </c>
       <c r="AQ18" s="11">
-        <v>0</v>
+        <v>51158</v>
       </c>
       <c r="AR18" s="11">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="AS18" s="11">
-        <v>51158</v>
+        <v>805</v>
       </c>
       <c r="AT18" s="11">
         <v>0</v>
       </c>
       <c r="AU18" s="11">
-        <v>805</v>
+        <v>39</v>
       </c>
       <c r="AV18" s="11">
-        <v>0</v>
+        <v>13870</v>
       </c>
       <c r="AW18" s="11">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="AX18" s="11">
-        <v>13870</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="11">
         <v>0</v>
@@ -2616,10 +2616,10 @@
         <v>0</v>
       </c>
       <c r="BB18" s="11">
-        <v>0</v>
+        <v>3085</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>64</v>
       </c>
@@ -2680,88 +2680,88 @@
         <v>0</v>
       </c>
       <c r="W19" s="15">
-        <v>0</v>
+        <v>4174</v>
       </c>
       <c r="X19" s="15">
-        <v>0</v>
+        <v>72614</v>
       </c>
       <c r="Y19" s="15">
-        <v>4174</v>
+        <v>38343</v>
       </c>
       <c r="Z19" s="15">
-        <v>72614</v>
+        <v>17100</v>
       </c>
       <c r="AA19" s="15">
-        <v>38343</v>
+        <v>0</v>
       </c>
       <c r="AB19" s="15">
-        <v>17100</v>
+        <v>0</v>
       </c>
       <c r="AC19" s="15">
         <v>0</v>
       </c>
       <c r="AD19" s="15">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="AE19" s="15">
         <v>0</v>
       </c>
       <c r="AF19" s="15">
-        <v>15000</v>
+        <v>12</v>
       </c>
       <c r="AG19" s="15">
-        <v>0</v>
+        <v>4777</v>
       </c>
       <c r="AH19" s="15">
-        <v>12</v>
+        <v>666</v>
       </c>
       <c r="AI19" s="15">
-        <v>4777</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="15">
-        <v>666</v>
+        <v>61164</v>
       </c>
       <c r="AK19" s="15">
         <v>0</v>
       </c>
       <c r="AL19" s="15">
-        <v>61164</v>
+        <v>0</v>
       </c>
       <c r="AM19" s="15">
         <v>0</v>
       </c>
       <c r="AN19" s="15">
-        <v>0</v>
+        <v>150040</v>
       </c>
       <c r="AO19" s="15">
         <v>0</v>
       </c>
       <c r="AP19" s="15">
-        <v>150040</v>
+        <v>1300</v>
       </c>
       <c r="AQ19" s="15">
-        <v>0</v>
+        <v>51158</v>
       </c>
       <c r="AR19" s="15">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="AS19" s="15">
-        <v>51158</v>
+        <v>2071</v>
       </c>
       <c r="AT19" s="15">
         <v>0</v>
       </c>
       <c r="AU19" s="15">
-        <v>2071</v>
+        <v>1421</v>
       </c>
       <c r="AV19" s="15">
-        <v>0</v>
+        <v>162723</v>
       </c>
       <c r="AW19" s="15">
-        <v>1421</v>
+        <v>0</v>
       </c>
       <c r="AX19" s="15">
-        <v>162723</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="15">
         <v>0</v>
@@ -2773,10 +2773,10 @@
         <v>0</v>
       </c>
       <c r="BB19" s="15">
-        <v>0</v>
+        <v>3085</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>65</v>
       </c>
@@ -2833,7 +2833,7 @@
       <c r="BA20" s="9"/>
       <c r="BB20" s="9"/>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>56</v>
       </c>
@@ -2895,39 +2895,39 @@
       <c r="V21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W21" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X21" s="11" t="s">
-        <v>58</v>
+      <c r="W21" s="11">
+        <v>913045</v>
+      </c>
+      <c r="X21" s="11">
+        <v>917396</v>
       </c>
       <c r="Y21" s="11">
-        <v>913045</v>
+        <v>968659</v>
       </c>
       <c r="Z21" s="11">
-        <v>917396</v>
+        <v>1485844</v>
       </c>
       <c r="AA21" s="11">
-        <v>968659</v>
+        <v>1416086</v>
       </c>
       <c r="AB21" s="11">
-        <v>1485844</v>
+        <v>1427246</v>
       </c>
       <c r="AC21" s="11">
-        <v>1416086</v>
+        <v>872498</v>
       </c>
       <c r="AD21" s="11">
-        <v>1427246</v>
+        <v>1347572</v>
       </c>
       <c r="AE21" s="11">
-        <v>872498</v>
-      </c>
-      <c r="AF21" s="11">
-        <v>1347572</v>
-      </c>
-      <c r="AG21" s="11">
         <v>961917</v>
       </c>
+      <c r="AF21" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG21" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH21" s="11" t="s">
         <v>58</v>
       </c>
@@ -2955,44 +2955,44 @@
       <c r="AP21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ21" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR21" s="11" t="s">
-        <v>58</v>
+      <c r="AQ21" s="11">
+        <v>936323</v>
+      </c>
+      <c r="AR21" s="11">
+        <v>595818</v>
       </c>
       <c r="AS21" s="11">
-        <v>936323</v>
+        <v>450773</v>
       </c>
       <c r="AT21" s="11">
-        <v>595818</v>
+        <v>17000</v>
       </c>
       <c r="AU21" s="11">
-        <v>450773</v>
+        <v>526109</v>
       </c>
       <c r="AV21" s="11">
-        <v>17000</v>
+        <v>469854</v>
       </c>
       <c r="AW21" s="11">
-        <v>526109</v>
+        <v>425672</v>
       </c>
       <c r="AX21" s="11">
-        <v>469854</v>
+        <v>308107</v>
       </c>
       <c r="AY21" s="11">
-        <v>425672</v>
+        <v>1066456</v>
       </c>
       <c r="AZ21" s="11">
-        <v>308107</v>
+        <v>788505</v>
       </c>
       <c r="BA21" s="11">
-        <v>1066456</v>
+        <v>670944</v>
       </c>
       <c r="BB21" s="11">
-        <v>788505</v>
+        <v>694351</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>59</v>
       </c>
@@ -3054,39 +3054,39 @@
       <c r="V22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X22" s="13" t="s">
-        <v>58</v>
+      <c r="W22" s="13">
+        <v>3722</v>
+      </c>
+      <c r="X22" s="13">
+        <v>102194</v>
       </c>
       <c r="Y22" s="13">
-        <v>3722</v>
+        <v>4885</v>
       </c>
       <c r="Z22" s="13">
-        <v>102194</v>
+        <v>0</v>
       </c>
       <c r="AA22" s="13">
-        <v>4885</v>
+        <v>5978</v>
       </c>
       <c r="AB22" s="13">
-        <v>0</v>
+        <v>1870</v>
       </c>
       <c r="AC22" s="13">
-        <v>5978</v>
+        <v>40170</v>
       </c>
       <c r="AD22" s="13">
-        <v>1870</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="13">
-        <v>40170</v>
-      </c>
-      <c r="AF22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="13">
         <v>43259</v>
       </c>
+      <c r="AF22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG22" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AH22" s="13" t="s">
         <v>58</v>
       </c>
@@ -3114,44 +3114,44 @@
       <c r="AP22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ22" s="13" t="s">
-        <v>58</v>
+      <c r="AQ22" s="13">
+        <v>136604</v>
       </c>
       <c r="AR22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS22" s="13">
-        <v>136604</v>
+      <c r="AS22" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT22" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AU22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AV22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW22" s="13">
         <v>450</v>
       </c>
-      <c r="AX22" s="13">
+      <c r="AV22" s="13">
         <v>4484</v>
       </c>
-      <c r="AY22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ22" s="13" t="s">
-        <v>58</v>
+      <c r="AW22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="13">
+        <v>35116</v>
       </c>
       <c r="BA22" s="13">
-        <v>0</v>
+        <v>94887</v>
       </c>
       <c r="BB22" s="13">
-        <v>35116</v>
+        <v>136723</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>61</v>
       </c>
@@ -3213,39 +3213,39 @@
       <c r="V23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W23" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X23" s="11" t="s">
-        <v>58</v>
+      <c r="W23" s="11">
+        <v>0</v>
+      </c>
+      <c r="X23" s="11">
+        <v>0</v>
       </c>
       <c r="Y23" s="11">
         <v>0</v>
       </c>
       <c r="Z23" s="11">
-        <v>0</v>
+        <v>1382</v>
       </c>
       <c r="AA23" s="11">
-        <v>0</v>
+        <v>497</v>
       </c>
       <c r="AB23" s="11">
-        <v>1382</v>
+        <v>493</v>
       </c>
       <c r="AC23" s="11">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="AD23" s="11">
-        <v>493</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="11">
-        <v>500</v>
-      </c>
-      <c r="AF23" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="11">
         <v>2425</v>
       </c>
+      <c r="AF23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG23" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH23" s="11" t="s">
         <v>58</v>
       </c>
@@ -3273,20 +3273,20 @@
       <c r="AP23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ23" s="11" t="s">
-        <v>58</v>
+      <c r="AQ23" s="11">
+        <v>0</v>
       </c>
       <c r="AR23" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AS23" s="11">
-        <v>0</v>
+        <v>768</v>
       </c>
       <c r="AT23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU23" s="11">
-        <v>768</v>
+      <c r="AU23" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV23" s="11" t="s">
         <v>58</v>
@@ -3294,23 +3294,23 @@
       <c r="AW23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX23" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY23" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ23" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA23" s="11">
+      <c r="AX23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY23" s="11">
         <v>140</v>
       </c>
-      <c r="BB23" s="11">
+      <c r="AZ23" s="11">
         <v>1451</v>
       </c>
+      <c r="BA23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB23" s="11" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
         <v>66</v>
       </c>
@@ -3399,45 +3399,45 @@
       <c r="AE24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF24" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG24" s="13" t="s">
-        <v>58</v>
+      <c r="AF24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="13">
+        <v>19960</v>
       </c>
       <c r="AH24" s="13">
-        <v>0</v>
+        <v>246158</v>
       </c>
       <c r="AI24" s="13">
-        <v>19960</v>
+        <v>757567</v>
       </c>
       <c r="AJ24" s="13">
-        <v>246158</v>
+        <v>527953</v>
       </c>
       <c r="AK24" s="13">
-        <v>757567</v>
+        <v>694397</v>
       </c>
       <c r="AL24" s="13">
-        <v>527953</v>
+        <v>941248</v>
       </c>
       <c r="AM24" s="13">
-        <v>694397</v>
+        <v>325115</v>
       </c>
       <c r="AN24" s="13">
-        <v>941248</v>
+        <v>1215189</v>
       </c>
       <c r="AO24" s="13">
-        <v>325115</v>
+        <v>381496</v>
       </c>
       <c r="AP24" s="13">
-        <v>1215189</v>
-      </c>
-      <c r="AQ24" s="13">
-        <v>381496</v>
-      </c>
-      <c r="AR24" s="13">
         <v>404467</v>
       </c>
+      <c r="AQ24" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR24" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AS24" s="13" t="s">
         <v>58</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>68</v>
       </c>
@@ -3558,45 +3558,45 @@
       <c r="AE25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF25" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG25" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH25" s="11">
-        <v>0</v>
+      <c r="AF25" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="11">
+        <v>417</v>
+      </c>
+      <c r="AH25" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI25" s="11">
-        <v>417</v>
-      </c>
-      <c r="AJ25" s="11" t="s">
-        <v>58</v>
+        <v>3497</v>
+      </c>
+      <c r="AJ25" s="11">
+        <v>1</v>
       </c>
       <c r="AK25" s="11">
-        <v>3497</v>
-      </c>
-      <c r="AL25" s="11">
-        <v>1</v>
+        <v>275</v>
+      </c>
+      <c r="AL25" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AM25" s="11">
-        <v>275</v>
+        <v>134</v>
       </c>
       <c r="AN25" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AO25" s="11">
-        <v>134</v>
-      </c>
-      <c r="AP25" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ25" s="11">
         <v>75</v>
       </c>
-      <c r="AR25" s="11">
+      <c r="AP25" s="11">
         <v>309</v>
       </c>
+      <c r="AQ25" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR25" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AS25" s="11" t="s">
         <v>58</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>70</v>
       </c>
@@ -3717,45 +3717,45 @@
       <c r="AE26" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF26" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG26" s="13" t="s">
-        <v>58</v>
+      <c r="AF26" s="13">
+        <v>83707</v>
+      </c>
+      <c r="AG26" s="13">
+        <v>35883</v>
       </c>
       <c r="AH26" s="13">
-        <v>83707</v>
+        <v>254878</v>
       </c>
       <c r="AI26" s="13">
-        <v>35883</v>
+        <v>374468</v>
       </c>
       <c r="AJ26" s="13">
-        <v>254878</v>
+        <v>118426</v>
       </c>
       <c r="AK26" s="13">
-        <v>374468</v>
+        <v>209881</v>
       </c>
       <c r="AL26" s="13">
-        <v>118426</v>
+        <v>137878</v>
       </c>
       <c r="AM26" s="13">
-        <v>209881</v>
+        <v>296722</v>
       </c>
       <c r="AN26" s="13">
-        <v>137878</v>
+        <v>31766</v>
       </c>
       <c r="AO26" s="13">
-        <v>296722</v>
+        <v>98914</v>
       </c>
       <c r="AP26" s="13">
-        <v>31766</v>
-      </c>
-      <c r="AQ26" s="13">
-        <v>98914</v>
-      </c>
-      <c r="AR26" s="13">
         <v>100931</v>
       </c>
+      <c r="AQ26" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR26" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AS26" s="13" t="s">
         <v>58</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
         <v>71</v>
       </c>
@@ -3847,11 +3847,11 @@
       <c r="V27" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W27" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X27" s="17" t="s">
-        <v>58</v>
+      <c r="W27" s="17">
+        <v>0</v>
+      </c>
+      <c r="X27" s="17">
+        <v>0</v>
       </c>
       <c r="Y27" s="17">
         <v>0</v>
@@ -3944,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
         <v>72</v>
       </c>
@@ -4005,103 +4005,103 @@
         <v>0</v>
       </c>
       <c r="W28" s="15">
-        <v>0</v>
+        <v>6403444</v>
       </c>
       <c r="X28" s="15">
-        <v>0</v>
+        <v>7116697</v>
       </c>
       <c r="Y28" s="15">
-        <v>6403444</v>
+        <v>4684968</v>
       </c>
       <c r="Z28" s="15">
-        <v>7116697</v>
+        <v>6723136</v>
       </c>
       <c r="AA28" s="15">
-        <v>4684968</v>
+        <v>6345160</v>
       </c>
       <c r="AB28" s="15">
-        <v>6723136</v>
+        <v>6408347</v>
       </c>
       <c r="AC28" s="15">
-        <v>6345160</v>
+        <v>6255363</v>
       </c>
       <c r="AD28" s="15">
-        <v>6408347</v>
+        <v>5456380</v>
       </c>
       <c r="AE28" s="15">
-        <v>6255363</v>
+        <v>3317410</v>
       </c>
       <c r="AF28" s="15">
-        <v>5456380</v>
+        <v>1983613</v>
       </c>
       <c r="AG28" s="15">
-        <v>3317410</v>
+        <v>3674052</v>
       </c>
       <c r="AH28" s="15">
-        <v>1983613</v>
+        <v>4748619</v>
       </c>
       <c r="AI28" s="15">
-        <v>3674052</v>
+        <v>5034238</v>
       </c>
       <c r="AJ28" s="15">
-        <v>4748619</v>
+        <v>2934889</v>
       </c>
       <c r="AK28" s="15">
-        <v>5034238</v>
+        <v>4425940</v>
       </c>
       <c r="AL28" s="15">
-        <v>2934889</v>
+        <v>3814052</v>
       </c>
       <c r="AM28" s="15">
-        <v>4425940</v>
+        <v>3318234</v>
       </c>
       <c r="AN28" s="15">
-        <v>3814052</v>
+        <v>3339368</v>
       </c>
       <c r="AO28" s="15">
-        <v>3318234</v>
+        <v>3761397</v>
       </c>
       <c r="AP28" s="15">
-        <v>3339368</v>
+        <v>3275909</v>
       </c>
       <c r="AQ28" s="15">
-        <v>3761397</v>
+        <v>3917854</v>
       </c>
       <c r="AR28" s="15">
-        <v>3275909</v>
+        <v>2594885</v>
       </c>
       <c r="AS28" s="15">
-        <v>3917854</v>
+        <v>4102951</v>
       </c>
       <c r="AT28" s="15">
-        <v>2594885</v>
+        <v>5284429</v>
       </c>
       <c r="AU28" s="15">
-        <v>4102951</v>
+        <v>5058889</v>
       </c>
       <c r="AV28" s="15">
-        <v>5284429</v>
+        <v>3865822</v>
       </c>
       <c r="AW28" s="15">
-        <v>5058889</v>
+        <v>6047706</v>
       </c>
       <c r="AX28" s="15">
-        <v>3865822</v>
+        <v>5946618</v>
       </c>
       <c r="AY28" s="15">
-        <v>6047706</v>
+        <v>6589195</v>
       </c>
       <c r="AZ28" s="15">
-        <v>5946618</v>
+        <v>6587912</v>
       </c>
       <c r="BA28" s="15">
-        <v>6589195</v>
+        <v>6432363</v>
       </c>
       <c r="BB28" s="15">
-        <v>6587912</v>
+        <v>6891226</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -4156,7 +4156,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -4211,7 +4211,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -4266,7 +4266,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
         <v>73</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -4478,7 +4478,7 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>74</v>
       </c>
@@ -4535,7 +4535,7 @@
       <c r="BA34" s="9"/>
       <c r="BB34" s="9"/>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>56</v>
       </c>
@@ -4597,104 +4597,104 @@
       <c r="V35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W35" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X35" s="11" t="s">
-        <v>58</v>
+      <c r="W35" s="11">
+        <v>3464843</v>
+      </c>
+      <c r="X35" s="11">
+        <v>3329553</v>
       </c>
       <c r="Y35" s="11">
-        <v>3464843</v>
+        <v>1974732</v>
       </c>
       <c r="Z35" s="11">
-        <v>3329553</v>
+        <v>2425308</v>
       </c>
       <c r="AA35" s="11">
-        <v>1974732</v>
+        <v>2413830</v>
       </c>
       <c r="AB35" s="11">
-        <v>2425308</v>
+        <v>2489502</v>
       </c>
       <c r="AC35" s="11">
-        <v>2413830</v>
+        <v>1511842</v>
       </c>
       <c r="AD35" s="11">
-        <v>2489502</v>
+        <v>668932</v>
       </c>
       <c r="AE35" s="11">
-        <v>1511842</v>
+        <v>1467998</v>
       </c>
       <c r="AF35" s="11">
-        <v>668932</v>
+        <v>411147</v>
       </c>
       <c r="AG35" s="11">
-        <v>1467998</v>
+        <v>1764615</v>
       </c>
       <c r="AH35" s="11">
-        <v>411147</v>
+        <v>1705379</v>
       </c>
       <c r="AI35" s="11">
-        <v>1764615</v>
+        <v>963467</v>
       </c>
       <c r="AJ35" s="11">
-        <v>1705379</v>
+        <v>1324207</v>
       </c>
       <c r="AK35" s="11">
-        <v>963467</v>
+        <v>1890585</v>
       </c>
       <c r="AL35" s="11">
-        <v>1324207</v>
+        <v>1665016</v>
       </c>
       <c r="AM35" s="11">
-        <v>1890585</v>
+        <v>2046632</v>
       </c>
       <c r="AN35" s="11">
-        <v>1665016</v>
+        <v>1270891</v>
       </c>
       <c r="AO35" s="11">
-        <v>2046632</v>
+        <v>719309</v>
       </c>
       <c r="AP35" s="11">
-        <v>1270891</v>
+        <v>1725938</v>
       </c>
       <c r="AQ35" s="11">
-        <v>719309</v>
+        <v>1851804</v>
       </c>
       <c r="AR35" s="11">
-        <v>1725938</v>
+        <v>1405616</v>
       </c>
       <c r="AS35" s="11">
-        <v>1851804</v>
+        <v>2386810</v>
       </c>
       <c r="AT35" s="11">
-        <v>1405616</v>
+        <v>3523864</v>
       </c>
       <c r="AU35" s="11">
-        <v>2386810</v>
+        <v>3274656</v>
       </c>
       <c r="AV35" s="11">
-        <v>3523864</v>
+        <v>2100511</v>
       </c>
       <c r="AW35" s="11">
-        <v>3274656</v>
+        <v>3013748</v>
       </c>
       <c r="AX35" s="11">
-        <v>2100511</v>
+        <v>3209545</v>
       </c>
       <c r="AY35" s="11">
-        <v>3013748</v>
+        <v>3259521</v>
       </c>
       <c r="AZ35" s="11">
-        <v>3209545</v>
+        <v>3225944</v>
       </c>
       <c r="BA35" s="11">
-        <v>3259521</v>
+        <v>3588731</v>
       </c>
       <c r="BB35" s="11">
-        <v>3225944</v>
+        <v>3742252</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>59</v>
       </c>
@@ -4756,104 +4756,104 @@
       <c r="V36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W36" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X36" s="13" t="s">
-        <v>58</v>
+      <c r="W36" s="13">
+        <v>2590139</v>
+      </c>
+      <c r="X36" s="13">
+        <v>2115818</v>
       </c>
       <c r="Y36" s="13">
-        <v>2590139</v>
+        <v>2090976</v>
       </c>
       <c r="Z36" s="13">
-        <v>2115818</v>
+        <v>2574908</v>
       </c>
       <c r="AA36" s="13">
-        <v>2090976</v>
+        <v>1439240</v>
       </c>
       <c r="AB36" s="13">
-        <v>2574908</v>
+        <v>1949484</v>
       </c>
       <c r="AC36" s="13">
-        <v>1439240</v>
+        <v>1841148</v>
       </c>
       <c r="AD36" s="13">
-        <v>1949484</v>
+        <v>1241558</v>
       </c>
       <c r="AE36" s="13">
-        <v>1841148</v>
+        <v>1547764</v>
       </c>
       <c r="AF36" s="13">
-        <v>1241558</v>
+        <v>837734</v>
       </c>
       <c r="AG36" s="13">
-        <v>1547764</v>
+        <v>2203278</v>
       </c>
       <c r="AH36" s="13">
-        <v>837734</v>
+        <v>1977521</v>
       </c>
       <c r="AI36" s="13">
-        <v>2203278</v>
+        <v>1834115</v>
       </c>
       <c r="AJ36" s="13">
-        <v>1977521</v>
+        <v>1716712</v>
       </c>
       <c r="AK36" s="13">
-        <v>1834115</v>
+        <v>1328703</v>
       </c>
       <c r="AL36" s="13">
-        <v>1716712</v>
+        <v>1218139</v>
       </c>
       <c r="AM36" s="13">
-        <v>1328703</v>
+        <v>1279701</v>
       </c>
       <c r="AN36" s="13">
-        <v>1218139</v>
+        <v>1048473</v>
       </c>
       <c r="AO36" s="13">
-        <v>1279701</v>
+        <v>1333045</v>
       </c>
       <c r="AP36" s="13">
-        <v>1048473</v>
+        <v>1236200</v>
       </c>
       <c r="AQ36" s="13">
-        <v>1333045</v>
+        <v>1662039</v>
       </c>
       <c r="AR36" s="13">
-        <v>1236200</v>
+        <v>813636</v>
       </c>
       <c r="AS36" s="13">
-        <v>1662039</v>
+        <v>2540044</v>
       </c>
       <c r="AT36" s="13">
-        <v>813636</v>
+        <v>2393463</v>
       </c>
       <c r="AU36" s="13">
-        <v>2540044</v>
+        <v>2546286</v>
       </c>
       <c r="AV36" s="13">
-        <v>2393463</v>
+        <v>2713719</v>
       </c>
       <c r="AW36" s="13">
-        <v>2546286</v>
+        <v>2585290</v>
       </c>
       <c r="AX36" s="13">
-        <v>2713719</v>
+        <v>2386859</v>
       </c>
       <c r="AY36" s="13">
-        <v>2585290</v>
+        <v>2337139</v>
       </c>
       <c r="AZ36" s="13">
-        <v>2386859</v>
+        <v>933166</v>
       </c>
       <c r="BA36" s="13">
-        <v>2337139</v>
+        <v>3321497</v>
       </c>
       <c r="BB36" s="13">
-        <v>933166</v>
+        <v>2531329</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>61</v>
       </c>
@@ -4915,104 +4915,104 @@
       <c r="V37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X37" s="11" t="s">
-        <v>58</v>
+      <c r="W37" s="11">
+        <v>169507</v>
+      </c>
+      <c r="X37" s="11">
+        <v>68372</v>
       </c>
       <c r="Y37" s="11">
-        <v>169507</v>
+        <v>39083</v>
       </c>
       <c r="Z37" s="11">
-        <v>68372</v>
+        <v>46330</v>
       </c>
       <c r="AA37" s="11">
-        <v>39083</v>
+        <v>42469</v>
       </c>
       <c r="AB37" s="11">
-        <v>46330</v>
+        <v>76210</v>
       </c>
       <c r="AC37" s="11">
-        <v>42469</v>
+        <v>74878</v>
       </c>
       <c r="AD37" s="11">
-        <v>76210</v>
+        <v>107739</v>
       </c>
       <c r="AE37" s="11">
-        <v>74878</v>
+        <v>30625</v>
       </c>
       <c r="AF37" s="11">
-        <v>107739</v>
+        <v>76192</v>
       </c>
       <c r="AG37" s="11">
-        <v>30625</v>
+        <v>74747</v>
       </c>
       <c r="AH37" s="11">
-        <v>76192</v>
+        <v>86705</v>
       </c>
       <c r="AI37" s="11">
-        <v>74747</v>
+        <v>66376</v>
       </c>
       <c r="AJ37" s="11">
-        <v>86705</v>
+        <v>67107</v>
       </c>
       <c r="AK37" s="11">
-        <v>66376</v>
+        <v>49156</v>
       </c>
       <c r="AL37" s="11">
-        <v>67107</v>
+        <v>87910</v>
       </c>
       <c r="AM37" s="11">
-        <v>49156</v>
+        <v>59439</v>
       </c>
       <c r="AN37" s="11">
-        <v>87910</v>
+        <v>67269</v>
       </c>
       <c r="AO37" s="11">
-        <v>59439</v>
+        <v>50624</v>
       </c>
       <c r="AP37" s="11">
-        <v>67269</v>
+        <v>90286</v>
       </c>
       <c r="AQ37" s="11">
-        <v>50624</v>
+        <v>44701</v>
       </c>
       <c r="AR37" s="11">
-        <v>90286</v>
+        <v>20835</v>
       </c>
       <c r="AS37" s="11">
-        <v>44701</v>
+        <v>82962</v>
       </c>
       <c r="AT37" s="11">
-        <v>20835</v>
+        <v>86166</v>
       </c>
       <c r="AU37" s="11">
-        <v>82962</v>
+        <v>110141</v>
       </c>
       <c r="AV37" s="11">
-        <v>86166</v>
+        <v>98006</v>
       </c>
       <c r="AW37" s="11">
-        <v>110141</v>
+        <v>95636</v>
       </c>
       <c r="AX37" s="11">
-        <v>98006</v>
+        <v>83209</v>
       </c>
       <c r="AY37" s="11">
-        <v>95636</v>
+        <v>84421</v>
       </c>
       <c r="AZ37" s="11">
-        <v>83209</v>
+        <v>82292</v>
       </c>
       <c r="BA37" s="11">
-        <v>84421</v>
+        <v>103375</v>
       </c>
       <c r="BB37" s="11">
-        <v>82292</v>
+        <v>86091</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="14" t="s">
         <v>75</v>
       </c>
@@ -5073,103 +5073,103 @@
         <v>0</v>
       </c>
       <c r="W38" s="15">
-        <v>0</v>
+        <v>6224489</v>
       </c>
       <c r="X38" s="15">
-        <v>0</v>
+        <v>5513743</v>
       </c>
       <c r="Y38" s="15">
-        <v>6224489</v>
+        <v>4104791</v>
       </c>
       <c r="Z38" s="15">
-        <v>5513743</v>
+        <v>5046546</v>
       </c>
       <c r="AA38" s="15">
-        <v>4104791</v>
+        <v>3895539</v>
       </c>
       <c r="AB38" s="15">
-        <v>5046546</v>
+        <v>4515196</v>
       </c>
       <c r="AC38" s="15">
-        <v>3895539</v>
+        <v>3427868</v>
       </c>
       <c r="AD38" s="15">
-        <v>4515196</v>
+        <v>2018229</v>
       </c>
       <c r="AE38" s="15">
-        <v>3427868</v>
+        <v>3046387</v>
       </c>
       <c r="AF38" s="15">
-        <v>2018229</v>
+        <v>1325073</v>
       </c>
       <c r="AG38" s="15">
-        <v>3046387</v>
+        <v>4042640</v>
       </c>
       <c r="AH38" s="15">
-        <v>1325073</v>
+        <v>3769605</v>
       </c>
       <c r="AI38" s="15">
-        <v>4042640</v>
+        <v>2863958</v>
       </c>
       <c r="AJ38" s="15">
-        <v>3769605</v>
+        <v>3108026</v>
       </c>
       <c r="AK38" s="15">
-        <v>2863958</v>
+        <v>3268444</v>
       </c>
       <c r="AL38" s="15">
-        <v>3108026</v>
+        <v>2971065</v>
       </c>
       <c r="AM38" s="15">
-        <v>3268444</v>
+        <v>3385772</v>
       </c>
       <c r="AN38" s="15">
-        <v>2971065</v>
+        <v>2386633</v>
       </c>
       <c r="AO38" s="15">
-        <v>3385772</v>
+        <v>2102978</v>
       </c>
       <c r="AP38" s="15">
-        <v>2386633</v>
+        <v>3052424</v>
       </c>
       <c r="AQ38" s="15">
-        <v>2102978</v>
+        <v>3558544</v>
       </c>
       <c r="AR38" s="15">
-        <v>3052424</v>
+        <v>2240087</v>
       </c>
       <c r="AS38" s="15">
-        <v>3558544</v>
+        <v>5009816</v>
       </c>
       <c r="AT38" s="15">
-        <v>2240087</v>
+        <v>6003493</v>
       </c>
       <c r="AU38" s="15">
-        <v>5009816</v>
+        <v>5931083</v>
       </c>
       <c r="AV38" s="15">
-        <v>6003493</v>
+        <v>4912236</v>
       </c>
       <c r="AW38" s="15">
-        <v>5931083</v>
+        <v>5694674</v>
       </c>
       <c r="AX38" s="15">
-        <v>4912236</v>
+        <v>5679613</v>
       </c>
       <c r="AY38" s="15">
-        <v>5694674</v>
+        <v>5681081</v>
       </c>
       <c r="AZ38" s="15">
-        <v>5679613</v>
+        <v>4241402</v>
       </c>
       <c r="BA38" s="15">
-        <v>5681081</v>
+        <v>7013603</v>
       </c>
       <c r="BB38" s="15">
-        <v>4241402</v>
+        <v>6359672</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
         <v>76</v>
       </c>
@@ -5226,7 +5226,7 @@
       <c r="BA39" s="9"/>
       <c r="BB39" s="9"/>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>56</v>
       </c>
@@ -5288,17 +5288,17 @@
       <c r="V40" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W40" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X40" s="11" t="s">
-        <v>58</v>
+      <c r="W40" s="11">
+        <v>146</v>
+      </c>
+      <c r="X40" s="11">
+        <v>69369</v>
       </c>
       <c r="Y40" s="11">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="Z40" s="11">
-        <v>69369</v>
+        <v>0</v>
       </c>
       <c r="AA40" s="11">
         <v>0</v>
@@ -5318,41 +5318,41 @@
       <c r="AF40" s="11">
         <v>0</v>
       </c>
-      <c r="AG40" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH40" s="11">
-        <v>0</v>
+      <c r="AG40" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH40" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI40" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ40" s="11" t="s">
-        <v>58</v>
+      <c r="AJ40" s="11">
+        <v>61164</v>
       </c>
       <c r="AK40" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL40" s="11">
-        <v>61164</v>
+      <c r="AL40" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AM40" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN40" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO40" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP40" s="11">
+      <c r="AN40" s="11">
         <v>150040</v>
       </c>
+      <c r="AO40" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP40" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ40" s="11">
         <v>0</v>
       </c>
-      <c r="AR40" s="11" t="s">
-        <v>58</v>
+      <c r="AR40" s="11">
+        <v>0</v>
       </c>
       <c r="AS40" s="11">
         <v>0</v>
@@ -5364,13 +5364,13 @@
         <v>0</v>
       </c>
       <c r="AV40" s="11">
-        <v>0</v>
+        <v>148853</v>
       </c>
       <c r="AW40" s="11">
         <v>0</v>
       </c>
       <c r="AX40" s="11">
-        <v>148853</v>
+        <v>0</v>
       </c>
       <c r="AY40" s="11">
         <v>0</v>
@@ -5385,7 +5385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
         <v>59</v>
       </c>
@@ -5447,20 +5447,20 @@
       <c r="V41" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W41" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X41" s="13" t="s">
-        <v>58</v>
+      <c r="W41" s="13">
+        <v>404</v>
+      </c>
+      <c r="X41" s="13">
+        <v>0</v>
       </c>
       <c r="Y41" s="13">
-        <v>404</v>
+        <v>30000</v>
       </c>
       <c r="Z41" s="13">
         <v>0</v>
       </c>
       <c r="AA41" s="13">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="AB41" s="13">
         <v>0</v>
@@ -5469,19 +5469,19 @@
         <v>0</v>
       </c>
       <c r="AD41" s="13">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="AE41" s="13">
         <v>0</v>
       </c>
       <c r="AF41" s="13">
-        <v>15000</v>
-      </c>
-      <c r="AG41" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH41" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AG41" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH41" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI41" s="13" t="s">
         <v>58</v>
@@ -5507,29 +5507,29 @@
       <c r="AP41" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ41" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR41" s="13" t="s">
-        <v>58</v>
+      <c r="AQ41" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR41" s="13">
+        <v>0</v>
       </c>
       <c r="AS41" s="13">
-        <v>0</v>
+        <v>1266</v>
       </c>
       <c r="AT41" s="13">
         <v>0</v>
       </c>
       <c r="AU41" s="13">
-        <v>1266</v>
+        <v>1382</v>
       </c>
       <c r="AV41" s="13">
         <v>0</v>
       </c>
       <c r="AW41" s="13">
-        <v>1382</v>
+        <v>0</v>
       </c>
       <c r="AX41" s="13">
-        <v>-288</v>
+        <v>0</v>
       </c>
       <c r="AY41" s="13">
         <v>0</v>
@@ -5544,7 +5544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>61</v>
       </c>
@@ -5606,23 +5606,23 @@
       <c r="V42" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W42" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X42" s="11" t="s">
-        <v>58</v>
+      <c r="W42" s="11">
+        <v>3624</v>
+      </c>
+      <c r="X42" s="11">
+        <v>3244</v>
       </c>
       <c r="Y42" s="11">
-        <v>3624</v>
+        <v>8343</v>
       </c>
       <c r="Z42" s="11">
-        <v>3244</v>
+        <v>17100</v>
       </c>
       <c r="AA42" s="11">
-        <v>8343</v>
+        <v>0</v>
       </c>
       <c r="AB42" s="11">
-        <v>17100</v>
+        <v>0</v>
       </c>
       <c r="AC42" s="11">
         <v>0</v>
@@ -5637,20 +5637,20 @@
         <v>0</v>
       </c>
       <c r="AG42" s="11">
-        <v>0</v>
+        <v>4789</v>
       </c>
       <c r="AH42" s="11">
-        <v>0</v>
+        <v>666</v>
       </c>
       <c r="AI42" s="11">
-        <v>4789</v>
-      </c>
-      <c r="AJ42" s="11">
-        <v>666</v>
-      </c>
-      <c r="AK42" s="11">
         <v>13</v>
       </c>
+      <c r="AJ42" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK42" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AL42" s="11" t="s">
         <v>58</v>
       </c>
@@ -5663,32 +5663,32 @@
       <c r="AO42" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP42" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ42" s="11" t="s">
-        <v>58</v>
+      <c r="AP42" s="11">
+        <v>1300</v>
+      </c>
+      <c r="AQ42" s="11">
+        <v>51145</v>
       </c>
       <c r="AR42" s="11">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="AS42" s="11">
-        <v>51145</v>
+        <v>805</v>
       </c>
       <c r="AT42" s="11">
         <v>0</v>
       </c>
       <c r="AU42" s="11">
-        <v>805</v>
+        <v>39</v>
       </c>
       <c r="AV42" s="11">
-        <v>0</v>
+        <v>13870</v>
       </c>
       <c r="AW42" s="11">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="AX42" s="11">
-        <v>13862</v>
+        <v>0</v>
       </c>
       <c r="AY42" s="11">
         <v>0</v>
@@ -5700,10 +5700,10 @@
         <v>0</v>
       </c>
       <c r="BB42" s="11">
-        <v>0</v>
+        <v>3085</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
         <v>77</v>
       </c>
@@ -5764,88 +5764,88 @@
         <v>0</v>
       </c>
       <c r="W43" s="15">
-        <v>0</v>
+        <v>4174</v>
       </c>
       <c r="X43" s="15">
-        <v>0</v>
+        <v>72613</v>
       </c>
       <c r="Y43" s="15">
-        <v>4174</v>
+        <v>38343</v>
       </c>
       <c r="Z43" s="15">
-        <v>72613</v>
+        <v>17100</v>
       </c>
       <c r="AA43" s="15">
-        <v>38343</v>
+        <v>0</v>
       </c>
       <c r="AB43" s="15">
-        <v>17100</v>
+        <v>0</v>
       </c>
       <c r="AC43" s="15">
         <v>0</v>
       </c>
       <c r="AD43" s="15">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="AE43" s="15">
         <v>0</v>
       </c>
       <c r="AF43" s="15">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="AG43" s="15">
-        <v>0</v>
+        <v>4789</v>
       </c>
       <c r="AH43" s="15">
-        <v>0</v>
+        <v>666</v>
       </c>
       <c r="AI43" s="15">
-        <v>4789</v>
+        <v>13</v>
       </c>
       <c r="AJ43" s="15">
-        <v>666</v>
+        <v>61164</v>
       </c>
       <c r="AK43" s="15">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AL43" s="15">
-        <v>61164</v>
+        <v>0</v>
       </c>
       <c r="AM43" s="15">
         <v>0</v>
       </c>
       <c r="AN43" s="15">
-        <v>0</v>
+        <v>150040</v>
       </c>
       <c r="AO43" s="15">
         <v>0</v>
       </c>
       <c r="AP43" s="15">
-        <v>150040</v>
+        <v>1300</v>
       </c>
       <c r="AQ43" s="15">
-        <v>0</v>
+        <v>51145</v>
       </c>
       <c r="AR43" s="15">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="AS43" s="15">
-        <v>51145</v>
+        <v>2071</v>
       </c>
       <c r="AT43" s="15">
         <v>0</v>
       </c>
       <c r="AU43" s="15">
-        <v>2071</v>
+        <v>1421</v>
       </c>
       <c r="AV43" s="15">
-        <v>0</v>
+        <v>162723</v>
       </c>
       <c r="AW43" s="15">
-        <v>1421</v>
+        <v>0</v>
       </c>
       <c r="AX43" s="15">
-        <v>162427</v>
+        <v>0</v>
       </c>
       <c r="AY43" s="15">
         <v>0</v>
@@ -5857,10 +5857,10 @@
         <v>0</v>
       </c>
       <c r="BB43" s="15">
-        <v>0</v>
+        <v>3085</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
         <v>65</v>
       </c>
@@ -5917,7 +5917,7 @@
       <c r="BA44" s="9"/>
       <c r="BB44" s="9"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>56</v>
       </c>
@@ -5979,39 +5979,39 @@
       <c r="V45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X45" s="11" t="s">
-        <v>58</v>
+      <c r="W45" s="11">
+        <v>1170797</v>
+      </c>
+      <c r="X45" s="11">
+        <v>829580</v>
       </c>
       <c r="Y45" s="11">
-        <v>1170797</v>
+        <v>1191344</v>
       </c>
       <c r="Z45" s="11">
-        <v>829580</v>
+        <v>764593</v>
       </c>
       <c r="AA45" s="11">
-        <v>1191344</v>
+        <v>1833835</v>
       </c>
       <c r="AB45" s="11">
-        <v>764593</v>
+        <v>1533409</v>
       </c>
       <c r="AC45" s="11">
-        <v>1833835</v>
+        <v>909844</v>
       </c>
       <c r="AD45" s="11">
-        <v>1533409</v>
+        <v>1223482</v>
       </c>
       <c r="AE45" s="11">
-        <v>909844</v>
-      </c>
-      <c r="AF45" s="11">
-        <v>1223482</v>
-      </c>
-      <c r="AG45" s="11">
         <v>1225177</v>
       </c>
+      <c r="AF45" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG45" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH45" s="11" t="s">
         <v>58</v>
       </c>
@@ -6039,44 +6039,44 @@
       <c r="AP45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ45" s="11" t="s">
-        <v>58</v>
+      <c r="AQ45" s="11">
+        <v>1097257</v>
       </c>
       <c r="AR45" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AS45" s="11">
-        <v>1097257</v>
-      </c>
-      <c r="AT45" s="11" t="s">
-        <v>58</v>
+        <v>1036951</v>
+      </c>
+      <c r="AT45" s="11">
+        <v>9698</v>
       </c>
       <c r="AU45" s="11">
-        <v>988956</v>
+        <v>250901</v>
       </c>
       <c r="AV45" s="11">
-        <v>9698</v>
+        <v>629197</v>
       </c>
       <c r="AW45" s="11">
-        <v>250901</v>
+        <v>485435</v>
       </c>
       <c r="AX45" s="11">
-        <v>629197</v>
+        <v>304741</v>
       </c>
       <c r="AY45" s="11">
-        <v>485435</v>
+        <v>811815</v>
       </c>
       <c r="AZ45" s="11">
-        <v>304741</v>
+        <v>989350</v>
       </c>
       <c r="BA45" s="11">
-        <v>811815</v>
+        <v>527550</v>
       </c>
       <c r="BB45" s="11">
-        <v>989350</v>
+        <v>587093</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
         <v>59</v>
       </c>
@@ -6138,39 +6138,39 @@
       <c r="V46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X46" s="13" t="s">
-        <v>58</v>
+      <c r="W46" s="13">
+        <v>0</v>
+      </c>
+      <c r="X46" s="13">
+        <v>14748</v>
       </c>
       <c r="Y46" s="13">
-        <v>0</v>
+        <v>98790</v>
       </c>
       <c r="Z46" s="13">
-        <v>14748</v>
+        <v>952</v>
       </c>
       <c r="AA46" s="13">
-        <v>98790</v>
+        <v>0</v>
       </c>
       <c r="AB46" s="13">
-        <v>952</v>
+        <v>5977</v>
       </c>
       <c r="AC46" s="13">
-        <v>0</v>
+        <v>40170</v>
       </c>
       <c r="AD46" s="13">
-        <v>5977</v>
+        <v>0</v>
       </c>
       <c r="AE46" s="13">
-        <v>40170</v>
-      </c>
-      <c r="AF46" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG46" s="13">
         <v>4219</v>
       </c>
+      <c r="AF46" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG46" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AH46" s="13" t="s">
         <v>58</v>
       </c>
@@ -6198,20 +6198,20 @@
       <c r="AP46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ46" s="13" t="s">
-        <v>58</v>
+      <c r="AQ46" s="13">
+        <v>331449</v>
       </c>
       <c r="AR46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS46" s="13">
-        <v>331449</v>
+      <c r="AS46" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU46" s="13">
-        <v>0</v>
+      <c r="AU46" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV46" s="13" t="s">
         <v>58</v>
@@ -6219,8 +6219,8 @@
       <c r="AW46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX46" s="13">
-        <v>0</v>
+      <c r="AX46" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AY46" s="13" t="s">
         <v>58</v>
@@ -6228,14 +6228,14 @@
       <c r="AZ46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BA46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB46" s="13" t="s">
-        <v>58</v>
+      <c r="BA46" s="13">
+        <v>134937</v>
+      </c>
+      <c r="BB46" s="13">
+        <v>39671</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
         <v>61</v>
       </c>
@@ -6297,11 +6297,11 @@
       <c r="V47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W47" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X47" s="11" t="s">
-        <v>58</v>
+      <c r="W47" s="11">
+        <v>0</v>
+      </c>
+      <c r="X47" s="11">
+        <v>0</v>
       </c>
       <c r="Y47" s="11">
         <v>0</v>
@@ -6310,26 +6310,26 @@
         <v>0</v>
       </c>
       <c r="AA47" s="11">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="AB47" s="11">
-        <v>0</v>
+        <v>879</v>
       </c>
       <c r="AC47" s="11">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="AD47" s="11">
-        <v>879</v>
+        <v>0</v>
       </c>
       <c r="AE47" s="11">
-        <v>994</v>
-      </c>
-      <c r="AF47" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG47" s="11">
         <v>1341</v>
       </c>
+      <c r="AF47" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG47" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH47" s="11" t="s">
         <v>58</v>
       </c>
@@ -6357,20 +6357,20 @@
       <c r="AP47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ47" s="11" t="s">
-        <v>58</v>
+      <c r="AQ47" s="11">
+        <v>74</v>
       </c>
       <c r="AR47" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AS47" s="11">
-        <v>74</v>
+        <v>1725</v>
       </c>
       <c r="AT47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU47" s="11">
-        <v>1726</v>
+      <c r="AU47" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV47" s="11" t="s">
         <v>58</v>
@@ -6378,23 +6378,23 @@
       <c r="AW47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX47" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY47" s="11" t="s">
-        <v>58</v>
+      <c r="AX47" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY47" s="11">
+        <v>535</v>
       </c>
       <c r="AZ47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BA47" s="11">
-        <v>535</v>
+      <c r="BA47" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="BB47" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
         <v>66</v>
       </c>
@@ -6483,45 +6483,45 @@
       <c r="AE48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF48" s="13" t="s">
-        <v>58</v>
+      <c r="AF48" s="13">
+        <v>80865</v>
       </c>
       <c r="AG48" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AH48" s="13">
-        <v>80865</v>
-      </c>
-      <c r="AI48" s="13" t="s">
-        <v>58</v>
+        <v>81815</v>
+      </c>
+      <c r="AI48" s="13">
+        <v>840145</v>
       </c>
       <c r="AJ48" s="13">
-        <v>81815</v>
+        <v>467920</v>
       </c>
       <c r="AK48" s="13">
-        <v>840145</v>
+        <v>815260</v>
       </c>
       <c r="AL48" s="13">
-        <v>467920</v>
+        <v>616105</v>
       </c>
       <c r="AM48" s="13">
-        <v>815260</v>
+        <v>365998</v>
       </c>
       <c r="AN48" s="13">
-        <v>616105</v>
+        <v>1158478</v>
       </c>
       <c r="AO48" s="13">
-        <v>365998</v>
+        <v>442057</v>
       </c>
       <c r="AP48" s="13">
-        <v>1158478</v>
-      </c>
-      <c r="AQ48" s="13">
-        <v>442057</v>
-      </c>
-      <c r="AR48" s="13">
         <v>564733</v>
       </c>
+      <c r="AQ48" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR48" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AS48" s="13" t="s">
         <v>58</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
         <v>68</v>
       </c>
@@ -6642,44 +6642,44 @@
       <c r="AE49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF49" s="11" t="s">
-        <v>58</v>
+      <c r="AF49" s="11">
+        <v>2425</v>
       </c>
       <c r="AG49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH49" s="11">
-        <v>2425</v>
-      </c>
-      <c r="AI49" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ49" s="11" t="s">
-        <v>58</v>
+      <c r="AH49" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI49" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ49" s="11">
+        <v>0</v>
       </c>
       <c r="AK49" s="11">
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="AL49" s="11">
         <v>0</v>
       </c>
       <c r="AM49" s="11">
-        <v>276</v>
-      </c>
-      <c r="AN49" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO49" s="11">
         <v>126</v>
       </c>
-      <c r="AP49" s="11" t="s">
-        <v>58</v>
+      <c r="AN49" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO49" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP49" s="11">
+        <v>309</v>
       </c>
       <c r="AQ49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR49" s="11">
-        <v>309</v>
+      <c r="AR49" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS49" s="11" t="s">
         <v>58</v>
@@ -6712,7 +6712,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
         <v>70</v>
       </c>
@@ -6801,44 +6801,44 @@
       <c r="AE50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF50" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG50" s="13" t="s">
-        <v>58</v>
+      <c r="AF50" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="13">
+        <v>119590</v>
       </c>
       <c r="AH50" s="13">
-        <v>0</v>
+        <v>83150</v>
       </c>
       <c r="AI50" s="13">
-        <v>119590</v>
+        <v>195739</v>
       </c>
       <c r="AJ50" s="13">
-        <v>83150</v>
+        <v>257928</v>
       </c>
       <c r="AK50" s="13">
-        <v>195739</v>
+        <v>224969</v>
       </c>
       <c r="AL50" s="13">
-        <v>257928</v>
+        <v>75102</v>
       </c>
       <c r="AM50" s="13">
-        <v>224969</v>
+        <v>209772</v>
       </c>
       <c r="AN50" s="13">
-        <v>75102</v>
-      </c>
-      <c r="AO50" s="13">
-        <v>209772</v>
+        <v>189579</v>
+      </c>
+      <c r="AO50" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP50" s="13">
-        <v>189579</v>
+        <v>5000</v>
       </c>
       <c r="AQ50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR50" s="13">
-        <v>5000</v>
+      <c r="AR50" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS50" s="13" t="s">
         <v>58</v>
@@ -6871,7 +6871,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
         <v>71</v>
       </c>
@@ -6931,104 +6931,104 @@
       <c r="V51" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W51" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X51" s="17" t="s">
-        <v>58</v>
+      <c r="W51" s="17">
+        <v>1170797</v>
+      </c>
+      <c r="X51" s="17">
+        <v>844328</v>
       </c>
       <c r="Y51" s="17">
-        <v>1170797</v>
+        <v>1290134</v>
       </c>
       <c r="Z51" s="17">
-        <v>844328</v>
+        <v>765545</v>
       </c>
       <c r="AA51" s="17">
-        <v>1290134</v>
+        <v>1834834</v>
       </c>
       <c r="AB51" s="17">
-        <v>765545</v>
+        <v>1540265</v>
       </c>
       <c r="AC51" s="17">
-        <v>1834834</v>
+        <v>951008</v>
       </c>
       <c r="AD51" s="17">
-        <v>1540265</v>
+        <v>1223482</v>
       </c>
       <c r="AE51" s="17">
-        <v>951008</v>
+        <v>1230737</v>
       </c>
       <c r="AF51" s="17">
-        <v>1223482</v>
+        <v>83290</v>
       </c>
       <c r="AG51" s="17">
-        <v>1230737</v>
+        <v>119590</v>
       </c>
       <c r="AH51" s="17">
-        <v>83290</v>
+        <v>164965</v>
       </c>
       <c r="AI51" s="17">
-        <v>119590</v>
+        <v>1035884</v>
       </c>
       <c r="AJ51" s="17">
-        <v>164965</v>
+        <v>725848</v>
       </c>
       <c r="AK51" s="17">
-        <v>1035884</v>
+        <v>1040505</v>
       </c>
       <c r="AL51" s="17">
-        <v>725848</v>
+        <v>691207</v>
       </c>
       <c r="AM51" s="17">
-        <v>1040505</v>
+        <v>575896</v>
       </c>
       <c r="AN51" s="17">
-        <v>691207</v>
+        <v>1348057</v>
       </c>
       <c r="AO51" s="17">
-        <v>575896</v>
+        <v>442057</v>
       </c>
       <c r="AP51" s="17">
-        <v>1348057</v>
+        <v>570042</v>
       </c>
       <c r="AQ51" s="17">
-        <v>442057</v>
+        <v>1428780</v>
       </c>
       <c r="AR51" s="17">
-        <v>570042</v>
+        <v>0</v>
       </c>
       <c r="AS51" s="17">
-        <v>1428780</v>
+        <v>1038676</v>
       </c>
       <c r="AT51" s="17">
-        <v>0</v>
+        <v>9698</v>
       </c>
       <c r="AU51" s="17">
-        <v>990682</v>
+        <v>250901</v>
       </c>
       <c r="AV51" s="17">
-        <v>9698</v>
+        <v>629197</v>
       </c>
       <c r="AW51" s="17">
-        <v>250901</v>
+        <v>485435</v>
       </c>
       <c r="AX51" s="17">
-        <v>629197</v>
+        <v>304741</v>
       </c>
       <c r="AY51" s="17">
-        <v>485435</v>
+        <v>812350</v>
       </c>
       <c r="AZ51" s="17">
-        <v>304741</v>
+        <v>989350</v>
       </c>
       <c r="BA51" s="17">
-        <v>812350</v>
+        <v>662487</v>
       </c>
       <c r="BB51" s="17">
-        <v>989350</v>
+        <v>626764</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
         <v>78</v>
       </c>
@@ -7085,7 +7085,7 @@
       <c r="BA52" s="9"/>
       <c r="BB52" s="9"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>56</v>
       </c>
@@ -7147,104 +7147,104 @@
       <c r="V53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X53" s="11" t="s">
-        <v>58</v>
+      <c r="W53" s="11">
+        <v>202488</v>
+      </c>
+      <c r="X53" s="11">
+        <v>-4875</v>
       </c>
       <c r="Y53" s="11">
-        <v>202488</v>
+        <v>-569324</v>
       </c>
       <c r="Z53" s="11">
-        <v>-4875</v>
+        <v>-6337</v>
       </c>
       <c r="AA53" s="11">
-        <v>-569324</v>
+        <v>0</v>
       </c>
       <c r="AB53" s="11">
-        <v>-6337</v>
+        <v>-580549</v>
       </c>
       <c r="AC53" s="11">
-        <v>0</v>
+        <v>-55</v>
       </c>
       <c r="AD53" s="11">
-        <v>-580549</v>
+        <v>-18626</v>
       </c>
       <c r="AE53" s="11">
-        <v>-55</v>
+        <v>-71965</v>
       </c>
       <c r="AF53" s="11">
-        <v>-18626</v>
+        <v>0</v>
       </c>
       <c r="AG53" s="11">
-        <v>-71965</v>
+        <v>-7</v>
       </c>
       <c r="AH53" s="11">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="AI53" s="11">
-        <v>-7</v>
-      </c>
-      <c r="AJ53" s="11">
-        <v>-25</v>
+        <v>-37</v>
+      </c>
+      <c r="AJ53" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK53" s="11">
-        <v>-37</v>
-      </c>
-      <c r="AL53" s="11" t="s">
-        <v>58</v>
+        <v>-7374</v>
+      </c>
+      <c r="AL53" s="11">
+        <v>-24</v>
       </c>
       <c r="AM53" s="11">
-        <v>-7374</v>
+        <v>0</v>
       </c>
       <c r="AN53" s="11">
-        <v>-24</v>
+        <v>-53322</v>
       </c>
       <c r="AO53" s="11">
-        <v>0</v>
+        <v>-5820</v>
       </c>
       <c r="AP53" s="11">
-        <v>-53322</v>
+        <v>0</v>
       </c>
       <c r="AQ53" s="11">
-        <v>-5820</v>
+        <v>-13584</v>
       </c>
       <c r="AR53" s="11">
-        <v>0</v>
+        <v>-71100</v>
       </c>
       <c r="AS53" s="11">
-        <v>-13584</v>
+        <v>-204</v>
       </c>
       <c r="AT53" s="11">
-        <v>-71100</v>
+        <v>-1014</v>
       </c>
       <c r="AU53" s="11">
-        <v>-204</v>
+        <v>-753</v>
       </c>
       <c r="AV53" s="11">
-        <v>-1014</v>
+        <v>-143899</v>
       </c>
       <c r="AW53" s="11">
-        <v>-753</v>
+        <v>-1398</v>
       </c>
       <c r="AX53" s="11">
-        <v>-143899</v>
+        <v>-104331</v>
       </c>
       <c r="AY53" s="11">
-        <v>-1398</v>
+        <v>-727</v>
       </c>
       <c r="AZ53" s="11">
-        <v>-104331</v>
+        <v>-371</v>
       </c>
       <c r="BA53" s="11">
-        <v>-727</v>
+        <v>-337</v>
       </c>
       <c r="BB53" s="11">
-        <v>-371</v>
+        <v>-25855</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
         <v>59</v>
       </c>
@@ -7306,104 +7306,104 @@
       <c r="V54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X54" s="13" t="s">
-        <v>58</v>
+      <c r="W54" s="13">
+        <v>-340</v>
+      </c>
+      <c r="X54" s="13">
+        <v>-41196</v>
       </c>
       <c r="Y54" s="13">
-        <v>-340</v>
+        <v>-6143</v>
       </c>
       <c r="Z54" s="13">
-        <v>-41196</v>
+        <v>-9412</v>
       </c>
       <c r="AA54" s="13">
-        <v>-6143</v>
+        <v>-8588</v>
       </c>
       <c r="AB54" s="13">
-        <v>-9412</v>
+        <v>-367270</v>
       </c>
       <c r="AC54" s="13">
-        <v>-8588</v>
+        <v>-465</v>
       </c>
       <c r="AD54" s="13">
-        <v>-367270</v>
+        <v>0</v>
       </c>
       <c r="AE54" s="13">
-        <v>-465</v>
+        <v>-25563</v>
       </c>
       <c r="AF54" s="13">
-        <v>0</v>
+        <v>-860</v>
       </c>
       <c r="AG54" s="13">
-        <v>-25563</v>
+        <v>-16872</v>
       </c>
       <c r="AH54" s="13">
-        <v>-860</v>
+        <v>-6798</v>
       </c>
       <c r="AI54" s="13">
-        <v>-16872</v>
-      </c>
-      <c r="AJ54" s="13">
-        <v>-6798</v>
+        <v>-10833</v>
+      </c>
+      <c r="AJ54" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK54" s="13">
-        <v>-10833</v>
-      </c>
-      <c r="AL54" s="13" t="s">
-        <v>58</v>
+        <v>-16</v>
+      </c>
+      <c r="AL54" s="13">
+        <v>-5045</v>
       </c>
       <c r="AM54" s="13">
-        <v>-16</v>
-      </c>
-      <c r="AN54" s="13">
-        <v>-5045</v>
+        <v>-3600</v>
+      </c>
+      <c r="AN54" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AO54" s="13">
-        <v>-3600</v>
-      </c>
-      <c r="AP54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ54" s="13">
         <v>-14800</v>
       </c>
+      <c r="AP54" s="13">
+        <v>-58802</v>
+      </c>
+      <c r="AQ54" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AR54" s="13">
-        <v>-58802</v>
-      </c>
-      <c r="AS54" s="13" t="s">
-        <v>58</v>
+        <v>-3997</v>
+      </c>
+      <c r="AS54" s="13">
+        <v>-10</v>
       </c>
       <c r="AT54" s="13">
-        <v>-3997</v>
+        <v>-3189</v>
       </c>
       <c r="AU54" s="13">
-        <v>-10</v>
+        <v>-1659</v>
       </c>
       <c r="AV54" s="13">
-        <v>-3189</v>
+        <v>-905</v>
       </c>
       <c r="AW54" s="13">
-        <v>-1659</v>
+        <v>-11306</v>
       </c>
       <c r="AX54" s="13">
-        <v>-905</v>
-      </c>
-      <c r="AY54" s="13">
-        <v>-11306</v>
+        <v>-17040</v>
+      </c>
+      <c r="AY54" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AZ54" s="13">
-        <v>-17040</v>
-      </c>
-      <c r="BA54" s="13" t="s">
-        <v>58</v>
+        <v>-13520</v>
+      </c>
+      <c r="BA54" s="13">
+        <v>-14504</v>
       </c>
       <c r="BB54" s="13">
-        <v>-13520</v>
+        <v>-3565</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>61</v>
       </c>
@@ -7465,104 +7465,104 @@
       <c r="V55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X55" s="11" t="s">
-        <v>58</v>
+      <c r="W55" s="11">
+        <v>-134053</v>
+      </c>
+      <c r="X55" s="11">
+        <v>-192</v>
       </c>
       <c r="Y55" s="11">
-        <v>-134053</v>
+        <v>-1671</v>
       </c>
       <c r="Z55" s="11">
-        <v>-192</v>
+        <v>0</v>
       </c>
       <c r="AA55" s="11">
-        <v>-1671</v>
+        <v>0</v>
       </c>
       <c r="AB55" s="11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC55" s="11">
-        <v>0</v>
+        <v>-216</v>
       </c>
       <c r="AD55" s="11">
+        <v>-464</v>
+      </c>
+      <c r="AE55" s="11">
+        <v>-1500</v>
+      </c>
+      <c r="AF55" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG55" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH55" s="11">
+        <v>-4532</v>
+      </c>
+      <c r="AI55" s="11">
+        <v>-2007</v>
+      </c>
+      <c r="AJ55" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK55" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL55" s="11">
+        <v>-5</v>
+      </c>
+      <c r="AM55" s="11">
+        <v>-2394</v>
+      </c>
+      <c r="AN55" s="11">
+        <v>-505</v>
+      </c>
+      <c r="AO55" s="11">
+        <v>-110</v>
+      </c>
+      <c r="AP55" s="11">
+        <v>-1012</v>
+      </c>
+      <c r="AQ55" s="11">
+        <v>-791</v>
+      </c>
+      <c r="AR55" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS55" s="11">
+        <v>-300</v>
+      </c>
+      <c r="AT55" s="11">
         <v>-1</v>
       </c>
-      <c r="AE55" s="11">
-        <v>-216</v>
-      </c>
-      <c r="AF55" s="11">
-        <v>-464</v>
-      </c>
-      <c r="AG55" s="11">
-        <v>-1500</v>
-      </c>
-      <c r="AH55" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ55" s="11">
-        <v>-4532</v>
-      </c>
-      <c r="AK55" s="11">
-        <v>-2007</v>
-      </c>
-      <c r="AL55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN55" s="11">
-        <v>-5</v>
-      </c>
-      <c r="AO55" s="11">
-        <v>-2394</v>
-      </c>
-      <c r="AP55" s="11">
-        <v>-505</v>
-      </c>
-      <c r="AQ55" s="11">
-        <v>-110</v>
-      </c>
-      <c r="AR55" s="11">
-        <v>-1012</v>
-      </c>
-      <c r="AS55" s="11">
-        <v>-791</v>
-      </c>
-      <c r="AT55" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="AU55" s="11">
-        <v>-300</v>
+        <v>-959</v>
       </c>
       <c r="AV55" s="11">
-        <v>-1</v>
+        <v>-11385</v>
       </c>
       <c r="AW55" s="11">
-        <v>-959</v>
+        <v>-1004</v>
       </c>
       <c r="AX55" s="11">
-        <v>-11385</v>
+        <v>-8</v>
       </c>
       <c r="AY55" s="11">
-        <v>-1004</v>
+        <v>-923</v>
       </c>
       <c r="AZ55" s="11">
-        <v>-8</v>
-      </c>
-      <c r="BA55" s="11">
-        <v>-923</v>
-      </c>
-      <c r="BB55" s="11">
         <v>-781</v>
       </c>
+      <c r="BA55" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB55" s="11" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="14" t="s">
         <v>79</v>
       </c>
@@ -7622,104 +7622,104 @@
       <c r="V56" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W56" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X56" s="15" t="s">
-        <v>58</v>
+      <c r="W56" s="15">
+        <v>68095</v>
+      </c>
+      <c r="X56" s="15">
+        <v>-46263</v>
       </c>
       <c r="Y56" s="15">
-        <v>68095</v>
+        <v>-577138</v>
       </c>
       <c r="Z56" s="15">
-        <v>-46263</v>
+        <v>-15749</v>
       </c>
       <c r="AA56" s="15">
-        <v>-577138</v>
+        <v>-8588</v>
       </c>
       <c r="AB56" s="15">
-        <v>-15749</v>
+        <v>-947820</v>
       </c>
       <c r="AC56" s="15">
-        <v>-8588</v>
+        <v>-736</v>
       </c>
       <c r="AD56" s="15">
-        <v>-947820</v>
+        <v>-19090</v>
       </c>
       <c r="AE56" s="15">
-        <v>-736</v>
+        <v>-99028</v>
       </c>
       <c r="AF56" s="15">
-        <v>-19090</v>
-      </c>
-      <c r="AG56" s="15">
-        <v>-99028</v>
+        <v>-860</v>
+      </c>
+      <c r="AG56" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AH56" s="15">
-        <v>-860</v>
-      </c>
-      <c r="AI56" s="15" t="s">
-        <v>58</v>
+        <v>-11355</v>
+      </c>
+      <c r="AI56" s="15">
+        <v>-12877</v>
       </c>
       <c r="AJ56" s="15">
-        <v>-11355</v>
+        <v>0</v>
       </c>
       <c r="AK56" s="15">
-        <v>-12877</v>
+        <v>-7390</v>
       </c>
       <c r="AL56" s="15">
-        <v>0</v>
+        <v>-5074</v>
       </c>
       <c r="AM56" s="15">
-        <v>-7390</v>
+        <v>-5994</v>
       </c>
       <c r="AN56" s="15">
-        <v>-5074</v>
+        <v>-53827</v>
       </c>
       <c r="AO56" s="15">
-        <v>-5994</v>
+        <v>-20730</v>
       </c>
       <c r="AP56" s="15">
-        <v>-53827</v>
+        <v>-59814</v>
       </c>
       <c r="AQ56" s="15">
-        <v>-20730</v>
+        <v>-14375</v>
       </c>
       <c r="AR56" s="15">
-        <v>-59814</v>
+        <v>-75097</v>
       </c>
       <c r="AS56" s="15">
-        <v>-14375</v>
+        <v>-514</v>
       </c>
       <c r="AT56" s="15">
-        <v>-75097</v>
+        <v>-4204</v>
       </c>
       <c r="AU56" s="15">
-        <v>-514</v>
+        <v>-3371</v>
       </c>
       <c r="AV56" s="15">
-        <v>-4204</v>
+        <v>-156189</v>
       </c>
       <c r="AW56" s="15">
-        <v>-3371</v>
+        <v>-13708</v>
       </c>
       <c r="AX56" s="15">
-        <v>-156189</v>
+        <v>-121379</v>
       </c>
       <c r="AY56" s="15">
-        <v>-13708</v>
+        <v>-1650</v>
       </c>
       <c r="AZ56" s="15">
-        <v>-121379</v>
+        <v>-14672</v>
       </c>
       <c r="BA56" s="15">
-        <v>-1650</v>
+        <v>-14841</v>
       </c>
       <c r="BB56" s="15">
-        <v>-14672</v>
+        <v>-29420</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="16" t="s">
         <v>72</v>
       </c>
@@ -7780,103 +7780,103 @@
         <v>0</v>
       </c>
       <c r="W57" s="17">
-        <v>0</v>
+        <v>7467555</v>
       </c>
       <c r="X57" s="17">
-        <v>0</v>
+        <v>6384421</v>
       </c>
       <c r="Y57" s="17">
-        <v>7467555</v>
+        <v>4856130</v>
       </c>
       <c r="Z57" s="17">
-        <v>6384421</v>
+        <v>5813442</v>
       </c>
       <c r="AA57" s="17">
-        <v>4856130</v>
+        <v>5721785</v>
       </c>
       <c r="AB57" s="17">
-        <v>5813442</v>
+        <v>5107641</v>
       </c>
       <c r="AC57" s="17">
-        <v>5721785</v>
+        <v>4378140</v>
       </c>
       <c r="AD57" s="17">
-        <v>5107641</v>
+        <v>3237621</v>
       </c>
       <c r="AE57" s="17">
-        <v>4378140</v>
+        <v>4178096</v>
       </c>
       <c r="AF57" s="17">
-        <v>3237621</v>
+        <v>1407503</v>
       </c>
       <c r="AG57" s="17">
-        <v>4178096</v>
+        <v>4150140</v>
       </c>
       <c r="AH57" s="17">
-        <v>1407503</v>
+        <v>3923881</v>
       </c>
       <c r="AI57" s="17">
-        <v>4150140</v>
+        <v>3886978</v>
       </c>
       <c r="AJ57" s="17">
-        <v>3923881</v>
+        <v>3895038</v>
       </c>
       <c r="AK57" s="17">
-        <v>3886978</v>
+        <v>4301559</v>
       </c>
       <c r="AL57" s="17">
-        <v>3895038</v>
+        <v>3657198</v>
       </c>
       <c r="AM57" s="17">
-        <v>4301559</v>
+        <v>3955674</v>
       </c>
       <c r="AN57" s="17">
-        <v>3657198</v>
+        <v>3830903</v>
       </c>
       <c r="AO57" s="17">
-        <v>3955674</v>
+        <v>2524305</v>
       </c>
       <c r="AP57" s="17">
-        <v>3830903</v>
+        <v>3563952</v>
       </c>
       <c r="AQ57" s="17">
-        <v>2524305</v>
+        <v>5024094</v>
       </c>
       <c r="AR57" s="17">
-        <v>3563952</v>
+        <v>2164990</v>
       </c>
       <c r="AS57" s="17">
-        <v>5024094</v>
+        <v>6050049</v>
       </c>
       <c r="AT57" s="17">
-        <v>2164990</v>
+        <v>6008987</v>
       </c>
       <c r="AU57" s="17">
-        <v>6002055</v>
+        <v>6180034</v>
       </c>
       <c r="AV57" s="17">
-        <v>6008987</v>
+        <v>5547967</v>
       </c>
       <c r="AW57" s="17">
-        <v>6180034</v>
+        <v>6166401</v>
       </c>
       <c r="AX57" s="17">
-        <v>5547671</v>
+        <v>5862975</v>
       </c>
       <c r="AY57" s="17">
-        <v>6166401</v>
+        <v>6491781</v>
       </c>
       <c r="AZ57" s="17">
-        <v>5862975</v>
+        <v>5216080</v>
       </c>
       <c r="BA57" s="17">
-        <v>6491781</v>
+        <v>7661249</v>
       </c>
       <c r="BB57" s="17">
-        <v>5216080</v>
+        <v>6960101</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -7931,7 +7931,7 @@
       <c r="BA58" s="1"/>
       <c r="BB58" s="1"/>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -7986,7 +7986,7 @@
       <c r="BA59" s="1"/>
       <c r="BB59" s="1"/>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -8041,7 +8041,7 @@
       <c r="BA60" s="1"/>
       <c r="BB60" s="1"/>
     </row>
-    <row r="61" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
         <v>80</v>
       </c>
@@ -8198,7 +8198,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -8253,7 +8253,7 @@
       <c r="BA62" s="1"/>
       <c r="BB62" s="1"/>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
         <v>81</v>
       </c>
@@ -8310,7 +8310,7 @@
       <c r="BA63" s="9"/>
       <c r="BB63" s="9"/>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
         <v>56</v>
       </c>
@@ -8372,104 +8372,104 @@
       <c r="V64" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W64" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X64" s="11" t="s">
-        <v>58</v>
+      <c r="W64" s="11">
+        <v>175698</v>
+      </c>
+      <c r="X64" s="11">
+        <v>179275</v>
       </c>
       <c r="Y64" s="11">
-        <v>175698</v>
+        <v>226294</v>
       </c>
       <c r="Z64" s="11">
-        <v>179275</v>
+        <v>209581</v>
       </c>
       <c r="AA64" s="11">
-        <v>226294</v>
+        <v>246499</v>
       </c>
       <c r="AB64" s="11">
-        <v>209581</v>
+        <v>271579</v>
       </c>
       <c r="AC64" s="11">
-        <v>246499</v>
+        <v>183425</v>
       </c>
       <c r="AD64" s="11">
-        <v>271579</v>
+        <v>87723</v>
       </c>
       <c r="AE64" s="11">
-        <v>183425</v>
+        <v>161929</v>
       </c>
       <c r="AF64" s="11">
-        <v>87723</v>
+        <v>54931</v>
       </c>
       <c r="AG64" s="11">
-        <v>161929</v>
+        <v>202331</v>
       </c>
       <c r="AH64" s="11">
-        <v>54931</v>
+        <v>180908</v>
       </c>
       <c r="AI64" s="11">
-        <v>202331</v>
+        <v>112508</v>
       </c>
       <c r="AJ64" s="11">
-        <v>180908</v>
+        <v>122016</v>
       </c>
       <c r="AK64" s="11">
-        <v>112508</v>
+        <v>206638</v>
       </c>
       <c r="AL64" s="11">
-        <v>122016</v>
+        <v>169881</v>
       </c>
       <c r="AM64" s="11">
-        <v>206638</v>
+        <v>183088</v>
       </c>
       <c r="AN64" s="11">
-        <v>169881</v>
+        <v>122448</v>
       </c>
       <c r="AO64" s="11">
-        <v>183088</v>
+        <v>76853</v>
       </c>
       <c r="AP64" s="11">
-        <v>122448</v>
+        <v>183163</v>
       </c>
       <c r="AQ64" s="11">
-        <v>76853</v>
+        <v>128537</v>
       </c>
       <c r="AR64" s="11">
-        <v>183163</v>
+        <v>162306</v>
       </c>
       <c r="AS64" s="11">
-        <v>128537</v>
+        <v>221750</v>
       </c>
       <c r="AT64" s="11">
-        <v>162306</v>
+        <v>346731</v>
       </c>
       <c r="AU64" s="11">
-        <v>221794</v>
+        <v>333646</v>
       </c>
       <c r="AV64" s="11">
-        <v>346731</v>
+        <v>238049</v>
       </c>
       <c r="AW64" s="11">
-        <v>333646</v>
+        <v>339312</v>
       </c>
       <c r="AX64" s="11">
-        <v>238049</v>
+        <v>389193</v>
       </c>
       <c r="AY64" s="11">
-        <v>339312</v>
+        <v>436327</v>
       </c>
       <c r="AZ64" s="11">
-        <v>389193</v>
+        <v>459801</v>
       </c>
       <c r="BA64" s="11">
-        <v>436327</v>
+        <v>504138</v>
       </c>
       <c r="BB64" s="11">
-        <v>459801</v>
+        <v>630166</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
         <v>59</v>
       </c>
@@ -8531,104 +8531,104 @@
       <c r="V65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W65" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X65" s="13" t="s">
-        <v>58</v>
+      <c r="W65" s="13">
+        <v>378658</v>
+      </c>
+      <c r="X65" s="13">
+        <v>308141</v>
       </c>
       <c r="Y65" s="13">
-        <v>378658</v>
+        <v>511104</v>
       </c>
       <c r="Z65" s="13">
-        <v>308141</v>
+        <v>397910</v>
       </c>
       <c r="AA65" s="13">
-        <v>511104</v>
+        <v>329395</v>
       </c>
       <c r="AB65" s="13">
-        <v>397910</v>
+        <v>362078</v>
       </c>
       <c r="AC65" s="13">
-        <v>329395</v>
+        <v>331609</v>
       </c>
       <c r="AD65" s="13">
-        <v>362078</v>
+        <v>365926</v>
       </c>
       <c r="AE65" s="13">
-        <v>331609</v>
+        <v>107591</v>
       </c>
       <c r="AF65" s="13">
-        <v>365926</v>
+        <v>215735</v>
       </c>
       <c r="AG65" s="13">
-        <v>107591</v>
+        <v>458357</v>
       </c>
       <c r="AH65" s="13">
-        <v>215735</v>
+        <v>400907</v>
       </c>
       <c r="AI65" s="13">
-        <v>458357</v>
+        <v>446114</v>
       </c>
       <c r="AJ65" s="13">
-        <v>400907</v>
+        <v>373842</v>
       </c>
       <c r="AK65" s="13">
-        <v>446114</v>
+        <v>326435</v>
       </c>
       <c r="AL65" s="13">
-        <v>373842</v>
+        <v>498999</v>
       </c>
       <c r="AM65" s="13">
-        <v>326435</v>
+        <v>296691</v>
       </c>
       <c r="AN65" s="13">
-        <v>498999</v>
+        <v>312673</v>
       </c>
       <c r="AO65" s="13">
-        <v>296691</v>
+        <v>336949</v>
       </c>
       <c r="AP65" s="13">
-        <v>312673</v>
+        <v>402096</v>
       </c>
       <c r="AQ65" s="13">
-        <v>336949</v>
+        <v>303042</v>
       </c>
       <c r="AR65" s="13">
-        <v>402096</v>
+        <v>236235</v>
       </c>
       <c r="AS65" s="13">
-        <v>303042</v>
+        <v>566618</v>
       </c>
       <c r="AT65" s="13">
-        <v>236235</v>
+        <v>543343</v>
       </c>
       <c r="AU65" s="13">
-        <v>566725</v>
+        <v>631974</v>
       </c>
       <c r="AV65" s="13">
-        <v>543343</v>
+        <v>737071</v>
       </c>
       <c r="AW65" s="13">
-        <v>631974</v>
+        <v>669809</v>
       </c>
       <c r="AX65" s="13">
-        <v>737071</v>
+        <v>720235</v>
       </c>
       <c r="AY65" s="13">
-        <v>669809</v>
+        <v>845921</v>
       </c>
       <c r="AZ65" s="13">
-        <v>720235</v>
+        <v>933166</v>
       </c>
       <c r="BA65" s="13">
-        <v>845921</v>
+        <v>921991</v>
       </c>
       <c r="BB65" s="13">
-        <v>933166</v>
+        <v>1118369</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
         <v>61</v>
       </c>
@@ -8690,104 +8690,104 @@
       <c r="V66" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W66" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X66" s="11" t="s">
-        <v>58</v>
+      <c r="W66" s="11">
+        <v>100639</v>
+      </c>
+      <c r="X66" s="11">
+        <v>215719</v>
       </c>
       <c r="Y66" s="11">
-        <v>100639</v>
+        <v>154540</v>
       </c>
       <c r="Z66" s="11">
-        <v>215719</v>
+        <v>111735</v>
       </c>
       <c r="AA66" s="11">
-        <v>154540</v>
+        <v>86533</v>
       </c>
       <c r="AB66" s="11">
-        <v>111735</v>
+        <v>200009</v>
       </c>
       <c r="AC66" s="11">
-        <v>86533</v>
+        <v>315384</v>
       </c>
       <c r="AD66" s="11">
-        <v>200009</v>
+        <v>538195</v>
       </c>
       <c r="AE66" s="11">
-        <v>315384</v>
+        <v>462703</v>
       </c>
       <c r="AF66" s="11">
-        <v>538195</v>
+        <v>324401</v>
       </c>
       <c r="AG66" s="11">
-        <v>462703</v>
+        <v>434472</v>
       </c>
       <c r="AH66" s="11">
-        <v>324401</v>
+        <v>559704</v>
       </c>
       <c r="AI66" s="11">
-        <v>434472</v>
+        <v>547471</v>
       </c>
       <c r="AJ66" s="11">
-        <v>559704</v>
+        <v>375414</v>
       </c>
       <c r="AK66" s="11">
-        <v>547471</v>
+        <v>815136</v>
       </c>
       <c r="AL66" s="11">
-        <v>375414</v>
+        <v>566952</v>
       </c>
       <c r="AM66" s="11">
-        <v>815136</v>
+        <v>663856</v>
       </c>
       <c r="AN66" s="11">
-        <v>566952</v>
+        <v>771714</v>
       </c>
       <c r="AO66" s="11">
-        <v>663856</v>
+        <v>904109</v>
       </c>
       <c r="AP66" s="11">
-        <v>771714</v>
+        <v>1352562</v>
       </c>
       <c r="AQ66" s="11">
-        <v>904109</v>
+        <v>381515</v>
       </c>
       <c r="AR66" s="11">
-        <v>1352562</v>
+        <v>708617</v>
       </c>
       <c r="AS66" s="11">
-        <v>381515</v>
+        <v>807121</v>
       </c>
       <c r="AT66" s="11">
-        <v>708617</v>
+        <v>999338</v>
       </c>
       <c r="AU66" s="11">
-        <v>810988</v>
+        <v>1028000</v>
       </c>
       <c r="AV66" s="11">
-        <v>999338</v>
+        <v>714478</v>
       </c>
       <c r="AW66" s="11">
-        <v>1028000</v>
+        <v>1129687</v>
       </c>
       <c r="AX66" s="11">
-        <v>714478</v>
+        <v>707418</v>
       </c>
       <c r="AY66" s="11">
-        <v>1129687</v>
+        <v>1001682</v>
       </c>
       <c r="AZ66" s="11">
-        <v>707418</v>
+        <v>999340</v>
       </c>
       <c r="BA66" s="11">
-        <v>1001682</v>
+        <v>946965</v>
       </c>
       <c r="BB66" s="11">
-        <v>999340</v>
+        <v>790969</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="14" t="s">
         <v>75</v>
       </c>
@@ -8848,103 +8848,103 @@
         <v>0</v>
       </c>
       <c r="W67" s="15">
-        <v>0</v>
+        <v>654995</v>
       </c>
       <c r="X67" s="15">
-        <v>0</v>
+        <v>703135</v>
       </c>
       <c r="Y67" s="15">
-        <v>654995</v>
+        <v>891938</v>
       </c>
       <c r="Z67" s="15">
-        <v>703135</v>
+        <v>719226</v>
       </c>
       <c r="AA67" s="15">
-        <v>891938</v>
+        <v>662427</v>
       </c>
       <c r="AB67" s="15">
-        <v>719226</v>
+        <v>833666</v>
       </c>
       <c r="AC67" s="15">
-        <v>662427</v>
+        <v>830418</v>
       </c>
       <c r="AD67" s="15">
-        <v>833666</v>
+        <v>991844</v>
       </c>
       <c r="AE67" s="15">
-        <v>830418</v>
+        <v>732223</v>
       </c>
       <c r="AF67" s="15">
-        <v>991844</v>
+        <v>595067</v>
       </c>
       <c r="AG67" s="15">
-        <v>732223</v>
+        <v>1095160</v>
       </c>
       <c r="AH67" s="15">
-        <v>595067</v>
+        <v>1141519</v>
       </c>
       <c r="AI67" s="15">
-        <v>1095160</v>
+        <v>1106093</v>
       </c>
       <c r="AJ67" s="15">
-        <v>1141519</v>
+        <v>871272</v>
       </c>
       <c r="AK67" s="15">
-        <v>1106093</v>
+        <v>1348209</v>
       </c>
       <c r="AL67" s="15">
-        <v>871272</v>
+        <v>1235832</v>
       </c>
       <c r="AM67" s="15">
-        <v>1348209</v>
+        <v>1143635</v>
       </c>
       <c r="AN67" s="15">
-        <v>1235832</v>
+        <v>1206835</v>
       </c>
       <c r="AO67" s="15">
-        <v>1143635</v>
+        <v>1317911</v>
       </c>
       <c r="AP67" s="15">
-        <v>1206835</v>
+        <v>1937821</v>
       </c>
       <c r="AQ67" s="15">
-        <v>1317911</v>
+        <v>813094</v>
       </c>
       <c r="AR67" s="15">
-        <v>1937821</v>
+        <v>1107158</v>
       </c>
       <c r="AS67" s="15">
-        <v>813094</v>
+        <v>1595489</v>
       </c>
       <c r="AT67" s="15">
-        <v>1107158</v>
+        <v>1889412</v>
       </c>
       <c r="AU67" s="15">
-        <v>1599507</v>
+        <v>1993620</v>
       </c>
       <c r="AV67" s="15">
-        <v>1889412</v>
+        <v>1689598</v>
       </c>
       <c r="AW67" s="15">
-        <v>1993620</v>
+        <v>2138808</v>
       </c>
       <c r="AX67" s="15">
-        <v>1689598</v>
+        <v>1816846</v>
       </c>
       <c r="AY67" s="15">
-        <v>2138808</v>
+        <v>2283930</v>
       </c>
       <c r="AZ67" s="15">
-        <v>1816846</v>
+        <v>2392307</v>
       </c>
       <c r="BA67" s="15">
-        <v>2283930</v>
+        <v>2373094</v>
       </c>
       <c r="BB67" s="15">
-        <v>2392307</v>
+        <v>2539504</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
         <v>83</v>
       </c>
@@ -9001,7 +9001,7 @@
       <c r="BA68" s="9"/>
       <c r="BB68" s="9"/>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>56</v>
       </c>
@@ -9063,17 +9063,17 @@
       <c r="V69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W69" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X69" s="11" t="s">
-        <v>58</v>
+      <c r="W69" s="11">
+        <v>8</v>
+      </c>
+      <c r="X69" s="11">
+        <v>2302</v>
       </c>
       <c r="Y69" s="11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Z69" s="11">
-        <v>2302</v>
+        <v>0</v>
       </c>
       <c r="AA69" s="11">
         <v>0</v>
@@ -9103,25 +9103,25 @@
         <v>0</v>
       </c>
       <c r="AJ69" s="11">
-        <v>0</v>
+        <v>3693</v>
       </c>
       <c r="AK69" s="11">
         <v>0</v>
       </c>
       <c r="AL69" s="11">
-        <v>3693</v>
+        <v>0</v>
       </c>
       <c r="AM69" s="11">
         <v>0</v>
       </c>
       <c r="AN69" s="11">
-        <v>0</v>
+        <v>6268</v>
       </c>
       <c r="AO69" s="11">
         <v>0</v>
       </c>
       <c r="AP69" s="11">
-        <v>6268</v>
+        <v>0</v>
       </c>
       <c r="AQ69" s="11">
         <v>0</v>
@@ -9139,13 +9139,13 @@
         <v>0</v>
       </c>
       <c r="AV69" s="11">
-        <v>0</v>
+        <v>10342</v>
       </c>
       <c r="AW69" s="11">
         <v>0</v>
       </c>
       <c r="AX69" s="11">
-        <v>10342</v>
+        <v>0</v>
       </c>
       <c r="AY69" s="11">
         <v>0</v>
@@ -9160,7 +9160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
         <v>59</v>
       </c>
@@ -9222,20 +9222,20 @@
       <c r="V70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W70" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X70" s="13" t="s">
-        <v>58</v>
+      <c r="W70" s="13">
+        <v>71</v>
+      </c>
+      <c r="X70" s="13">
+        <v>0</v>
       </c>
       <c r="Y70" s="13">
-        <v>71</v>
+        <v>4176</v>
       </c>
       <c r="Z70" s="13">
         <v>0</v>
       </c>
       <c r="AA70" s="13">
-        <v>4176</v>
+        <v>0</v>
       </c>
       <c r="AB70" s="13">
         <v>0</v>
@@ -9244,13 +9244,13 @@
         <v>0</v>
       </c>
       <c r="AD70" s="13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE70" s="13">
         <v>0</v>
       </c>
       <c r="AF70" s="13">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG70" s="13">
         <v>0</v>
@@ -9289,22 +9289,22 @@
         <v>0</v>
       </c>
       <c r="AS70" s="13">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="AT70" s="13">
         <v>0</v>
       </c>
       <c r="AU70" s="13">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="AV70" s="13">
         <v>0</v>
       </c>
       <c r="AW70" s="13">
-        <v>374</v>
+        <v>0</v>
       </c>
       <c r="AX70" s="13">
-        <v>-39</v>
+        <v>0</v>
       </c>
       <c r="AY70" s="13">
         <v>0</v>
@@ -9319,7 +9319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
         <v>61</v>
       </c>
@@ -9381,23 +9381,23 @@
       <c r="V71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W71" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X71" s="11" t="s">
-        <v>58</v>
+      <c r="W71" s="11">
+        <v>91925</v>
+      </c>
+      <c r="X71" s="11">
+        <v>4920</v>
       </c>
       <c r="Y71" s="11">
-        <v>91925</v>
+        <v>14360</v>
       </c>
       <c r="Z71" s="11">
-        <v>4920</v>
+        <v>18905</v>
       </c>
       <c r="AA71" s="11">
-        <v>14360</v>
+        <v>0</v>
       </c>
       <c r="AB71" s="11">
-        <v>18905</v>
+        <v>0</v>
       </c>
       <c r="AC71" s="11">
         <v>0</v>
@@ -9412,19 +9412,19 @@
         <v>0</v>
       </c>
       <c r="AG71" s="11">
-        <v>0</v>
+        <v>6802</v>
       </c>
       <c r="AH71" s="11">
-        <v>0</v>
+        <v>24639</v>
       </c>
       <c r="AI71" s="11">
-        <v>6802</v>
+        <v>198</v>
       </c>
       <c r="AJ71" s="11">
-        <v>24639</v>
+        <v>0</v>
       </c>
       <c r="AK71" s="11">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="AL71" s="11">
         <v>0</v>
@@ -9439,31 +9439,31 @@
         <v>0</v>
       </c>
       <c r="AP71" s="11">
-        <v>0</v>
+        <v>27516</v>
       </c>
       <c r="AQ71" s="11">
-        <v>0</v>
+        <v>213324</v>
       </c>
       <c r="AR71" s="11">
-        <v>27516</v>
+        <v>0</v>
       </c>
       <c r="AS71" s="11">
-        <v>213324</v>
+        <v>60450</v>
       </c>
       <c r="AT71" s="11">
         <v>0</v>
       </c>
       <c r="AU71" s="11">
-        <v>59070</v>
+        <v>84</v>
       </c>
       <c r="AV71" s="11">
-        <v>0</v>
+        <v>38731</v>
       </c>
       <c r="AW71" s="11">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="AX71" s="11">
-        <v>38717</v>
+        <v>0</v>
       </c>
       <c r="AY71" s="11">
         <v>0</v>
@@ -9475,10 +9475,10 @@
         <v>0</v>
       </c>
       <c r="BB71" s="11">
-        <v>0</v>
+        <v>179496</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="14" t="s">
         <v>77</v>
       </c>
@@ -9539,88 +9539,88 @@
         <v>0</v>
       </c>
       <c r="W72" s="15">
-        <v>0</v>
+        <v>92004</v>
       </c>
       <c r="X72" s="15">
-        <v>0</v>
+        <v>7222</v>
       </c>
       <c r="Y72" s="15">
-        <v>92004</v>
+        <v>18536</v>
       </c>
       <c r="Z72" s="15">
-        <v>7222</v>
+        <v>18905</v>
       </c>
       <c r="AA72" s="15">
-        <v>18536</v>
+        <v>0</v>
       </c>
       <c r="AB72" s="15">
-        <v>18905</v>
+        <v>0</v>
       </c>
       <c r="AC72" s="15">
         <v>0</v>
       </c>
       <c r="AD72" s="15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE72" s="15">
         <v>0</v>
       </c>
       <c r="AF72" s="15">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG72" s="15">
-        <v>0</v>
+        <v>6802</v>
       </c>
       <c r="AH72" s="15">
-        <v>0</v>
+        <v>24639</v>
       </c>
       <c r="AI72" s="15">
-        <v>6802</v>
+        <v>198</v>
       </c>
       <c r="AJ72" s="15">
-        <v>24639</v>
+        <v>3693</v>
       </c>
       <c r="AK72" s="15">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="AL72" s="15">
-        <v>3693</v>
+        <v>0</v>
       </c>
       <c r="AM72" s="15">
         <v>0</v>
       </c>
       <c r="AN72" s="15">
-        <v>0</v>
+        <v>6268</v>
       </c>
       <c r="AO72" s="15">
         <v>0</v>
       </c>
       <c r="AP72" s="15">
-        <v>6268</v>
+        <v>27516</v>
       </c>
       <c r="AQ72" s="15">
-        <v>0</v>
+        <v>213324</v>
       </c>
       <c r="AR72" s="15">
-        <v>27516</v>
+        <v>0</v>
       </c>
       <c r="AS72" s="15">
-        <v>213324</v>
+        <v>60820</v>
       </c>
       <c r="AT72" s="15">
         <v>0</v>
       </c>
       <c r="AU72" s="15">
-        <v>59440</v>
+        <v>458</v>
       </c>
       <c r="AV72" s="15">
-        <v>0</v>
+        <v>49073</v>
       </c>
       <c r="AW72" s="15">
-        <v>458</v>
+        <v>0</v>
       </c>
       <c r="AX72" s="15">
-        <v>49020</v>
+        <v>0</v>
       </c>
       <c r="AY72" s="15">
         <v>0</v>
@@ -9632,10 +9632,10 @@
         <v>0</v>
       </c>
       <c r="BB72" s="15">
-        <v>0</v>
+        <v>179496</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
         <v>84</v>
       </c>
@@ -9692,7 +9692,7 @@
       <c r="BA73" s="9"/>
       <c r="BB73" s="9"/>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
         <v>56</v>
       </c>
@@ -9754,39 +9754,39 @@
       <c r="V74" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W74" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X74" s="11" t="s">
-        <v>58</v>
+      <c r="W74" s="11">
+        <v>31217</v>
+      </c>
+      <c r="X74" s="11">
+        <v>30137</v>
       </c>
       <c r="Y74" s="11">
-        <v>31217</v>
+        <v>42063</v>
       </c>
       <c r="Z74" s="11">
-        <v>30137</v>
+        <v>27755</v>
       </c>
       <c r="AA74" s="11">
-        <v>42063</v>
+        <v>66664</v>
       </c>
       <c r="AB74" s="11">
-        <v>27755</v>
+        <v>55663</v>
       </c>
       <c r="AC74" s="11">
-        <v>66664</v>
+        <v>33100</v>
       </c>
       <c r="AD74" s="11">
-        <v>55663</v>
+        <v>44555</v>
       </c>
       <c r="AE74" s="11">
-        <v>33100</v>
-      </c>
-      <c r="AF74" s="11">
-        <v>44555</v>
-      </c>
-      <c r="AG74" s="11">
         <v>44474</v>
       </c>
+      <c r="AF74" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG74" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH74" s="11" t="s">
         <v>58</v>
       </c>
@@ -9814,44 +9814,44 @@
       <c r="AP74" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ74" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR74" s="11" t="s">
-        <v>58</v>
+      <c r="AQ74" s="11">
+        <v>70055</v>
+      </c>
+      <c r="AR74" s="11">
+        <v>0</v>
       </c>
       <c r="AS74" s="11">
-        <v>70055</v>
+        <v>76172</v>
       </c>
       <c r="AT74" s="11">
-        <v>0</v>
+        <v>776</v>
       </c>
       <c r="AU74" s="11">
-        <v>73532</v>
+        <v>18932</v>
       </c>
       <c r="AV74" s="11">
-        <v>776</v>
+        <v>49360</v>
       </c>
       <c r="AW74" s="11">
-        <v>18932</v>
+        <v>40006</v>
       </c>
       <c r="AX74" s="11">
-        <v>49360</v>
+        <v>24379</v>
       </c>
       <c r="AY74" s="11">
-        <v>40006</v>
+        <v>65013</v>
       </c>
       <c r="AZ74" s="11">
-        <v>24379</v>
+        <v>84545</v>
       </c>
       <c r="BA74" s="11">
-        <v>65013</v>
+        <v>42204</v>
       </c>
       <c r="BB74" s="11">
-        <v>84545</v>
+        <v>46967</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="12" t="s">
         <v>59</v>
       </c>
@@ -9913,39 +9913,39 @@
       <c r="V75" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W75" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X75" s="13" t="s">
-        <v>58</v>
+      <c r="W75" s="13">
+        <v>0</v>
+      </c>
+      <c r="X75" s="13">
+        <v>977</v>
       </c>
       <c r="Y75" s="13">
-        <v>0</v>
+        <v>4271</v>
       </c>
       <c r="Z75" s="13">
-        <v>977</v>
+        <v>41</v>
       </c>
       <c r="AA75" s="13">
-        <v>4271</v>
+        <v>0</v>
       </c>
       <c r="AB75" s="13">
-        <v>41</v>
+        <v>598</v>
       </c>
       <c r="AC75" s="13">
-        <v>0</v>
+        <v>3816</v>
       </c>
       <c r="AD75" s="13">
-        <v>598</v>
+        <v>0</v>
       </c>
       <c r="AE75" s="13">
-        <v>3816</v>
-      </c>
-      <c r="AF75" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG75" s="13">
         <v>4219</v>
       </c>
+      <c r="AF75" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG75" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AH75" s="13" t="s">
         <v>58</v>
       </c>
@@ -9973,14 +9973,14 @@
       <c r="AP75" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ75" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR75" s="13" t="s">
-        <v>58</v>
+      <c r="AQ75" s="13">
+        <v>36346</v>
+      </c>
+      <c r="AR75" s="13">
+        <v>0</v>
       </c>
       <c r="AS75" s="13">
-        <v>36346</v>
+        <v>0</v>
       </c>
       <c r="AT75" s="13">
         <v>0</v>
@@ -10004,13 +10004,13 @@
         <v>0</v>
       </c>
       <c r="BA75" s="13">
-        <v>0</v>
+        <v>27481</v>
       </c>
       <c r="BB75" s="13">
-        <v>0</v>
+        <v>7934</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
         <v>61</v>
       </c>
@@ -10072,11 +10072,11 @@
       <c r="V76" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W76" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X76" s="11" t="s">
-        <v>58</v>
+      <c r="W76" s="11">
+        <v>0</v>
+      </c>
+      <c r="X76" s="11">
+        <v>0</v>
       </c>
       <c r="Y76" s="11">
         <v>0</v>
@@ -10085,26 +10085,26 @@
         <v>0</v>
       </c>
       <c r="AA76" s="11">
-        <v>0</v>
+        <v>2997</v>
       </c>
       <c r="AB76" s="11">
-        <v>0</v>
+        <v>2857</v>
       </c>
       <c r="AC76" s="11">
-        <v>2997</v>
+        <v>2981</v>
       </c>
       <c r="AD76" s="11">
-        <v>2857</v>
+        <v>0</v>
       </c>
       <c r="AE76" s="11">
-        <v>2981</v>
-      </c>
-      <c r="AF76" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG76" s="11">
         <v>629</v>
       </c>
+      <c r="AF76" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG76" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH76" s="11" t="s">
         <v>58</v>
       </c>
@@ -10132,20 +10132,20 @@
       <c r="AP76" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ76" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR76" s="11" t="s">
-        <v>58</v>
+      <c r="AQ76" s="11">
+        <v>222</v>
+      </c>
+      <c r="AR76" s="11">
+        <v>0</v>
       </c>
       <c r="AS76" s="11">
-        <v>222</v>
+        <v>17250</v>
       </c>
       <c r="AT76" s="11">
         <v>0</v>
       </c>
       <c r="AU76" s="11">
-        <v>17252</v>
+        <v>0</v>
       </c>
       <c r="AV76" s="11">
         <v>0</v>
@@ -10157,19 +10157,19 @@
         <v>0</v>
       </c>
       <c r="AY76" s="11">
-        <v>0</v>
+        <v>1704</v>
       </c>
       <c r="AZ76" s="11">
         <v>0</v>
       </c>
       <c r="BA76" s="11">
-        <v>1704</v>
+        <v>0</v>
       </c>
       <c r="BB76" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="12" t="s">
         <v>66</v>
       </c>
@@ -10258,45 +10258,45 @@
       <c r="AE77" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF77" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG77" s="13" t="s">
-        <v>58</v>
+      <c r="AF77" s="13">
+        <v>2345</v>
+      </c>
+      <c r="AG77" s="13">
+        <v>0</v>
       </c>
       <c r="AH77" s="13">
-        <v>2345</v>
+        <v>5727</v>
       </c>
       <c r="AI77" s="13">
-        <v>0</v>
+        <v>58810</v>
       </c>
       <c r="AJ77" s="13">
-        <v>5727</v>
+        <v>32754</v>
       </c>
       <c r="AK77" s="13">
-        <v>58810</v>
+        <v>53834</v>
       </c>
       <c r="AL77" s="13">
-        <v>32754</v>
+        <v>43127</v>
       </c>
       <c r="AM77" s="13">
-        <v>53834</v>
+        <v>24820</v>
       </c>
       <c r="AN77" s="13">
-        <v>43127</v>
+        <v>80408</v>
       </c>
       <c r="AO77" s="13">
-        <v>24820</v>
+        <v>28553</v>
       </c>
       <c r="AP77" s="13">
-        <v>80408</v>
-      </c>
-      <c r="AQ77" s="13">
-        <v>28553</v>
-      </c>
-      <c r="AR77" s="13">
         <v>37920</v>
       </c>
+      <c r="AQ77" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR77" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AS77" s="13" t="s">
         <v>58</v>
       </c>
@@ -10328,7 +10328,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
         <v>68</v>
       </c>
@@ -10417,14 +10417,14 @@
       <c r="AE78" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF78" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG78" s="11" t="s">
-        <v>58</v>
+      <c r="AF78" s="11">
+        <v>9745</v>
+      </c>
+      <c r="AG78" s="11">
+        <v>0</v>
       </c>
       <c r="AH78" s="11">
-        <v>9745</v>
+        <v>0</v>
       </c>
       <c r="AI78" s="11">
         <v>0</v>
@@ -10433,29 +10433,29 @@
         <v>0</v>
       </c>
       <c r="AK78" s="11">
-        <v>0</v>
+        <v>2764</v>
       </c>
       <c r="AL78" s="11">
         <v>0</v>
       </c>
       <c r="AM78" s="11">
-        <v>2764</v>
+        <v>532</v>
       </c>
       <c r="AN78" s="11">
         <v>0</v>
       </c>
       <c r="AO78" s="11">
-        <v>532</v>
+        <v>0</v>
       </c>
       <c r="AP78" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ78" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR78" s="11">
         <v>5556</v>
       </c>
+      <c r="AQ78" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR78" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AS78" s="11" t="s">
         <v>58</v>
       </c>
@@ -10487,7 +10487,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="12" t="s">
         <v>70</v>
       </c>
@@ -10576,45 +10576,45 @@
       <c r="AE79" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF79" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG79" s="13" t="s">
-        <v>58</v>
+      <c r="AF79" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG79" s="13">
+        <v>5171</v>
       </c>
       <c r="AH79" s="13">
-        <v>0</v>
+        <v>1682</v>
       </c>
       <c r="AI79" s="13">
-        <v>5171</v>
+        <v>8463</v>
       </c>
       <c r="AJ79" s="13">
-        <v>1682</v>
+        <v>29259</v>
       </c>
       <c r="AK79" s="13">
-        <v>8463</v>
+        <v>24297</v>
       </c>
       <c r="AL79" s="13">
-        <v>29259</v>
+        <v>8111</v>
       </c>
       <c r="AM79" s="13">
-        <v>24297</v>
+        <v>24943</v>
       </c>
       <c r="AN79" s="13">
-        <v>8111</v>
+        <v>12818</v>
       </c>
       <c r="AO79" s="13">
-        <v>24943</v>
+        <v>0</v>
       </c>
       <c r="AP79" s="13">
-        <v>12818</v>
-      </c>
-      <c r="AQ79" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR79" s="13">
         <v>540</v>
       </c>
+      <c r="AQ79" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR79" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AS79" s="13" t="s">
         <v>58</v>
       </c>
@@ -10646,7 +10646,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="16" t="s">
         <v>71</v>
       </c>
@@ -10708,104 +10708,104 @@
       <c r="V80" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W80" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X80" s="17" t="s">
-        <v>58</v>
+      <c r="W80" s="17">
+        <v>31217</v>
+      </c>
+      <c r="X80" s="17">
+        <v>31114</v>
       </c>
       <c r="Y80" s="17">
-        <v>31217</v>
+        <v>46334</v>
       </c>
       <c r="Z80" s="17">
-        <v>31114</v>
+        <v>27796</v>
       </c>
       <c r="AA80" s="17">
-        <v>46334</v>
+        <v>69661</v>
       </c>
       <c r="AB80" s="17">
-        <v>27796</v>
+        <v>59118</v>
       </c>
       <c r="AC80" s="17">
-        <v>69661</v>
+        <v>39897</v>
       </c>
       <c r="AD80" s="17">
-        <v>59118</v>
+        <v>44555</v>
       </c>
       <c r="AE80" s="17">
-        <v>39897</v>
+        <v>49322</v>
       </c>
       <c r="AF80" s="17">
-        <v>44555</v>
+        <v>12090</v>
       </c>
       <c r="AG80" s="17">
-        <v>49322</v>
+        <v>5171</v>
       </c>
       <c r="AH80" s="17">
-        <v>12090</v>
+        <v>7409</v>
       </c>
       <c r="AI80" s="17">
-        <v>5171</v>
+        <v>67273</v>
       </c>
       <c r="AJ80" s="17">
-        <v>7409</v>
+        <v>62013</v>
       </c>
       <c r="AK80" s="17">
-        <v>67273</v>
+        <v>80895</v>
       </c>
       <c r="AL80" s="17">
-        <v>62013</v>
+        <v>51238</v>
       </c>
       <c r="AM80" s="17">
-        <v>80895</v>
+        <v>50295</v>
       </c>
       <c r="AN80" s="17">
-        <v>51238</v>
+        <v>93226</v>
       </c>
       <c r="AO80" s="17">
-        <v>50295</v>
+        <v>28553</v>
       </c>
       <c r="AP80" s="17">
-        <v>93226</v>
+        <v>44016</v>
       </c>
       <c r="AQ80" s="17">
-        <v>28553</v>
+        <v>106623</v>
       </c>
       <c r="AR80" s="17">
-        <v>44016</v>
+        <v>0</v>
       </c>
       <c r="AS80" s="17">
-        <v>106623</v>
+        <v>93422</v>
       </c>
       <c r="AT80" s="17">
-        <v>0</v>
+        <v>776</v>
       </c>
       <c r="AU80" s="17">
-        <v>90784</v>
+        <v>18932</v>
       </c>
       <c r="AV80" s="17">
-        <v>776</v>
+        <v>49360</v>
       </c>
       <c r="AW80" s="17">
-        <v>18932</v>
+        <v>40006</v>
       </c>
       <c r="AX80" s="17">
-        <v>49360</v>
+        <v>24379</v>
       </c>
       <c r="AY80" s="17">
-        <v>40006</v>
+        <v>66717</v>
       </c>
       <c r="AZ80" s="17">
-        <v>24379</v>
+        <v>84545</v>
       </c>
       <c r="BA80" s="17">
-        <v>66717</v>
+        <v>69685</v>
       </c>
       <c r="BB80" s="17">
-        <v>84545</v>
+        <v>54901</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
         <v>85</v>
       </c>
@@ -10862,7 +10862,7 @@
       <c r="BA81" s="9"/>
       <c r="BB81" s="9"/>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
         <v>56</v>
       </c>
@@ -10924,104 +10924,104 @@
       <c r="V82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W82" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X82" s="11" t="s">
-        <v>58</v>
+      <c r="W82" s="11">
+        <v>9031</v>
+      </c>
+      <c r="X82" s="11">
+        <v>-262</v>
       </c>
       <c r="Y82" s="11">
-        <v>9031</v>
+        <v>-50221</v>
       </c>
       <c r="Z82" s="11">
-        <v>-262</v>
+        <v>-413</v>
       </c>
       <c r="AA82" s="11">
-        <v>-50221</v>
+        <v>0</v>
       </c>
       <c r="AB82" s="11">
-        <v>-413</v>
+        <v>-39274</v>
       </c>
       <c r="AC82" s="11">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="AD82" s="11">
-        <v>-39274</v>
+        <v>-2103</v>
       </c>
       <c r="AE82" s="11">
-        <v>-4</v>
+        <v>-7315</v>
       </c>
       <c r="AF82" s="11">
-        <v>-2103</v>
+        <v>0</v>
       </c>
       <c r="AG82" s="11">
-        <v>-7315</v>
+        <v>-1</v>
       </c>
       <c r="AH82" s="11">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="AI82" s="11">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AJ82" s="11">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AK82" s="11">
-        <v>-2</v>
+        <v>-2105</v>
       </c>
       <c r="AL82" s="11">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AM82" s="11">
-        <v>-2105</v>
+        <v>0</v>
       </c>
       <c r="AN82" s="11">
-        <v>-3</v>
+        <v>-3721</v>
       </c>
       <c r="AO82" s="11">
-        <v>0</v>
+        <v>-395</v>
       </c>
       <c r="AP82" s="11">
-        <v>-3721</v>
+        <v>0</v>
       </c>
       <c r="AQ82" s="11">
-        <v>-395</v>
+        <v>-950</v>
       </c>
       <c r="AR82" s="11">
-        <v>0</v>
+        <v>-5034</v>
       </c>
       <c r="AS82" s="11">
-        <v>-950</v>
+        <v>-21</v>
       </c>
       <c r="AT82" s="11">
-        <v>-5034</v>
+        <v>-92</v>
       </c>
       <c r="AU82" s="11">
-        <v>-21</v>
+        <v>-54</v>
       </c>
       <c r="AV82" s="11">
-        <v>-92</v>
+        <v>-14537</v>
       </c>
       <c r="AW82" s="11">
-        <v>-54</v>
+        <v>-71</v>
       </c>
       <c r="AX82" s="11">
-        <v>-14537</v>
+        <v>-9893</v>
       </c>
       <c r="AY82" s="11">
-        <v>-71</v>
+        <v>-58</v>
       </c>
       <c r="AZ82" s="11">
-        <v>-9893</v>
+        <v>-42</v>
       </c>
       <c r="BA82" s="11">
-        <v>-58</v>
+        <v>-48</v>
       </c>
       <c r="BB82" s="11">
-        <v>-42</v>
+        <v>-5876</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="12" t="s">
         <v>59</v>
       </c>
@@ -11083,104 +11083,104 @@
       <c r="V83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W83" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X83" s="13" t="s">
-        <v>58</v>
+      <c r="W83" s="13">
+        <v>-57</v>
+      </c>
+      <c r="X83" s="13">
+        <v>-4120</v>
       </c>
       <c r="Y83" s="13">
-        <v>-57</v>
+        <v>-2165</v>
       </c>
       <c r="Z83" s="13">
-        <v>-4120</v>
+        <v>-12254</v>
       </c>
       <c r="AA83" s="13">
-        <v>-2165</v>
+        <v>-15975</v>
       </c>
       <c r="AB83" s="13">
-        <v>-12254</v>
+        <v>-49633</v>
       </c>
       <c r="AC83" s="13">
-        <v>-15975</v>
+        <v>-385</v>
       </c>
       <c r="AD83" s="13">
-        <v>-49633</v>
+        <v>0</v>
       </c>
       <c r="AE83" s="13">
-        <v>-385</v>
+        <v>-34765</v>
       </c>
       <c r="AF83" s="13">
-        <v>0</v>
+        <v>-5160</v>
       </c>
       <c r="AG83" s="13">
-        <v>-34765</v>
+        <v>-2126</v>
       </c>
       <c r="AH83" s="13">
-        <v>-5160</v>
+        <v>-13444</v>
       </c>
       <c r="AI83" s="13">
-        <v>-2126</v>
+        <v>-17265</v>
       </c>
       <c r="AJ83" s="13">
-        <v>-13444</v>
+        <v>0</v>
       </c>
       <c r="AK83" s="13">
-        <v>-17265</v>
+        <v>-5</v>
       </c>
       <c r="AL83" s="13">
-        <v>0</v>
+        <v>-1405</v>
       </c>
       <c r="AM83" s="13">
-        <v>-5</v>
+        <v>-878</v>
       </c>
       <c r="AN83" s="13">
-        <v>-1405</v>
+        <v>0</v>
       </c>
       <c r="AO83" s="13">
-        <v>-878</v>
+        <v>-14200</v>
       </c>
       <c r="AP83" s="13">
-        <v>0</v>
+        <v>-31462</v>
       </c>
       <c r="AQ83" s="13">
-        <v>-14200</v>
+        <v>0</v>
       </c>
       <c r="AR83" s="13">
-        <v>-31462</v>
+        <v>-7338</v>
       </c>
       <c r="AS83" s="13">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AT83" s="13">
-        <v>-7338</v>
+        <v>-6721</v>
       </c>
       <c r="AU83" s="13">
-        <v>-2</v>
+        <v>-1414</v>
       </c>
       <c r="AV83" s="13">
-        <v>-6721</v>
+        <v>-373</v>
       </c>
       <c r="AW83" s="13">
-        <v>-1414</v>
+        <v>-4731</v>
       </c>
       <c r="AX83" s="13">
-        <v>-373</v>
+        <v>-10369</v>
       </c>
       <c r="AY83" s="13">
-        <v>-4731</v>
+        <v>0</v>
       </c>
       <c r="AZ83" s="13">
-        <v>-10369</v>
+        <v>-2471</v>
       </c>
       <c r="BA83" s="13">
-        <v>0</v>
+        <v>-32261</v>
       </c>
       <c r="BB83" s="13">
-        <v>-2471</v>
+        <v>-7129</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
         <v>61</v>
       </c>
@@ -11242,104 +11242,104 @@
       <c r="V84" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W84" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X84" s="11" t="s">
-        <v>58</v>
+      <c r="W84" s="11">
+        <v>-617</v>
+      </c>
+      <c r="X84" s="11">
+        <v>-286</v>
       </c>
       <c r="Y84" s="11">
-        <v>-617</v>
+        <v>-6696</v>
       </c>
       <c r="Z84" s="11">
-        <v>-286</v>
+        <v>0</v>
       </c>
       <c r="AA84" s="11">
-        <v>-6696</v>
+        <v>0</v>
       </c>
       <c r="AB84" s="11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC84" s="11">
-        <v>0</v>
+        <v>-2607</v>
       </c>
       <c r="AD84" s="11">
-        <v>-1</v>
+        <v>-45</v>
       </c>
       <c r="AE84" s="11">
-        <v>-2607</v>
+        <v>-2415</v>
       </c>
       <c r="AF84" s="11">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="AG84" s="11">
-        <v>-2415</v>
+        <v>-8</v>
       </c>
       <c r="AH84" s="11">
-        <v>0</v>
+        <v>-13287</v>
       </c>
       <c r="AI84" s="11">
-        <v>-8</v>
+        <v>-5434</v>
       </c>
       <c r="AJ84" s="11">
-        <v>-13287</v>
+        <v>0</v>
       </c>
       <c r="AK84" s="11">
-        <v>-5434</v>
+        <v>0</v>
       </c>
       <c r="AL84" s="11">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="AM84" s="11">
-        <v>0</v>
+        <v>-3847</v>
       </c>
       <c r="AN84" s="11">
-        <v>-15</v>
+        <v>-778</v>
       </c>
       <c r="AO84" s="11">
-        <v>-3847</v>
+        <v>-7165</v>
       </c>
       <c r="AP84" s="11">
-        <v>-778</v>
+        <v>-22108</v>
       </c>
       <c r="AQ84" s="11">
-        <v>-7165</v>
+        <v>-17347</v>
       </c>
       <c r="AR84" s="11">
-        <v>-22108</v>
+        <v>0</v>
       </c>
       <c r="AS84" s="11">
-        <v>-17347</v>
+        <v>-19830</v>
       </c>
       <c r="AT84" s="11">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="AU84" s="11">
-        <v>-19830</v>
+        <v>-29379</v>
       </c>
       <c r="AV84" s="11">
-        <v>-4</v>
+        <v>-24161</v>
       </c>
       <c r="AW84" s="11">
-        <v>-29379</v>
+        <v>-66072</v>
       </c>
       <c r="AX84" s="11">
-        <v>-24161</v>
+        <v>-80</v>
       </c>
       <c r="AY84" s="11">
-        <v>-66072</v>
+        <v>-20123</v>
       </c>
       <c r="AZ84" s="11">
-        <v>-80</v>
+        <v>-18745</v>
       </c>
       <c r="BA84" s="11">
-        <v>-20123</v>
+        <v>0</v>
       </c>
       <c r="BB84" s="11">
-        <v>-18745</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="14" t="s">
         <v>79</v>
       </c>
@@ -11401,104 +11401,104 @@
       <c r="V85" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W85" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X85" s="15" t="s">
-        <v>58</v>
+      <c r="W85" s="15">
+        <v>8357</v>
+      </c>
+      <c r="X85" s="15">
+        <v>-4668</v>
       </c>
       <c r="Y85" s="15">
-        <v>8357</v>
+        <v>-59082</v>
       </c>
       <c r="Z85" s="15">
-        <v>-4668</v>
+        <v>-12667</v>
       </c>
       <c r="AA85" s="15">
-        <v>-59082</v>
+        <v>-15975</v>
       </c>
       <c r="AB85" s="15">
-        <v>-12667</v>
+        <v>-88908</v>
       </c>
       <c r="AC85" s="15">
-        <v>-15975</v>
+        <v>-2996</v>
       </c>
       <c r="AD85" s="15">
-        <v>-88908</v>
+        <v>-2148</v>
       </c>
       <c r="AE85" s="15">
-        <v>-2996</v>
+        <v>-44495</v>
       </c>
       <c r="AF85" s="15">
-        <v>-2148</v>
+        <v>-5160</v>
       </c>
       <c r="AG85" s="15">
-        <v>-44495</v>
+        <v>-2135</v>
       </c>
       <c r="AH85" s="15">
-        <v>-5160</v>
+        <v>-26736</v>
       </c>
       <c r="AI85" s="15">
-        <v>-2135</v>
+        <v>-22701</v>
       </c>
       <c r="AJ85" s="15">
-        <v>-26736</v>
+        <v>0</v>
       </c>
       <c r="AK85" s="15">
-        <v>-22701</v>
+        <v>-2110</v>
       </c>
       <c r="AL85" s="15">
-        <v>0</v>
+        <v>-1423</v>
       </c>
       <c r="AM85" s="15">
-        <v>-2110</v>
+        <v>-4725</v>
       </c>
       <c r="AN85" s="15">
-        <v>-1423</v>
+        <v>-4499</v>
       </c>
       <c r="AO85" s="15">
-        <v>-4725</v>
+        <v>-21760</v>
       </c>
       <c r="AP85" s="15">
-        <v>-4499</v>
+        <v>-53570</v>
       </c>
       <c r="AQ85" s="15">
-        <v>-21760</v>
+        <v>-18297</v>
       </c>
       <c r="AR85" s="15">
-        <v>-53570</v>
+        <v>-12372</v>
       </c>
       <c r="AS85" s="15">
-        <v>-18297</v>
+        <v>-19853</v>
       </c>
       <c r="AT85" s="15">
-        <v>-12372</v>
+        <v>-6817</v>
       </c>
       <c r="AU85" s="15">
-        <v>-19853</v>
+        <v>-30847</v>
       </c>
       <c r="AV85" s="15">
-        <v>-6817</v>
+        <v>-39071</v>
       </c>
       <c r="AW85" s="15">
-        <v>-30847</v>
+        <v>-70874</v>
       </c>
       <c r="AX85" s="15">
-        <v>-39071</v>
+        <v>-20342</v>
       </c>
       <c r="AY85" s="15">
-        <v>-70874</v>
+        <v>-20181</v>
       </c>
       <c r="AZ85" s="15">
-        <v>-20342</v>
+        <v>-21258</v>
       </c>
       <c r="BA85" s="15">
-        <v>-20181</v>
+        <v>-32309</v>
       </c>
       <c r="BB85" s="15">
-        <v>-21258</v>
+        <v>-13005</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
         <v>86</v>
       </c>
@@ -11555,7 +11555,7 @@
       <c r="BA86" s="9"/>
       <c r="BB86" s="9"/>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
         <v>87</v>
       </c>
@@ -11617,38 +11617,38 @@
       <c r="V87" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W87" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X87" s="11" t="s">
-        <v>58</v>
+      <c r="W87" s="11">
+        <v>-928</v>
+      </c>
+      <c r="X87" s="11">
+        <v>-1351</v>
       </c>
       <c r="Y87" s="11">
-        <v>-928</v>
+        <v>-522</v>
       </c>
       <c r="Z87" s="11">
-        <v>-1351</v>
+        <v>-396</v>
       </c>
       <c r="AA87" s="11">
-        <v>-522</v>
+        <v>-399</v>
       </c>
       <c r="AB87" s="11">
-        <v>-396</v>
+        <v>-907</v>
       </c>
       <c r="AC87" s="11">
-        <v>-399</v>
+        <v>-295</v>
       </c>
       <c r="AD87" s="11">
-        <v>-907</v>
+        <v>-819</v>
       </c>
       <c r="AE87" s="11">
-        <v>-295</v>
+        <v>-21305</v>
       </c>
       <c r="AF87" s="11">
-        <v>-819</v>
+        <v>0</v>
       </c>
       <c r="AG87" s="11">
-        <v>-21305</v>
+        <v>0</v>
       </c>
       <c r="AH87" s="11">
         <v>0</v>
@@ -11714,7 +11714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="14" t="s">
         <v>72</v>
       </c>
@@ -11775,103 +11775,103 @@
         <v>0</v>
       </c>
       <c r="W88" s="15">
-        <v>0</v>
+        <v>785645</v>
       </c>
       <c r="X88" s="15">
-        <v>0</v>
+        <v>735452</v>
       </c>
       <c r="Y88" s="15">
-        <v>785645</v>
+        <v>897204</v>
       </c>
       <c r="Z88" s="15">
-        <v>735452</v>
+        <v>752864</v>
       </c>
       <c r="AA88" s="15">
-        <v>897204</v>
+        <v>715714</v>
       </c>
       <c r="AB88" s="15">
-        <v>752864</v>
+        <v>802969</v>
       </c>
       <c r="AC88" s="15">
-        <v>715714</v>
+        <v>867024</v>
       </c>
       <c r="AD88" s="15">
-        <v>802969</v>
+        <v>1034432</v>
       </c>
       <c r="AE88" s="15">
-        <v>867024</v>
+        <v>715745</v>
       </c>
       <c r="AF88" s="15">
-        <v>1034432</v>
+        <v>601997</v>
       </c>
       <c r="AG88" s="15">
-        <v>715745</v>
+        <v>1104998</v>
       </c>
       <c r="AH88" s="15">
-        <v>601997</v>
+        <v>1146831</v>
       </c>
       <c r="AI88" s="15">
-        <v>1104998</v>
+        <v>1150863</v>
       </c>
       <c r="AJ88" s="15">
-        <v>1146831</v>
+        <v>936978</v>
       </c>
       <c r="AK88" s="15">
-        <v>1150863</v>
+        <v>1426994</v>
       </c>
       <c r="AL88" s="15">
-        <v>936978</v>
+        <v>1285647</v>
       </c>
       <c r="AM88" s="15">
-        <v>1426994</v>
+        <v>1189205</v>
       </c>
       <c r="AN88" s="15">
-        <v>1285647</v>
+        <v>1301830</v>
       </c>
       <c r="AO88" s="15">
-        <v>1189205</v>
+        <v>1324704</v>
       </c>
       <c r="AP88" s="15">
-        <v>1301830</v>
+        <v>1955783</v>
       </c>
       <c r="AQ88" s="15">
-        <v>1324704</v>
+        <v>1114744</v>
       </c>
       <c r="AR88" s="15">
-        <v>1955783</v>
+        <v>1094786</v>
       </c>
       <c r="AS88" s="15">
-        <v>1114744</v>
+        <v>1729878</v>
       </c>
       <c r="AT88" s="15">
-        <v>1094786</v>
+        <v>1883371</v>
       </c>
       <c r="AU88" s="15">
-        <v>1729878</v>
+        <v>1982163</v>
       </c>
       <c r="AV88" s="15">
-        <v>1883371</v>
+        <v>1748960</v>
       </c>
       <c r="AW88" s="15">
-        <v>1982163</v>
+        <v>2107940</v>
       </c>
       <c r="AX88" s="15">
-        <v>1748907</v>
+        <v>1820883</v>
       </c>
       <c r="AY88" s="15">
-        <v>2107940</v>
+        <v>2330466</v>
       </c>
       <c r="AZ88" s="15">
-        <v>1820883</v>
+        <v>2455594</v>
       </c>
       <c r="BA88" s="15">
-        <v>2330466</v>
+        <v>2410470</v>
       </c>
       <c r="BB88" s="15">
-        <v>2455594</v>
+        <v>2760896</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -11926,7 +11926,7 @@
       <c r="BA89" s="1"/>
       <c r="BB89" s="1"/>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -11981,7 +11981,7 @@
       <c r="BA90" s="1"/>
       <c r="BB90" s="1"/>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -12036,7 +12036,7 @@
       <c r="BA91" s="1"/>
       <c r="BB91" s="1"/>
     </row>
-    <row r="92" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B92" s="7" t="s">
         <v>88</v>
       </c>
@@ -12193,7 +12193,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -12248,7 +12248,7 @@
       <c r="BA93" s="1"/>
       <c r="BB93" s="1"/>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
         <v>89</v>
       </c>
@@ -12305,7 +12305,7 @@
       <c r="BA94" s="9"/>
       <c r="BB94" s="9"/>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
         <v>56</v>
       </c>
@@ -12367,104 +12367,104 @@
       <c r="V95" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W95" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X95" s="11" t="s">
-        <v>58</v>
+      <c r="W95" s="11">
+        <v>50709</v>
+      </c>
+      <c r="X95" s="11">
+        <v>53844</v>
       </c>
       <c r="Y95" s="11">
-        <v>50709</v>
+        <v>114595</v>
       </c>
       <c r="Z95" s="11">
-        <v>53844</v>
+        <v>86414</v>
       </c>
       <c r="AA95" s="11">
-        <v>114595</v>
+        <v>102119</v>
       </c>
       <c r="AB95" s="11">
-        <v>86414</v>
+        <v>109090</v>
       </c>
       <c r="AC95" s="11">
-        <v>102119</v>
+        <v>121326</v>
       </c>
       <c r="AD95" s="11">
-        <v>109090</v>
+        <v>131139</v>
       </c>
       <c r="AE95" s="11">
-        <v>121326</v>
+        <v>110306</v>
       </c>
       <c r="AF95" s="11">
-        <v>131139</v>
+        <v>133604</v>
       </c>
       <c r="AG95" s="11">
-        <v>110306</v>
+        <v>114660</v>
       </c>
       <c r="AH95" s="11">
-        <v>133604</v>
+        <v>106081</v>
       </c>
       <c r="AI95" s="11">
-        <v>114660</v>
+        <v>116774</v>
       </c>
       <c r="AJ95" s="11">
-        <v>106081</v>
+        <v>92143</v>
       </c>
       <c r="AK95" s="11">
-        <v>116774</v>
+        <v>109298</v>
       </c>
       <c r="AL95" s="11">
-        <v>92143</v>
+        <v>102030</v>
       </c>
       <c r="AM95" s="11">
-        <v>109298</v>
+        <v>89458</v>
       </c>
       <c r="AN95" s="11">
-        <v>102030</v>
+        <v>96348</v>
       </c>
       <c r="AO95" s="11">
-        <v>89458</v>
+        <v>106843</v>
       </c>
       <c r="AP95" s="11">
-        <v>96348</v>
+        <v>106124</v>
       </c>
       <c r="AQ95" s="11">
-        <v>106843</v>
+        <v>69412</v>
       </c>
       <c r="AR95" s="11">
-        <v>106124</v>
+        <v>115470</v>
       </c>
       <c r="AS95" s="11">
-        <v>69412</v>
+        <v>92906</v>
       </c>
       <c r="AT95" s="11">
-        <v>115470</v>
+        <v>98395</v>
       </c>
       <c r="AU95" s="11">
-        <v>92918</v>
+        <v>101887</v>
       </c>
       <c r="AV95" s="11">
-        <v>98395</v>
+        <v>113329</v>
       </c>
       <c r="AW95" s="11">
-        <v>101887</v>
+        <v>112588</v>
       </c>
       <c r="AX95" s="11">
-        <v>113329</v>
+        <v>121261</v>
       </c>
       <c r="AY95" s="11">
-        <v>112588</v>
+        <v>133862</v>
       </c>
       <c r="AZ95" s="11">
-        <v>121261</v>
+        <v>142532</v>
       </c>
       <c r="BA95" s="11">
-        <v>133862</v>
+        <v>140478</v>
       </c>
       <c r="BB95" s="11">
-        <v>142532</v>
+        <v>168392</v>
       </c>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B96" s="12" t="s">
         <v>59</v>
       </c>
@@ -12526,104 +12526,104 @@
       <c r="V96" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W96" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X96" s="13" t="s">
-        <v>58</v>
+      <c r="W96" s="13">
+        <v>146192</v>
+      </c>
+      <c r="X96" s="13">
+        <v>145637</v>
       </c>
       <c r="Y96" s="13">
-        <v>146192</v>
+        <v>244433</v>
       </c>
       <c r="Z96" s="13">
-        <v>145637</v>
+        <v>154534</v>
       </c>
       <c r="AA96" s="13">
-        <v>244433</v>
+        <v>228867</v>
       </c>
       <c r="AB96" s="13">
-        <v>154534</v>
+        <v>185730</v>
       </c>
       <c r="AC96" s="13">
-        <v>228867</v>
+        <v>180110</v>
       </c>
       <c r="AD96" s="13">
-        <v>185730</v>
+        <v>294731</v>
       </c>
       <c r="AE96" s="13">
-        <v>180110</v>
+        <v>69514</v>
       </c>
       <c r="AF96" s="13">
-        <v>294731</v>
+        <v>257522</v>
       </c>
       <c r="AG96" s="13">
-        <v>69514</v>
+        <v>208034</v>
       </c>
       <c r="AH96" s="13">
-        <v>257522</v>
+        <v>202732</v>
       </c>
       <c r="AI96" s="13">
-        <v>208034</v>
+        <v>243231</v>
       </c>
       <c r="AJ96" s="13">
-        <v>202732</v>
+        <v>217766</v>
       </c>
       <c r="AK96" s="13">
-        <v>243231</v>
+        <v>245679</v>
       </c>
       <c r="AL96" s="13">
-        <v>217766</v>
+        <v>409640</v>
       </c>
       <c r="AM96" s="13">
-        <v>245679</v>
+        <v>231844</v>
       </c>
       <c r="AN96" s="13">
-        <v>409640</v>
+        <v>298218</v>
       </c>
       <c r="AO96" s="13">
-        <v>231844</v>
+        <v>252766</v>
       </c>
       <c r="AP96" s="13">
-        <v>298218</v>
+        <v>325268</v>
       </c>
       <c r="AQ96" s="13">
-        <v>252766</v>
+        <v>182331</v>
       </c>
       <c r="AR96" s="13">
-        <v>325268</v>
+        <v>290345</v>
       </c>
       <c r="AS96" s="13">
-        <v>182331</v>
+        <v>223074</v>
       </c>
       <c r="AT96" s="13">
-        <v>290345</v>
+        <v>227011</v>
       </c>
       <c r="AU96" s="13">
-        <v>223106</v>
+        <v>248194</v>
       </c>
       <c r="AV96" s="13">
-        <v>227011</v>
+        <v>271609</v>
       </c>
       <c r="AW96" s="13">
-        <v>248194</v>
+        <v>259085</v>
       </c>
       <c r="AX96" s="13">
-        <v>271609</v>
+        <v>301750</v>
       </c>
       <c r="AY96" s="13">
-        <v>259085</v>
+        <v>361947</v>
       </c>
       <c r="AZ96" s="13">
-        <v>301750</v>
+        <v>1000000</v>
       </c>
       <c r="BA96" s="13">
-        <v>361947</v>
+        <v>277583</v>
       </c>
       <c r="BB96" s="13">
-        <v>1000000</v>
+        <v>441811</v>
       </c>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
         <v>61</v>
       </c>
@@ -12685,104 +12685,104 @@
       <c r="V97" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W97" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X97" s="11" t="s">
-        <v>58</v>
+      <c r="W97" s="11">
+        <v>593716</v>
+      </c>
+      <c r="X97" s="11">
+        <v>3155078</v>
       </c>
       <c r="Y97" s="11">
-        <v>593716</v>
+        <v>3954149</v>
       </c>
       <c r="Z97" s="11">
-        <v>3155078</v>
+        <v>2411720</v>
       </c>
       <c r="AA97" s="11">
-        <v>3954149</v>
+        <v>2037557</v>
       </c>
       <c r="AB97" s="11">
-        <v>2411720</v>
+        <v>2624446</v>
       </c>
       <c r="AC97" s="11">
-        <v>2037557</v>
+        <v>4211971</v>
       </c>
       <c r="AD97" s="11">
-        <v>2624446</v>
+        <v>4995359</v>
       </c>
       <c r="AE97" s="11">
-        <v>4211971</v>
+        <v>15108669</v>
       </c>
       <c r="AF97" s="11">
-        <v>4995359</v>
+        <v>4257678</v>
       </c>
       <c r="AG97" s="11">
-        <v>15108669</v>
+        <v>5812568</v>
       </c>
       <c r="AH97" s="11">
-        <v>4257678</v>
+        <v>6455268</v>
       </c>
       <c r="AI97" s="11">
-        <v>5812568</v>
+        <v>8248026</v>
       </c>
       <c r="AJ97" s="11">
-        <v>6455268</v>
+        <v>5594260</v>
       </c>
       <c r="AK97" s="11">
-        <v>8248026</v>
+        <v>16582635</v>
       </c>
       <c r="AL97" s="11">
-        <v>5594260</v>
+        <v>6449232</v>
       </c>
       <c r="AM97" s="11">
-        <v>16582635</v>
+        <v>11168694</v>
       </c>
       <c r="AN97" s="11">
-        <v>6449232</v>
+        <v>11472060</v>
       </c>
       <c r="AO97" s="11">
-        <v>11168694</v>
+        <v>17859296</v>
       </c>
       <c r="AP97" s="11">
-        <v>11472060</v>
+        <v>14980861</v>
       </c>
       <c r="AQ97" s="11">
-        <v>17859296</v>
+        <v>8534820</v>
       </c>
       <c r="AR97" s="11">
-        <v>14980861</v>
+        <v>34010895</v>
       </c>
       <c r="AS97" s="11">
-        <v>8534820</v>
+        <v>9728804</v>
       </c>
       <c r="AT97" s="11">
-        <v>34010895</v>
+        <v>11597823</v>
       </c>
       <c r="AU97" s="11">
-        <v>9766059</v>
+        <v>9333491</v>
       </c>
       <c r="AV97" s="11">
-        <v>11597823</v>
+        <v>7290146</v>
       </c>
       <c r="AW97" s="11">
-        <v>9333491</v>
+        <v>11812361</v>
       </c>
       <c r="AX97" s="11">
-        <v>7290146</v>
+        <v>8501701</v>
       </c>
       <c r="AY97" s="11">
-        <v>11812361</v>
+        <v>11865318</v>
       </c>
       <c r="AZ97" s="11">
-        <v>8501701</v>
+        <v>12143829</v>
       </c>
       <c r="BA97" s="11">
-        <v>11865318</v>
+        <v>9160484</v>
       </c>
       <c r="BB97" s="11">
-        <v>12143829</v>
+        <v>9187592</v>
       </c>
     </row>
-    <row r="98" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B98" s="8" t="s">
         <v>92</v>
       </c>
@@ -12839,7 +12839,7 @@
       <c r="BA98" s="9"/>
       <c r="BB98" s="9"/>
     </row>
-    <row r="99" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
         <v>56</v>
       </c>
@@ -12901,18 +12901,18 @@
       <c r="V99" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W99" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X99" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y99" s="11">
+      <c r="W99" s="11">
         <v>54795</v>
       </c>
-      <c r="Z99" s="11">
+      <c r="X99" s="11">
         <v>33185</v>
       </c>
+      <c r="Y99" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z99" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AA99" s="11" t="s">
         <v>58</v>
       </c>
@@ -12940,26 +12940,26 @@
       <c r="AI99" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ99" s="11" t="s">
-        <v>58</v>
+      <c r="AJ99" s="11">
+        <v>60379</v>
       </c>
       <c r="AK99" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL99" s="11">
-        <v>60379</v>
+      <c r="AL99" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AM99" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN99" s="11" t="s">
-        <v>58</v>
+      <c r="AN99" s="11">
+        <v>41776</v>
       </c>
       <c r="AO99" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP99" s="11">
-        <v>41776</v>
+      <c r="AP99" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AQ99" s="11" t="s">
         <v>58</v>
@@ -12976,14 +12976,14 @@
       <c r="AU99" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV99" s="11" t="s">
-        <v>58</v>
+      <c r="AV99" s="11">
+        <v>69478</v>
       </c>
       <c r="AW99" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX99" s="11">
-        <v>69478</v>
+      <c r="AX99" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AY99" s="11" t="s">
         <v>58</v>
@@ -12998,7 +12998,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="100" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B100" s="12" t="s">
         <v>59</v>
       </c>
@@ -13060,20 +13060,20 @@
       <c r="V100" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W100" s="13" t="s">
-        <v>58</v>
+      <c r="W100" s="13">
+        <v>175743</v>
       </c>
       <c r="X100" s="13" t="s">
         <v>58</v>
       </c>
       <c r="Y100" s="13">
-        <v>175743</v>
+        <v>139200</v>
       </c>
       <c r="Z100" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA100" s="13">
-        <v>139200</v>
+      <c r="AA100" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AB100" s="13" t="s">
         <v>58</v>
@@ -13081,14 +13081,14 @@
       <c r="AC100" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD100" s="13" t="s">
-        <v>58</v>
+      <c r="AD100" s="13">
+        <v>66667</v>
       </c>
       <c r="AE100" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF100" s="13">
-        <v>66667</v>
+      <c r="AF100" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG100" s="13" t="s">
         <v>58</v>
@@ -13126,23 +13126,23 @@
       <c r="AR100" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS100" s="13" t="s">
-        <v>58</v>
+      <c r="AS100" s="13">
+        <v>292259</v>
       </c>
       <c r="AT100" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AU100" s="13">
-        <v>292259</v>
+        <v>270622</v>
       </c>
       <c r="AV100" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW100" s="13">
-        <v>270622</v>
-      </c>
-      <c r="AX100" s="13">
-        <v>17762</v>
+      <c r="AW100" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX100" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AY100" s="13" t="s">
         <v>58</v>
@@ -13157,7 +13157,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="101" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
         <v>61</v>
       </c>
@@ -13219,24 +13219,24 @@
       <c r="V101" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W101" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X101" s="11" t="s">
-        <v>58</v>
+      <c r="W101" s="11">
+        <v>25365618</v>
+      </c>
+      <c r="X101" s="11">
+        <v>1516646</v>
       </c>
       <c r="Y101" s="11">
-        <v>25365618</v>
+        <v>1721203</v>
       </c>
       <c r="Z101" s="11">
-        <v>1516646</v>
-      </c>
-      <c r="AA101" s="11">
-        <v>1721203</v>
-      </c>
-      <c r="AB101" s="11">
         <v>1105556</v>
       </c>
+      <c r="AA101" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB101" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AC101" s="11" t="s">
         <v>58</v>
       </c>
@@ -13249,21 +13249,21 @@
       <c r="AF101" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG101" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH101" s="11" t="s">
-        <v>58</v>
+      <c r="AG101" s="11">
+        <v>1420338</v>
+      </c>
+      <c r="AH101" s="11">
+        <v>36995496</v>
       </c>
       <c r="AI101" s="11">
-        <v>1420338</v>
-      </c>
-      <c r="AJ101" s="11">
-        <v>36995496</v>
-      </c>
-      <c r="AK101" s="11">
         <v>15230769</v>
       </c>
+      <c r="AJ101" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK101" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AL101" s="11" t="s">
         <v>58</v>
       </c>
@@ -13276,32 +13276,32 @@
       <c r="AO101" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP101" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ101" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR101" s="11">
+      <c r="AP101" s="11">
         <v>21166154</v>
       </c>
+      <c r="AQ101" s="11">
+        <v>4170965</v>
+      </c>
+      <c r="AR101" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AS101" s="11">
-        <v>4170965</v>
+        <v>75093168</v>
       </c>
       <c r="AT101" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AU101" s="11">
-        <v>73378882</v>
-      </c>
-      <c r="AV101" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW101" s="11">
         <v>2153846</v>
       </c>
-      <c r="AX101" s="11">
-        <v>2795097</v>
+      <c r="AV101" s="11">
+        <v>2792430</v>
+      </c>
+      <c r="AW101" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX101" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AY101" s="11" t="s">
         <v>58</v>
@@ -13312,11 +13312,11 @@
       <c r="BA101" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BB101" s="11" t="s">
-        <v>58</v>
+      <c r="BB101" s="11">
+        <v>58183468</v>
       </c>
     </row>
-    <row r="102" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B102" s="8" t="s">
         <v>93</v>
       </c>
@@ -13373,7 +13373,7 @@
       <c r="BA102" s="9"/>
       <c r="BB102" s="9"/>
     </row>
-    <row r="103" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
         <v>56</v>
       </c>
@@ -13435,38 +13435,38 @@
       <c r="V103" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W103" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X103" s="11" t="s">
-        <v>58</v>
+      <c r="W103" s="11">
+        <v>26663</v>
+      </c>
+      <c r="X103" s="11">
+        <v>36328</v>
       </c>
       <c r="Y103" s="11">
-        <v>26663</v>
+        <v>35307</v>
       </c>
       <c r="Z103" s="11">
-        <v>36328</v>
+        <v>36300</v>
       </c>
       <c r="AA103" s="11">
-        <v>35307</v>
+        <v>36352</v>
       </c>
       <c r="AB103" s="11">
         <v>36300</v>
       </c>
       <c r="AC103" s="11">
-        <v>36352</v>
+        <v>36380</v>
       </c>
       <c r="AD103" s="11">
+        <v>36417</v>
+      </c>
+      <c r="AE103" s="11">
         <v>36300</v>
       </c>
-      <c r="AE103" s="11">
-        <v>36380</v>
-      </c>
-      <c r="AF103" s="11">
-        <v>36417</v>
-      </c>
-      <c r="AG103" s="11">
-        <v>36300</v>
+      <c r="AF103" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG103" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH103" s="11" t="s">
         <v>58</v>
@@ -13495,44 +13495,44 @@
       <c r="AP103" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ103" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR103" s="11" t="s">
-        <v>58</v>
+      <c r="AQ103" s="11">
+        <v>63846</v>
+      </c>
+      <c r="AR103" s="11">
+        <v>0</v>
       </c>
       <c r="AS103" s="11">
-        <v>63846</v>
+        <v>73458</v>
       </c>
       <c r="AT103" s="11">
-        <v>0</v>
+        <v>80016</v>
       </c>
       <c r="AU103" s="11">
-        <v>74353</v>
+        <v>75456</v>
       </c>
       <c r="AV103" s="11">
-        <v>80016</v>
+        <v>78449</v>
       </c>
       <c r="AW103" s="11">
-        <v>75456</v>
+        <v>82413</v>
       </c>
       <c r="AX103" s="11">
-        <v>78449</v>
+        <v>79999</v>
       </c>
       <c r="AY103" s="11">
-        <v>82413</v>
+        <v>80084</v>
       </c>
       <c r="AZ103" s="11">
+        <v>85455</v>
+      </c>
+      <c r="BA103" s="11">
+        <v>80000</v>
+      </c>
+      <c r="BB103" s="11">
         <v>79999</v>
       </c>
-      <c r="BA103" s="11">
-        <v>80084</v>
-      </c>
-      <c r="BB103" s="11">
-        <v>85455</v>
-      </c>
     </row>
-    <row r="104" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B104" s="12" t="s">
         <v>59</v>
       </c>
@@ -13594,39 +13594,39 @@
       <c r="V104" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W104" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X104" s="13" t="s">
-        <v>58</v>
+      <c r="W104" s="13">
+        <v>0</v>
+      </c>
+      <c r="X104" s="13">
+        <v>66246</v>
       </c>
       <c r="Y104" s="13">
-        <v>0</v>
+        <v>43233</v>
       </c>
       <c r="Z104" s="13">
-        <v>66246</v>
+        <v>43067</v>
       </c>
       <c r="AA104" s="13">
-        <v>43233</v>
+        <v>0</v>
       </c>
       <c r="AB104" s="13">
-        <v>43067</v>
+        <v>100050</v>
       </c>
       <c r="AC104" s="13">
-        <v>0</v>
+        <v>94996</v>
       </c>
       <c r="AD104" s="13">
-        <v>100050</v>
+        <v>0</v>
       </c>
       <c r="AE104" s="13">
-        <v>94996</v>
-      </c>
-      <c r="AF104" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG104" s="13">
         <v>1000000</v>
       </c>
+      <c r="AF104" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG104" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AH104" s="13" t="s">
         <v>58</v>
       </c>
@@ -13654,14 +13654,14 @@
       <c r="AP104" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ104" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR104" s="13" t="s">
-        <v>58</v>
+      <c r="AQ104" s="13">
+        <v>109658</v>
+      </c>
+      <c r="AR104" s="13">
+        <v>0</v>
       </c>
       <c r="AS104" s="13">
-        <v>109658</v>
+        <v>0</v>
       </c>
       <c r="AT104" s="13">
         <v>0</v>
@@ -13685,13 +13685,13 @@
         <v>0</v>
       </c>
       <c r="BA104" s="13">
-        <v>0</v>
+        <v>203658</v>
       </c>
       <c r="BB104" s="13">
-        <v>0</v>
+        <v>199995</v>
       </c>
     </row>
-    <row r="105" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
         <v>61</v>
       </c>
@@ -13753,11 +13753,11 @@
       <c r="V105" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W105" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X105" s="11" t="s">
-        <v>58</v>
+      <c r="W105" s="11">
+        <v>0</v>
+      </c>
+      <c r="X105" s="11">
+        <v>0</v>
       </c>
       <c r="Y105" s="11">
         <v>0</v>
@@ -13766,67 +13766,67 @@
         <v>0</v>
       </c>
       <c r="AA105" s="11">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="AB105" s="11">
-        <v>0</v>
+        <v>3250284</v>
       </c>
       <c r="AC105" s="11">
+        <v>2998994</v>
+      </c>
+      <c r="AD105" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE105" s="11">
+        <v>469053</v>
+      </c>
+      <c r="AF105" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG105" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH105" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI105" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ105" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK105" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL105" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM105" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN105" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO105" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP105" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ105" s="11">
         <v>3000000</v>
       </c>
-      <c r="AD105" s="11">
-        <v>3250284</v>
-      </c>
-      <c r="AE105" s="11">
-        <v>2998994</v>
-      </c>
-      <c r="AF105" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG105" s="11">
-        <v>469053</v>
-      </c>
-      <c r="AH105" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI105" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ105" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK105" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL105" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM105" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN105" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO105" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP105" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ105" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR105" s="11" t="s">
-        <v>58</v>
+      <c r="AR105" s="11">
+        <v>0</v>
       </c>
       <c r="AS105" s="11">
-        <v>3000000</v>
+        <v>10000000</v>
       </c>
       <c r="AT105" s="11">
         <v>0</v>
       </c>
       <c r="AU105" s="11">
-        <v>9995365</v>
+        <v>0</v>
       </c>
       <c r="AV105" s="11">
         <v>0</v>
@@ -13838,19 +13838,19 @@
         <v>0</v>
       </c>
       <c r="AY105" s="11">
-        <v>0</v>
+        <v>3185047</v>
       </c>
       <c r="AZ105" s="11">
         <v>0</v>
       </c>
       <c r="BA105" s="11">
-        <v>3185047</v>
+        <v>0</v>
       </c>
       <c r="BB105" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B106" s="12" t="s">
         <v>66</v>
       </c>
@@ -13939,45 +13939,45 @@
       <c r="AE106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF106" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG106" s="13" t="s">
-        <v>58</v>
+      <c r="AF106" s="13">
+        <v>28999</v>
+      </c>
+      <c r="AG106" s="13">
+        <v>0</v>
       </c>
       <c r="AH106" s="13">
-        <v>28999</v>
+        <v>69999</v>
       </c>
       <c r="AI106" s="13">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="AJ106" s="13">
         <v>69999</v>
       </c>
       <c r="AK106" s="13">
-        <v>70000</v>
+        <v>66033</v>
       </c>
       <c r="AL106" s="13">
         <v>69999</v>
       </c>
       <c r="AM106" s="13">
-        <v>66033</v>
+        <v>67815</v>
       </c>
       <c r="AN106" s="13">
-        <v>69999</v>
+        <v>69408</v>
       </c>
       <c r="AO106" s="13">
-        <v>67815</v>
+        <v>64591</v>
       </c>
       <c r="AP106" s="13">
-        <v>69408</v>
-      </c>
-      <c r="AQ106" s="13">
-        <v>64591</v>
-      </c>
-      <c r="AR106" s="13">
         <v>67147</v>
       </c>
+      <c r="AQ106" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR106" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AS106" s="13" t="s">
         <v>58</v>
       </c>
@@ -14009,7 +14009,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="107" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
         <v>68</v>
       </c>
@@ -14098,14 +14098,14 @@
       <c r="AE107" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF107" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG107" s="11" t="s">
-        <v>58</v>
+      <c r="AF107" s="11">
+        <v>4018557</v>
+      </c>
+      <c r="AG107" s="11">
+        <v>0</v>
       </c>
       <c r="AH107" s="11">
-        <v>4018557</v>
+        <v>0</v>
       </c>
       <c r="AI107" s="11">
         <v>0</v>
@@ -14114,29 +14114,29 @@
         <v>0</v>
       </c>
       <c r="AK107" s="11">
-        <v>0</v>
+        <v>10014493</v>
       </c>
       <c r="AL107" s="11">
         <v>0</v>
       </c>
       <c r="AM107" s="11">
-        <v>10014493</v>
+        <v>4222222</v>
       </c>
       <c r="AN107" s="11">
         <v>0</v>
       </c>
       <c r="AO107" s="11">
-        <v>4222222</v>
+        <v>0</v>
       </c>
       <c r="AP107" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ107" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR107" s="11">
         <v>17980583</v>
       </c>
+      <c r="AQ107" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR107" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AS107" s="11" t="s">
         <v>58</v>
       </c>
@@ -14168,7 +14168,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="108" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B108" s="12" t="s">
         <v>70</v>
       </c>
@@ -14257,44 +14257,44 @@
       <c r="AE108" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF108" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG108" s="13" t="s">
-        <v>58</v>
+      <c r="AF108" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG108" s="13">
+        <v>43239</v>
       </c>
       <c r="AH108" s="13">
-        <v>0</v>
+        <v>20229</v>
       </c>
       <c r="AI108" s="13">
-        <v>43239</v>
+        <v>43236</v>
       </c>
       <c r="AJ108" s="13">
-        <v>20229</v>
+        <v>113439</v>
       </c>
       <c r="AK108" s="13">
-        <v>43236</v>
+        <v>108002</v>
       </c>
       <c r="AL108" s="13">
-        <v>113439</v>
+        <v>108000</v>
       </c>
       <c r="AM108" s="13">
-        <v>108002</v>
+        <v>118905</v>
       </c>
       <c r="AN108" s="13">
+        <v>67613</v>
+      </c>
+      <c r="AO108" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP108" s="13">
         <v>108000</v>
       </c>
-      <c r="AO108" s="13">
-        <v>118905</v>
-      </c>
-      <c r="AP108" s="13">
-        <v>67613</v>
-      </c>
-      <c r="AQ108" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR108" s="13">
-        <v>108000</v>
+      <c r="AQ108" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR108" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS108" s="13" t="s">
         <v>58</v>
